--- a/data/balance_sheet/3digits/total/091_BS_TOTAL.xlsx
+++ b/data/balance_sheet/3digits/total/091_BS_TOTAL.xlsx
@@ -3,656 +3,24 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KBIL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KBIL!$A$1:$M$245</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KBIL'!$A$1:$N$245</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="209">
-  <si>
-    <t>091-Support activities for petroleum and natural gas extraction</t>
-  </si>
-  <si>
-    <t>BALANCE SHEET (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>ASSETS</t>
-  </si>
-  <si>
-    <t>I-CURRENT ASSETS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A-Liquid Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Cash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Checks Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Banks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Checks Given and Payment Orders (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Liquid Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Private Sector Bonds, Notes &amp; Bills </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Public Sector Bonds, Notes &amp; Bills </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provisions for  Marketable Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Short-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Customers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Notes Receivable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other Short-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Doubtful Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provis. for Doubtful Trade Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Other Short-Term Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Receivables from Shareholders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Receivables from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Receivables from Employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Discount on Other Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Doubtful Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provis. for Other Doubtful Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Inventories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Raw Materials &amp; Consumables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Work in Progress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Finished Goods</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Merchandise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Inventories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Inventories (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Advances on Purchase Orders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Constr.&amp; Restor.Costs Spread Over Yrs.</t>
-  </si>
-  <si>
-    <t>1- Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
-  </si>
-  <si>
-    <t>2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
-  </si>
-  <si>
-    <t>3- Advances to Subcontractors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Prepaym.&amp; Accr. Inc.for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Prepayments for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Accrued Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  H- Other Current Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T.Carried to the Next Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- V.A.T. Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other V.A.T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Prepaid Taxes and Funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Business Related Advances </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Advances to employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Stock Taking and Receiving Shortages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Provisions for Other Current Assets (-)</t>
-  </si>
-  <si>
-    <t>II- FIXED ASSETS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Long-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Doubtful Trade Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Other Long-Term Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Provis. for Other Doubtful Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Financial Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Non-Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Provis.for  non-Marketable Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Subscribed Capital to Participations (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provis.for Capital Share in Participations (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Subscribed Capital to Affili. Enterprises (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provi.for Capital Share in Affili.Enterp. (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Other Financial Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      10- Provi. for Other Financial Fixed Assets (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Land</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Land Improvements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Buildings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Machinery, Plant &amp; Equipment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Motor Vehicles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Furniture &amp; Fixtures</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Accumulated Depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Assets in Construction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      10- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Intangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Know-How</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Goodwill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Formation and Organisation Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Research and Development Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Special Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other Intangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Accumulated Depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Assets Subject to Depletion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Exploration Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Preparation and Development Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other Assets subject to Depletion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Accumulated Depletion (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G-Prepaym.&amp; Accrued Inc. for the Next Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Prepayments for the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   H- Other Long-Term Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Deductable in the Following Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other V.A.T.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Inventory Held for the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Inventories and Tang.Fixed Assets to be Sold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Prepaid taxes and funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Provisions for  inventories (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Accumulated depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Suspence Account</t>
-  </si>
-  <si>
-    <t>TOTAL ASSETS</t>
-  </si>
-  <si>
-    <t>LIABILITIES</t>
-  </si>
-  <si>
-    <t>I- SHORT-TERM LIABILITIES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Financial Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Bank Loans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Financial Leasing Payables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Princip.Installm.&amp; Int.Paym.of Long-Term Loans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Principal Installm.&amp; Int.Paym.of  Bonds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Commercial Papers Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Securities Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Adjust.for Secur.Issued under Par Value (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Other Financial Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Trade Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Creditors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Notes Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Trade Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Other Short-Term Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Amounts Owed to Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Amounts Owed to Employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Remunerations Spread Over Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Advances to Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Taxes and Other Liabilities Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Taxes and Funds Payable </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Social Security Costs Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Taxes &amp; Oth.Liab.that are Overd.or Deferred</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Liabilities Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Provisions for Inc.Tax &amp; Oth.Liab.to Gov.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Prepaid Inc.Tax &amp; Other Liab.to Gov.(-) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Provisions for Severance Payments </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Provisions for Costs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   H- Defer.Inc.&amp; Accr.Exp.for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Deferred Income for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Accrued Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   I- Other Short-Term Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Calculated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Main and Branch Offices' Current Account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Stock Taking and Receiving Surpluses</t>
-  </si>
-  <si>
-    <t>II- LONG-TERM LIABILITIES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Bonds Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Securities Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Adjust.for the Secur.Issued Under Par Value (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Financial Liabilities </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Other Long-Term Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Disc. on Oth.Short-term Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Deferred &amp; Scheduled Paym.to Gov.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D-Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Provisions for Severance Payments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other Provisions </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Defer.Inc.&amp; Accr.Exp.for the Next Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Deferred Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Other Long-Term Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Deferred to the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Shares in the Plant and Equipment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other </t>
-  </si>
-  <si>
-    <t>III- SHAREHOLDERS EQUITY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Paid-in Capital</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Subscribed Capital </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Subscribed Capital Uncalled (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Revaluation Adjustment to Capital (+)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Revaluation Adjustment to Capital (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Capital Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Share Premium Account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Gains From Reedemption of Shares</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Revaluation of Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Revaluation of Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provisions for Commodities Recorded   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Machinery and Equipment  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Capital Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Reserves from Retained Earnings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Legal Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Reser.Provided for by the Artic.of the Assoc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Extraordinary Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Special Funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Profit Brought Forward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Loss Brought Forward (-) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Net Profit or Loss for the Financial Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Profit for the Financial Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Loss for the Financial Year (-)</t>
-  </si>
-  <si>
-    <t>TOTAL LIABILITIES</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -899,178 +267,246 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="71">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="4" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="4" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="4" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="4" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="10" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="1" locked="1"/>
+      <protection locked="1" hidden="1"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="1" locked="1"/>
+      <protection locked="1" hidden="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="10" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="13" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1365,22 +801,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N245"/>
+  <dimension ref="A1:O245"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A202" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="B210" sqref="B210"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="12.75" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="20" width="0.625"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="20" width="35.5"/>
-    <col customWidth="1" max="13" min="3" style="20" width="11.625"/>
-    <col customWidth="1" max="14" min="14" style="20" width="2"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="14"/>
+    <col width="0.625" customWidth="1" style="20" min="1" max="1"/>
+    <col width="35.5" bestFit="1" customWidth="1" style="20" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="20" min="3" max="14"/>
+    <col width="2" customWidth="1" style="20" min="15" max="15"/>
+    <col hidden="1" style="14" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="9.949999999999999" r="1" s="70" spans="1:14">
+    <row r="1" ht="9.949999999999999" customHeight="1" s="70">
       <c r="A1" s="1" t="n"/>
       <c r="B1" s="29" t="n"/>
       <c r="C1" s="29" t="n"/>
@@ -1394,11 +830,14 @@
       <c r="K1" s="29" t="n"/>
       <c r="L1" s="29" t="n"/>
       <c r="M1" s="29" t="n"/>
-      <c r="N1" s="1" t="n"/>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
+      <c r="N1" s="29" t="n"/>
+      <c r="O1" s="1" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>091-Support activities for petroleum and natural gas extraction</t>
+        </is>
       </c>
       <c r="B2" s="27" t="n"/>
       <c r="C2" s="54" t="n"/>
@@ -1412,11 +851,14 @@
       <c r="K2" s="54" t="n"/>
       <c r="L2" s="54" t="n"/>
       <c r="M2" s="54" t="n"/>
-      <c r="N2" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.5" r="3" s="70" spans="1:14">
-      <c r="A3" s="55" t="s">
-        <v>1</v>
+      <c r="N2" s="54" t="n"/>
+      <c r="O2" s="10" t="n"/>
+    </row>
+    <row r="3" ht="13.5" customHeight="1" s="70">
+      <c r="A3" s="55" t="inlineStr">
+        <is>
+          <t>BALANCE SHEET (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="B3" s="14" t="n"/>
       <c r="C3" s="29" t="n"/>
@@ -1430,12 +872,15 @@
       <c r="K3" s="29" t="n"/>
       <c r="L3" s="29" t="n"/>
       <c r="M3" s="29" t="n"/>
-      <c r="N3" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="25.5" r="4" s="70" spans="1:14">
+      <c r="N3" s="29" t="n"/>
+      <c r="O3" s="1" t="n"/>
+    </row>
+    <row r="4" ht="25.5" customHeight="1" s="70">
       <c r="A4" s="3" t="n"/>
-      <c r="B4" s="30" t="s">
-        <v>2</v>
+      <c r="B4" s="30" t="inlineStr">
+        <is>
+          <t>ASSETS</t>
+        </is>
       </c>
       <c r="C4" s="31" t="n">
         <v>2009</v>
@@ -1470,12 +915,17 @@
       <c r="M4" s="31" t="n">
         <v>2019</v>
       </c>
-      <c r="N4" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="5" s="70" spans="1:14">
+      <c r="N4" s="31" t="n">
+        <v>2020</v>
+      </c>
+      <c r="O4" s="10" t="n"/>
+    </row>
+    <row r="5" ht="12.6" customHeight="1" s="70">
       <c r="A5" s="5" t="n"/>
-      <c r="B5" s="56" t="s">
-        <v>3</v>
+      <c r="B5" s="56" t="inlineStr">
+        <is>
+          <t>I-CURRENT ASSETS</t>
+        </is>
       </c>
       <c r="C5" s="32" t="n">
         <v>202271.83445</v>
@@ -1490,32 +940,37 @@
         <v>886601.5324299999</v>
       </c>
       <c r="G5" s="32" t="n">
-        <v>989843.3804799999</v>
+        <v>989843.3804800001</v>
       </c>
       <c r="H5" s="33" t="n">
-        <v>1223995.34766</v>
+        <v>1223962.40836</v>
       </c>
       <c r="I5" s="32" t="n">
-        <v>1172696.57057</v>
+        <v>1194336.37382</v>
       </c>
       <c r="J5" s="33" t="n">
-        <v>1558403.45043</v>
+        <v>1558464.99059</v>
       </c>
       <c r="K5" s="32" t="n">
         <v>1403325.34376</v>
       </c>
       <c r="L5" s="32" t="n">
-        <v>2150941.82848</v>
+        <v>2248525.50156</v>
       </c>
       <c r="M5" s="32" t="n">
-        <v>3456012.24425</v>
-      </c>
-      <c r="N5" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="6" s="70" spans="1:14">
+        <v>3946005.5858</v>
+      </c>
+      <c r="N5" s="32" t="n">
+        <v>6693898.075</v>
+      </c>
+      <c r="O5" s="10" t="n"/>
+    </row>
+    <row r="6" ht="12.6" customHeight="1" s="70">
       <c r="A6" s="8" t="n"/>
-      <c r="B6" s="57" t="s">
-        <v>4</v>
+      <c r="B6" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A-Liquid Assets</t>
+        </is>
       </c>
       <c r="C6" s="23" t="n">
         <v>38084.85558</v>
@@ -1530,32 +985,37 @@
         <v>468889.4139</v>
       </c>
       <c r="G6" s="23" t="n">
-        <v>389327.91602</v>
+        <v>389327.9160200001</v>
       </c>
       <c r="H6" s="33" t="n">
-        <v>479457.11902</v>
+        <v>479370.01869</v>
       </c>
       <c r="I6" s="23" t="n">
-        <v>423654.66294</v>
+        <v>424111.89522</v>
       </c>
       <c r="J6" s="33" t="n">
-        <v>671180.46375</v>
+        <v>671236.7296899999</v>
       </c>
       <c r="K6" s="23" t="n">
-        <v>493676.8698100001</v>
+        <v>493676.8698099999</v>
       </c>
       <c r="L6" s="23" t="n">
-        <v>547640.30988</v>
+        <v>560024.6011500001</v>
       </c>
       <c r="M6" s="23" t="n">
-        <v>1019720.76825</v>
-      </c>
-      <c r="N6" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="7" s="70" spans="1:14">
+        <v>1082815.59406</v>
+      </c>
+      <c r="N6" s="23" t="n">
+        <v>1855121.339</v>
+      </c>
+      <c r="O6" s="11" t="n"/>
+    </row>
+    <row r="7" ht="12.6" customHeight="1" s="70">
       <c r="A7" s="5" t="n"/>
-      <c r="B7" s="64" t="s">
-        <v>5</v>
+      <c r="B7" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Cash</t>
+        </is>
       </c>
       <c r="C7" s="22" t="n">
         <v>671.5740699999999</v>
@@ -1573,29 +1033,34 @@
         <v>1109.71551</v>
       </c>
       <c r="H7" s="21" t="n">
-        <v>2101.58853</v>
+        <v>2100.58781</v>
       </c>
       <c r="I7" s="22" t="n">
-        <v>2250.78081</v>
+        <v>2250.82214</v>
       </c>
       <c r="J7" s="21" t="n">
-        <v>1818.42015</v>
+        <v>1858.17824</v>
       </c>
       <c r="K7" s="22" t="n">
         <v>1767.84017</v>
       </c>
       <c r="L7" s="22" t="n">
-        <v>2240.49189</v>
+        <v>2256.7829</v>
       </c>
       <c r="M7" s="22" t="n">
-        <v>2592.9429</v>
-      </c>
-      <c r="N7" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="8" s="70" spans="1:14">
+        <v>2626.66893</v>
+      </c>
+      <c r="N7" s="22" t="n">
+        <v>2529.268</v>
+      </c>
+      <c r="O7" s="10" t="n"/>
+    </row>
+    <row r="8" ht="12.6" customHeight="1" s="70">
       <c r="A8" s="5" t="n"/>
-      <c r="B8" s="64" t="s">
-        <v>6</v>
+      <c r="B8" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Checks Received</t>
+        </is>
       </c>
       <c r="C8" s="22" t="n">
         <v>941.70033</v>
@@ -1630,12 +1095,17 @@
       <c r="M8" s="22" t="n">
         <v>4283.30989</v>
       </c>
-      <c r="N8" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="9" s="70" spans="1:14">
+      <c r="N8" s="22" t="n">
+        <v>6853.462</v>
+      </c>
+      <c r="O8" s="10" t="n"/>
+    </row>
+    <row r="9" ht="12.6" customHeight="1" s="70">
       <c r="A9" s="5" t="n"/>
-      <c r="B9" s="64" t="s">
-        <v>7</v>
+      <c r="B9" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Banks</t>
+        </is>
       </c>
       <c r="C9" s="22" t="n">
         <v>36510.42795</v>
@@ -1653,32 +1123,37 @@
         <v>388324.2158</v>
       </c>
       <c r="H9" s="21" t="n">
-        <v>477271.77665</v>
+        <v>477185.67704</v>
       </c>
       <c r="I9" s="22" t="n">
-        <v>421392.35648</v>
+        <v>421849.54743</v>
       </c>
       <c r="J9" s="21" t="n">
-        <v>669110.25442</v>
+        <v>669126.7622699999</v>
       </c>
       <c r="K9" s="22" t="n">
-        <v>494460.03145</v>
+        <v>494460.0314500001</v>
       </c>
       <c r="L9" s="22" t="n">
-        <v>541306.60944</v>
+        <v>553674.6097</v>
       </c>
       <c r="M9" s="22" t="n">
-        <v>1013293.33034</v>
-      </c>
-      <c r="N9" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="10" s="70" spans="1:14">
+        <v>1076354.43012</v>
+      </c>
+      <c r="N9" s="22" t="n">
+        <v>1846739.421</v>
+      </c>
+      <c r="O9" s="10" t="n"/>
+    </row>
+    <row r="10" ht="12.6" customHeight="1" s="70">
       <c r="A10" s="5" t="n"/>
-      <c r="B10" s="59" t="s">
-        <v>8</v>
+      <c r="B10" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Checks Given and Payment Orders (-)</t>
+        </is>
       </c>
       <c r="C10" s="22" t="n">
-        <v>42.33084</v>
+        <v>42.33083999999999</v>
       </c>
       <c r="D10" s="22" t="n">
         <v>11.57034</v>
@@ -1710,12 +1185,17 @@
       <c r="M10" s="22" t="n">
         <v>467.7887</v>
       </c>
-      <c r="N10" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="11" s="70" spans="1:14">
+      <c r="N10" s="22" t="n">
+        <v>1024.247</v>
+      </c>
+      <c r="O10" s="10" t="n"/>
+    </row>
+    <row r="11" ht="12.6" customHeight="1" s="70">
       <c r="A11" s="5" t="n"/>
-      <c r="B11" s="64" t="s">
-        <v>9</v>
+      <c r="B11" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Liquid Assets</t>
+        </is>
       </c>
       <c r="C11" s="22" t="n">
         <v>3.48407</v>
@@ -1750,12 +1230,17 @@
       <c r="M11" s="22" t="n">
         <v>18.97382</v>
       </c>
-      <c r="N11" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="12" s="70" spans="1:14">
+      <c r="N11" s="22" t="n">
+        <v>23.435</v>
+      </c>
+      <c r="O11" s="10" t="n"/>
+    </row>
+    <row r="12" ht="12.6" customHeight="1" s="70">
       <c r="A12" s="8" t="n"/>
-      <c r="B12" s="60" t="s">
-        <v>10</v>
+      <c r="B12" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Marketable Securities</t>
+        </is>
       </c>
       <c r="C12" s="23" t="n">
         <v>1955.37907</v>
@@ -1770,7 +1255,7 @@
         <v>14438.02971</v>
       </c>
       <c r="G12" s="23" t="n">
-        <v>719.20971</v>
+        <v>719.2097100000001</v>
       </c>
       <c r="H12" s="33" t="n">
         <v>749.6664499999999</v>
@@ -1782,20 +1267,25 @@
         <v>738.1173199999999</v>
       </c>
       <c r="K12" s="23" t="n">
-        <v>51159.64023999999</v>
+        <v>51159.64024</v>
       </c>
       <c r="L12" s="23" t="n">
-        <v>51065.47044999999</v>
+        <v>51065.47045</v>
       </c>
       <c r="M12" s="23" t="n">
         <v>171207.94194</v>
       </c>
-      <c r="N12" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="13" s="70" spans="1:14">
+      <c r="N12" s="23" t="n">
+        <v>388001.257</v>
+      </c>
+      <c r="O12" s="11" t="n"/>
+    </row>
+    <row r="13" ht="12.6" customHeight="1" s="70">
       <c r="A13" s="5" t="n"/>
-      <c r="B13" s="64" t="s">
-        <v>11</v>
+      <c r="B13" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Securities</t>
+        </is>
       </c>
       <c r="C13" s="22" t="n">
         <v>645.4574399999999</v>
@@ -1830,12 +1320,17 @@
       <c r="M13" s="22" t="n">
         <v>1059.34298</v>
       </c>
-      <c r="N13" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="14" s="70" spans="1:14">
+      <c r="N13" s="22" t="n">
+        <v>2404.812</v>
+      </c>
+      <c r="O13" s="10" t="n"/>
+    </row>
+    <row r="14" ht="12.6" customHeight="1" s="70">
       <c r="A14" s="5" t="n"/>
-      <c r="B14" s="64" t="s">
-        <v>12</v>
+      <c r="B14" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Private Sector Bonds, Notes &amp; Bills </t>
+        </is>
       </c>
       <c r="C14" s="22" t="n">
         <v>28.80438</v>
@@ -1870,12 +1365,17 @@
       <c r="M14" s="22" t="n">
         <v>148.56458</v>
       </c>
-      <c r="N14" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="15" s="70" spans="1:14">
+      <c r="N14" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" s="10" t="n"/>
+    </row>
+    <row r="15" ht="12.6" customHeight="1" s="70">
       <c r="A15" s="5" t="n"/>
-      <c r="B15" s="64" t="s">
-        <v>13</v>
+      <c r="B15" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Public Sector Bonds, Notes &amp; Bills </t>
+        </is>
       </c>
       <c r="C15" s="22" t="n">
         <v>0</v>
@@ -1910,12 +1410,17 @@
       <c r="M15" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N15" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="16" s="70" spans="1:14">
+      <c r="N15" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" s="10" t="n"/>
+    </row>
+    <row r="16" ht="12.6" customHeight="1" s="70">
       <c r="A16" s="5" t="n"/>
-      <c r="B16" s="64" t="s">
-        <v>14</v>
+      <c r="B16" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Marketable Securities</t>
+        </is>
       </c>
       <c r="C16" s="22" t="n">
         <v>1281.11725</v>
@@ -1939,7 +1444,7 @@
         <v>0.01981</v>
       </c>
       <c r="J16" s="21" t="n">
-        <v>0.03437999999999999</v>
+        <v>0.03438</v>
       </c>
       <c r="K16" s="22" t="n">
         <v>50000.03438</v>
@@ -1950,12 +1455,17 @@
       <c r="M16" s="22" t="n">
         <v>170000.03438</v>
       </c>
-      <c r="N16" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="17" s="70" spans="1:14">
+      <c r="N16" s="22" t="n">
+        <v>385596.445</v>
+      </c>
+      <c r="O16" s="10" t="n"/>
+    </row>
+    <row r="17" ht="12.6" customHeight="1" s="70">
       <c r="A17" s="5" t="n"/>
-      <c r="B17" s="61" t="s">
-        <v>15</v>
+      <c r="B17" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provisions for  Marketable Securities (-)</t>
+        </is>
       </c>
       <c r="C17" s="22" t="n">
         <v>0</v>
@@ -1990,12 +1500,17 @@
       <c r="M17" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N17" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="18" s="70" spans="1:14">
+      <c r="N17" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" s="10" t="n"/>
+    </row>
+    <row r="18" ht="12.6" customHeight="1" s="70">
       <c r="A18" s="8" t="n"/>
-      <c r="B18" s="60" t="s">
-        <v>16</v>
+      <c r="B18" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Short-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C18" s="23" t="n">
         <v>23727.10626</v>
@@ -2025,17 +1540,22 @@
         <v>223160.07523</v>
       </c>
       <c r="L18" s="23" t="n">
-        <v>495462.01354</v>
+        <v>511636.98483</v>
       </c>
       <c r="M18" s="23" t="n">
-        <v>552531.81926</v>
-      </c>
-      <c r="N18" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="19" s="70" spans="1:14">
+        <v>609841.0794200001</v>
+      </c>
+      <c r="N18" s="23" t="n">
+        <v>1916556.728</v>
+      </c>
+      <c r="O18" s="11" t="n"/>
+    </row>
+    <row r="19" ht="12.6" customHeight="1" s="70">
       <c r="A19" s="5" t="n"/>
-      <c r="B19" s="64" t="s">
-        <v>17</v>
+      <c r="B19" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Customers</t>
+        </is>
       </c>
       <c r="C19" s="22" t="n">
         <v>21859.01104</v>
@@ -2056,7 +1576,7 @@
         <v>136363.07024</v>
       </c>
       <c r="I19" s="22" t="n">
-        <v>82880.75811999998</v>
+        <v>82880.75812</v>
       </c>
       <c r="J19" s="21" t="n">
         <v>150946.9509</v>
@@ -2065,17 +1585,22 @@
         <v>169070.80012</v>
       </c>
       <c r="L19" s="22" t="n">
-        <v>468676.77642</v>
+        <v>484849.99771</v>
       </c>
       <c r="M19" s="22" t="n">
-        <v>516870.59428</v>
-      </c>
-      <c r="N19" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="20" s="70" spans="1:14">
+        <v>573428.86612</v>
+      </c>
+      <c r="N19" s="22" t="n">
+        <v>1825722.585</v>
+      </c>
+      <c r="O19" s="10" t="n"/>
+    </row>
+    <row r="20" ht="12.6" customHeight="1" s="70">
       <c r="A20" s="5" t="n"/>
-      <c r="B20" s="61" t="s">
-        <v>18</v>
+      <c r="B20" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Receivable</t>
+        </is>
       </c>
       <c r="C20" s="22" t="n">
         <v>219.88</v>
@@ -2110,12 +1635,17 @@
       <c r="M20" s="22" t="n">
         <v>506.31186</v>
       </c>
-      <c r="N20" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="21" s="70" spans="1:14">
+      <c r="N20" s="22" t="n">
+        <v>661.312</v>
+      </c>
+      <c r="O20" s="10" t="n"/>
+    </row>
+    <row r="21" ht="12.6" customHeight="1" s="70">
       <c r="A21" s="5" t="n"/>
-      <c r="B21" s="64" t="s">
-        <v>19</v>
+      <c r="B21" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C21" s="22" t="n">
         <v>0</v>
@@ -2150,12 +1680,17 @@
       <c r="M21" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N21" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="22" s="70" spans="1:14">
+      <c r="N21" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" s="10" t="n"/>
+    </row>
+    <row r="22" ht="12.6" customHeight="1" s="70">
       <c r="A22" s="5" t="n"/>
-      <c r="B22" s="64" t="s">
-        <v>20</v>
+      <c r="B22" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
+        </is>
       </c>
       <c r="C22" s="22" t="n">
         <v>0</v>
@@ -2190,18 +1725,23 @@
       <c r="M22" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N22" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="23" s="70" spans="1:14">
+      <c r="N22" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" s="10" t="n"/>
+    </row>
+    <row r="23" ht="12.6" customHeight="1" s="70">
       <c r="A23" s="5" t="n"/>
-      <c r="B23" s="61" t="s">
-        <v>21</v>
+      <c r="B23" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
+        </is>
       </c>
       <c r="C23" s="22" t="n">
         <v>134.5049</v>
       </c>
       <c r="D23" s="22" t="n">
-        <v>368.35449</v>
+        <v>368.3544900000001</v>
       </c>
       <c r="E23" s="22" t="n">
         <v>628.6866799999999</v>
@@ -2213,7 +1753,7 @@
         <v>2822.08677</v>
       </c>
       <c r="H23" s="21" t="n">
-        <v>933.0254399999999</v>
+        <v>933.0254400000001</v>
       </c>
       <c r="I23" s="22" t="n">
         <v>4552.81151</v>
@@ -2225,17 +1765,22 @@
         <v>17727.60554</v>
       </c>
       <c r="L23" s="22" t="n">
-        <v>22880.80679</v>
+        <v>22882.55679</v>
       </c>
       <c r="M23" s="22" t="n">
-        <v>16344.87899</v>
-      </c>
-      <c r="N23" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="24" s="70" spans="1:14">
+        <v>16990.1128</v>
+      </c>
+      <c r="N23" s="22" t="n">
+        <v>32466.74</v>
+      </c>
+      <c r="O23" s="10" t="n"/>
+    </row>
+    <row r="24" ht="12.6" customHeight="1" s="70">
       <c r="A24" s="5" t="n"/>
-      <c r="B24" s="64" t="s">
-        <v>22</v>
+      <c r="B24" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other Short-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C24" s="22" t="n">
         <v>642.61514</v>
@@ -2268,20 +1813,25 @@
         <v>3579.08003</v>
       </c>
       <c r="M24" s="22" t="n">
-        <v>18599.68383</v>
-      </c>
-      <c r="N24" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="25" s="70" spans="1:14">
+        <v>18705.43834</v>
+      </c>
+      <c r="N24" s="22" t="n">
+        <v>57495.741</v>
+      </c>
+      <c r="O24" s="10" t="n"/>
+    </row>
+    <row r="25" ht="12.6" customHeight="1" s="70">
       <c r="A25" s="5" t="n"/>
-      <c r="B25" s="64" t="s">
-        <v>23</v>
+      <c r="B25" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Doubtful Trade Receivables</t>
+        </is>
       </c>
       <c r="C25" s="22" t="n">
         <v>1766.1113</v>
       </c>
       <c r="D25" s="22" t="n">
-        <v>684.92274</v>
+        <v>684.9227399999999</v>
       </c>
       <c r="E25" s="22" t="n">
         <v>824.1083599999999</v>
@@ -2293,53 +1843,58 @@
         <v>919.5177799999999</v>
       </c>
       <c r="H25" s="21" t="n">
-        <v>953.1269100000001</v>
+        <v>994.4482699999999</v>
       </c>
       <c r="I25" s="22" t="n">
-        <v>1319.18936</v>
+        <v>2499.40545</v>
       </c>
       <c r="J25" s="21" t="n">
         <v>3176.176</v>
       </c>
       <c r="K25" s="22" t="n">
-        <v>4744.97236</v>
+        <v>4744.972360000001</v>
       </c>
       <c r="L25" s="22" t="n">
-        <v>4090.533539999999</v>
+        <v>4090.53354</v>
       </c>
       <c r="M25" s="22" t="n">
         <v>6007.30516</v>
       </c>
-      <c r="N25" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="26" s="70" spans="1:14">
+      <c r="N25" s="22" t="n">
+        <v>3430.121</v>
+      </c>
+      <c r="O25" s="10" t="n"/>
+    </row>
+    <row r="26" ht="12.6" customHeight="1" s="70">
       <c r="A26" s="8" t="n"/>
-      <c r="B26" s="64" t="s">
-        <v>24</v>
+      <c r="B26" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provis. for Doubtful Trade Receivables (-)</t>
+        </is>
       </c>
       <c r="C26" s="22" t="n">
         <v>895.01612</v>
       </c>
       <c r="D26" s="22" t="n">
-        <v>681.76838</v>
+        <v>681.7683799999999</v>
       </c>
       <c r="E26" s="22" t="n">
         <v>820.954</v>
       </c>
       <c r="F26" s="21" t="n">
-        <v>881.0383099999999</v>
+        <v>881.03831</v>
       </c>
       <c r="G26" s="22" t="n">
         <v>913.0174199999999</v>
       </c>
       <c r="H26" s="21" t="n">
-        <v>946.6265500000001</v>
+        <v>987.9479099999999</v>
       </c>
       <c r="I26" s="22" t="n">
-        <v>1312.689</v>
+        <v>2492.90509</v>
       </c>
       <c r="J26" s="21" t="n">
-        <v>3169.675639999999</v>
+        <v>3169.67564</v>
       </c>
       <c r="K26" s="22" t="n">
         <v>3393.92507</v>
@@ -2350,12 +1905,17 @@
       <c r="M26" s="22" t="n">
         <v>5796.954860000001</v>
       </c>
-      <c r="N26" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="27" s="70" spans="1:14">
+      <c r="N26" s="22" t="n">
+        <v>3219.771</v>
+      </c>
+      <c r="O26" s="11" t="n"/>
+    </row>
+    <row r="27" ht="12.6" customHeight="1" s="70">
       <c r="A27" s="5" t="n"/>
-      <c r="B27" s="57" t="s">
-        <v>25</v>
+      <c r="B27" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Other Short-Term Receivables</t>
+        </is>
       </c>
       <c r="C27" s="23" t="n">
         <v>91229.83767000001</v>
@@ -2364,7 +1924,7 @@
         <v>20888.50589</v>
       </c>
       <c r="E27" s="23" t="n">
-        <v>93193.78288</v>
+        <v>93193.78288000001</v>
       </c>
       <c r="F27" s="33" t="n">
         <v>73506.85834999999</v>
@@ -2373,29 +1933,34 @@
         <v>114088.22058</v>
       </c>
       <c r="H27" s="33" t="n">
-        <v>99665.38853</v>
+        <v>99635.17254999999</v>
       </c>
       <c r="I27" s="23" t="n">
-        <v>174307.91394</v>
+        <v>191677.44289</v>
       </c>
       <c r="J27" s="33" t="n">
-        <v>93588.97320000001</v>
+        <v>93588.97319999999</v>
       </c>
       <c r="K27" s="23" t="n">
         <v>86269.62949000001</v>
       </c>
       <c r="L27" s="23" t="n">
-        <v>118260.92251</v>
+        <v>118827.01769</v>
       </c>
       <c r="M27" s="23" t="n">
-        <v>328093.93271</v>
-      </c>
-      <c r="N27" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="28" s="70" spans="1:14">
+        <v>250756.82018</v>
+      </c>
+      <c r="N27" s="23" t="n">
+        <v>369944.489</v>
+      </c>
+      <c r="O27" s="10" t="n"/>
+    </row>
+    <row r="28" ht="12.6" customHeight="1" s="70">
       <c r="A28" s="5" t="n"/>
-      <c r="B28" s="64" t="s">
-        <v>26</v>
+      <c r="B28" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Receivables from Shareholders</t>
+        </is>
       </c>
       <c r="C28" s="22" t="n">
         <v>705.46789</v>
@@ -2428,20 +1993,25 @@
         <v>55909.54533</v>
       </c>
       <c r="M28" s="22" t="n">
-        <v>28109.78511</v>
-      </c>
-      <c r="N28" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="29" s="70" spans="1:14">
+        <v>29394.9045</v>
+      </c>
+      <c r="N28" s="22" t="n">
+        <v>78828.889</v>
+      </c>
+      <c r="O28" s="10" t="n"/>
+    </row>
+    <row r="29" ht="12.6" customHeight="1" s="70">
       <c r="A29" s="5" t="n"/>
-      <c r="B29" s="59" t="s">
-        <v>27</v>
+      <c r="B29" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Receivables from Participations</t>
+        </is>
       </c>
       <c r="C29" s="22" t="n">
         <v>86954.175</v>
       </c>
       <c r="D29" s="22" t="n">
-        <v>6.974139999999999</v>
+        <v>6.97414</v>
       </c>
       <c r="E29" s="22" t="n">
         <v>861.3441</v>
@@ -2470,12 +2040,17 @@
       <c r="M29" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N29" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="30" s="70" spans="1:14">
+      <c r="N29" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" s="10" t="n"/>
+    </row>
+    <row r="30" ht="12.6" customHeight="1" s="70">
       <c r="A30" s="5" t="n"/>
-      <c r="B30" s="64" t="s">
-        <v>28</v>
+      <c r="B30" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C30" s="22" t="n">
         <v>158.95335</v>
@@ -2510,12 +2085,17 @@
       <c r="M30" s="22" t="n">
         <v>1301.57992</v>
       </c>
-      <c r="N30" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="31" s="70" spans="1:14">
+      <c r="N30" s="22" t="n">
+        <v>1608.405</v>
+      </c>
+      <c r="O30" s="10" t="n"/>
+    </row>
+    <row r="31" ht="12.6" customHeight="1" s="70">
       <c r="A31" s="5" t="n"/>
-      <c r="B31" s="64" t="s">
-        <v>29</v>
+      <c r="B31" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Receivables from Employees</t>
+        </is>
       </c>
       <c r="C31" s="22" t="n">
         <v>14.13952</v>
@@ -2548,17 +2128,22 @@
         <v>285.48114</v>
       </c>
       <c r="M31" s="22" t="n">
-        <v>389.78451</v>
-      </c>
-      <c r="N31" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="32" s="70" spans="1:14">
+        <v>389.92415</v>
+      </c>
+      <c r="N31" s="22" t="n">
+        <v>421.96</v>
+      </c>
+      <c r="O31" s="10" t="n"/>
+    </row>
+    <row r="32" ht="12.6" customHeight="1" s="70">
       <c r="A32" s="5" t="n"/>
-      <c r="B32" s="64" t="s">
-        <v>30</v>
+      <c r="B32" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C32" s="22" t="n">
-        <v>3392.584809999999</v>
+        <v>3392.584810000001</v>
       </c>
       <c r="D32" s="22" t="n">
         <v>19581.31358</v>
@@ -2567,35 +2152,40 @@
         <v>89656.83039999999</v>
       </c>
       <c r="F32" s="21" t="n">
-        <v>53628.55152</v>
+        <v>53628.55151999999</v>
       </c>
       <c r="G32" s="22" t="n">
         <v>111590.18113</v>
       </c>
       <c r="H32" s="21" t="n">
-        <v>95358.30505</v>
+        <v>95328.08906999999</v>
       </c>
       <c r="I32" s="22" t="n">
-        <v>158214.9428</v>
+        <v>175584.47175</v>
       </c>
       <c r="J32" s="21" t="n">
         <v>73978.07414</v>
       </c>
       <c r="K32" s="22" t="n">
-        <v>44578.80425</v>
+        <v>44578.80424999999</v>
       </c>
       <c r="L32" s="22" t="n">
-        <v>59714.79270999999</v>
+        <v>60280.88789</v>
       </c>
       <c r="M32" s="22" t="n">
-        <v>298292.78317</v>
-      </c>
-      <c r="N32" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="33" s="70" spans="1:14">
+        <v>219670.41161</v>
+      </c>
+      <c r="N32" s="22" t="n">
+        <v>289085.235</v>
+      </c>
+      <c r="O32" s="10" t="n"/>
+    </row>
+    <row r="33" ht="12.6" customHeight="1" s="70">
       <c r="A33" s="5" t="n"/>
-      <c r="B33" s="64" t="s">
-        <v>31</v>
+      <c r="B33" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Discount on Other Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C33" s="22" t="n">
         <v>0</v>
@@ -2630,12 +2220,17 @@
       <c r="M33" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N33" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="34" s="70" spans="1:14">
+      <c r="N33" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" s="10" t="n"/>
+    </row>
+    <row r="34" ht="12.6" customHeight="1" s="70">
       <c r="A34" s="5" t="n"/>
-      <c r="B34" s="64" t="s">
-        <v>32</v>
+      <c r="B34" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Doubtful Receivables</t>
+        </is>
       </c>
       <c r="C34" s="22" t="n">
         <v>1020.61597</v>
@@ -2670,12 +2265,17 @@
       <c r="M34" s="22" t="n">
         <v>77.35104</v>
       </c>
-      <c r="N34" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="35" s="70" spans="1:14">
+      <c r="N34" s="22" t="n">
+        <v>77.351</v>
+      </c>
+      <c r="O34" s="10" t="n"/>
+    </row>
+    <row r="35" ht="12.6" customHeight="1" s="70">
       <c r="A35" s="8" t="n"/>
-      <c r="B35" s="64" t="s">
-        <v>33</v>
+      <c r="B35" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provis. for Other Doubtful Receivables (-)</t>
+        </is>
       </c>
       <c r="C35" s="22" t="n">
         <v>1016.09887</v>
@@ -2710,12 +2310,17 @@
       <c r="M35" s="22" t="n">
         <v>77.35104</v>
       </c>
-      <c r="N35" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="36" s="70" spans="1:14">
+      <c r="N35" s="22" t="n">
+        <v>77.351</v>
+      </c>
+      <c r="O35" s="11" t="n"/>
+    </row>
+    <row r="36" ht="12.6" customHeight="1" s="70">
       <c r="A36" s="5" t="n"/>
-      <c r="B36" s="60" t="s">
-        <v>34</v>
+      <c r="B36" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Inventories</t>
+        </is>
       </c>
       <c r="C36" s="23" t="n">
         <v>40273.49713</v>
@@ -2739,23 +2344,28 @@
         <v>138179.58702</v>
       </c>
       <c r="J36" s="33" t="n">
-        <v>133538.11712</v>
+        <v>133541.57986</v>
       </c>
       <c r="K36" s="23" t="n">
         <v>146098.99424</v>
       </c>
       <c r="L36" s="23" t="n">
-        <v>369677.81692</v>
+        <v>377589.37337</v>
       </c>
       <c r="M36" s="23" t="n">
-        <v>579652.88872</v>
-      </c>
-      <c r="N36" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="37" s="70" spans="1:14">
+        <v>912843.0301900001</v>
+      </c>
+      <c r="N36" s="23" t="n">
+        <v>1015661.002</v>
+      </c>
+      <c r="O36" s="10" t="n"/>
+    </row>
+    <row r="37" ht="12.6" customHeight="1" s="70">
       <c r="A37" s="5" t="n"/>
-      <c r="B37" s="64" t="s">
-        <v>35</v>
+      <c r="B37" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Raw Materials &amp; Consumables</t>
+        </is>
       </c>
       <c r="C37" s="22" t="n">
         <v>8471.64133</v>
@@ -2776,26 +2386,31 @@
         <v>57879.85151</v>
       </c>
       <c r="I37" s="22" t="n">
-        <v>74529.69102999999</v>
+        <v>74529.69103</v>
       </c>
       <c r="J37" s="21" t="n">
         <v>61937.08373000001</v>
       </c>
       <c r="K37" s="22" t="n">
-        <v>68631.93938000001</v>
+        <v>68631.93938</v>
       </c>
       <c r="L37" s="22" t="n">
         <v>244100.85465</v>
       </c>
       <c r="M37" s="22" t="n">
-        <v>441547.93709</v>
-      </c>
-      <c r="N37" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="38" s="70" spans="1:14">
+        <v>500046.16527</v>
+      </c>
+      <c r="N37" s="22" t="n">
+        <v>742819.722</v>
+      </c>
+      <c r="O37" s="10" t="n"/>
+    </row>
+    <row r="38" ht="12.6" customHeight="1" s="70">
       <c r="A38" s="5" t="n"/>
-      <c r="B38" s="64" t="s">
-        <v>36</v>
+      <c r="B38" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Work in Progress</t>
+        </is>
       </c>
       <c r="C38" s="22" t="n">
         <v>263.5585400000001</v>
@@ -2822,7 +2437,7 @@
         <v>3866.30884</v>
       </c>
       <c r="K38" s="22" t="n">
-        <v>3836.130290000001</v>
+        <v>3836.13029</v>
       </c>
       <c r="L38" s="22" t="n">
         <v>653.90239</v>
@@ -2830,12 +2445,17 @@
       <c r="M38" s="22" t="n">
         <v>400.72377</v>
       </c>
-      <c r="N38" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="39" s="70" spans="1:14">
+      <c r="N38" s="22" t="n">
+        <v>904.712</v>
+      </c>
+      <c r="O38" s="10" t="n"/>
+    </row>
+    <row r="39" ht="12.6" customHeight="1" s="70">
       <c r="A39" s="5" t="n"/>
-      <c r="B39" s="64" t="s">
-        <v>37</v>
+      <c r="B39" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Finished Goods</t>
+        </is>
       </c>
       <c r="C39" s="22" t="n">
         <v>19.2849</v>
@@ -2870,18 +2490,23 @@
       <c r="M39" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N39" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="40" s="70" spans="1:14">
+      <c r="N39" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" s="10" t="n"/>
+    </row>
+    <row r="40" ht="12.6" customHeight="1" s="70">
       <c r="A40" s="5" t="n"/>
-      <c r="B40" s="64" t="s">
-        <v>38</v>
+      <c r="B40" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Merchandise</t>
+        </is>
       </c>
       <c r="C40" s="22" t="n">
         <v>3980.49592</v>
       </c>
       <c r="D40" s="22" t="n">
-        <v>7163.424389999999</v>
+        <v>7163.424389999998</v>
       </c>
       <c r="E40" s="22" t="n">
         <v>22152.94168</v>
@@ -2890,32 +2515,37 @@
         <v>29443.94435</v>
       </c>
       <c r="G40" s="22" t="n">
-        <v>41713.89122999999</v>
+        <v>41713.89123</v>
       </c>
       <c r="H40" s="21" t="n">
-        <v>51747.21701000001</v>
+        <v>51747.21701</v>
       </c>
       <c r="I40" s="22" t="n">
         <v>30802.82925</v>
       </c>
       <c r="J40" s="21" t="n">
-        <v>35087.49591</v>
+        <v>35087.49591000001</v>
       </c>
       <c r="K40" s="22" t="n">
         <v>43940.0261</v>
       </c>
       <c r="L40" s="22" t="n">
-        <v>62584.52698</v>
+        <v>70360.50547</v>
       </c>
       <c r="M40" s="22" t="n">
-        <v>92742.40797999999</v>
-      </c>
-      <c r="N40" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="41" s="70" spans="1:14">
+        <v>101211.53666</v>
+      </c>
+      <c r="N40" s="22" t="n">
+        <v>170070.259</v>
+      </c>
+      <c r="O40" s="10" t="n"/>
+    </row>
+    <row r="41" ht="12.6" customHeight="1" s="70">
       <c r="A41" s="5" t="n"/>
-      <c r="B41" s="64" t="s">
-        <v>39</v>
+      <c r="B41" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Inventories</t>
+        </is>
       </c>
       <c r="C41" s="22" t="n">
         <v>15390.87701</v>
@@ -2939,23 +2569,28 @@
         <v>1525.47954</v>
       </c>
       <c r="J41" s="21" t="n">
-        <v>3486.63631</v>
+        <v>3486.636309999999</v>
       </c>
       <c r="K41" s="22" t="n">
-        <v>4010.08388</v>
+        <v>4010.083879999999</v>
       </c>
       <c r="L41" s="22" t="n">
-        <v>11745.65019</v>
+        <v>11881.22815</v>
       </c>
       <c r="M41" s="22" t="n">
-        <v>2834.02168</v>
-      </c>
-      <c r="N41" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="42" s="70" spans="1:14">
+        <v>3187.3555</v>
+      </c>
+      <c r="N41" s="22" t="n">
+        <v>1993.123</v>
+      </c>
+      <c r="O41" s="10" t="n"/>
+    </row>
+    <row r="42" ht="12.6" customHeight="1" s="70">
       <c r="A42" s="5" t="n"/>
-      <c r="B42" s="59" t="s">
-        <v>40</v>
+      <c r="B42" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Inventories (-)</t>
+        </is>
       </c>
       <c r="C42" s="22" t="n">
         <v>0</v>
@@ -2990,12 +2625,17 @@
       <c r="M42" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N42" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="43" s="70" spans="1:14">
+      <c r="N42" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" s="10" t="n"/>
+    </row>
+    <row r="43" ht="12.6" customHeight="1" s="70">
       <c r="A43" s="8" t="n"/>
-      <c r="B43" s="59" t="s">
-        <v>41</v>
+      <c r="B43" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Advances on Purchase Orders</t>
+        </is>
       </c>
       <c r="C43" s="22" t="n">
         <v>12147.63943</v>
@@ -3004,13 +2644,13 @@
         <v>10980.01069</v>
       </c>
       <c r="E43" s="22" t="n">
-        <v>63884.51096000001</v>
+        <v>63884.51096</v>
       </c>
       <c r="F43" s="21" t="n">
         <v>27727.51541</v>
       </c>
       <c r="G43" s="22" t="n">
-        <v>51064.12034</v>
+        <v>51064.12033999999</v>
       </c>
       <c r="H43" s="21" t="n">
         <v>44752.31183</v>
@@ -3019,23 +2659,28 @@
         <v>10636.4092</v>
       </c>
       <c r="J43" s="21" t="n">
-        <v>13743.08823</v>
+        <v>13746.55097</v>
       </c>
       <c r="K43" s="22" t="n">
         <v>10263.31049</v>
       </c>
       <c r="L43" s="22" t="n">
-        <v>50557.35764</v>
+        <v>50557.35763999999</v>
       </c>
       <c r="M43" s="22" t="n">
-        <v>42127.7982</v>
-      </c>
-      <c r="N43" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="44" s="70" spans="1:14">
+        <v>307997.24899</v>
+      </c>
+      <c r="N43" s="22" t="n">
+        <v>99873.186</v>
+      </c>
+      <c r="O43" s="11" t="n"/>
+    </row>
+    <row r="44" ht="12.6" customHeight="1" s="70">
       <c r="A44" s="8" t="n"/>
-      <c r="B44" s="60" t="s">
-        <v>42</v>
+      <c r="B44" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Constr.&amp; Restor.Costs Spread Over Yrs.</t>
+        </is>
       </c>
       <c r="C44" s="23" t="n">
         <v>0</v>
@@ -3070,12 +2715,17 @@
       <c r="M44" s="23" t="n">
         <v>23623.5041</v>
       </c>
-      <c r="N44" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="45" s="70" spans="1:14">
+      <c r="N44" s="23" t="n">
+        <v>253383.796</v>
+      </c>
+      <c r="O44" s="11" t="n"/>
+    </row>
+    <row r="45" ht="12.6" customHeight="1" s="70">
       <c r="A45" s="8" t="n"/>
-      <c r="B45" s="59" t="s">
-        <v>43</v>
+      <c r="B45" s="59" t="inlineStr">
+        <is>
+          <t>1- Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
+        </is>
       </c>
       <c r="C45" s="22" t="n">
         <v>0</v>
@@ -3110,12 +2760,17 @@
       <c r="M45" s="22" t="n">
         <v>20158.28152</v>
       </c>
-      <c r="N45" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="46" s="70" spans="1:14">
+      <c r="N45" s="22" t="n">
+        <v>200850.365</v>
+      </c>
+      <c r="O45" s="11" t="n"/>
+    </row>
+    <row r="46" ht="12.6" customHeight="1" s="70">
       <c r="A46" s="8" t="n"/>
-      <c r="B46" s="59" t="s">
-        <v>44</v>
+      <c r="B46" s="59" t="inlineStr">
+        <is>
+          <t>2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
+        </is>
       </c>
       <c r="C46" s="22" t="n">
         <v>0</v>
@@ -3150,12 +2805,17 @@
       <c r="M46" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N46" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="47" s="70" spans="1:14">
+      <c r="N46" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" s="11" t="n"/>
+    </row>
+    <row r="47" ht="12.6" customHeight="1" s="70">
       <c r="A47" s="5" t="n"/>
-      <c r="B47" s="59" t="s">
-        <v>45</v>
+      <c r="B47" s="59" t="inlineStr">
+        <is>
+          <t>3- Advances to Subcontractors</t>
+        </is>
       </c>
       <c r="C47" s="22" t="n">
         <v>0</v>
@@ -3190,12 +2850,17 @@
       <c r="M47" s="22" t="n">
         <v>3465.22258</v>
       </c>
-      <c r="N47" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="48" s="70" spans="1:14">
+      <c r="N47" s="22" t="n">
+        <v>52533.431</v>
+      </c>
+      <c r="O47" s="10" t="n"/>
+    </row>
+    <row r="48" ht="12.6" customHeight="1" s="70">
       <c r="A48" s="5" t="n"/>
-      <c r="B48" s="60" t="s">
-        <v>46</v>
+      <c r="B48" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Prepaym.&amp; Accr. Inc.for the Next Months</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>2320.88693</v>
@@ -3207,16 +2872,16 @@
         <v>31871.09074</v>
       </c>
       <c r="F48" s="45" t="n">
-        <v>8307.760060000001</v>
+        <v>8307.760059999999</v>
       </c>
       <c r="G48" s="46" t="n">
         <v>32566.4576</v>
       </c>
       <c r="H48" s="45" t="n">
-        <v>8578.955190000001</v>
+        <v>8576.242910000001</v>
       </c>
       <c r="I48" s="46" t="n">
-        <v>7614.08074</v>
+        <v>7614.130129999999</v>
       </c>
       <c r="J48" s="45" t="n">
         <v>16095.02357</v>
@@ -3225,17 +2890,22 @@
         <v>10244.00412</v>
       </c>
       <c r="L48" s="46" t="n">
-        <v>138262.6113</v>
+        <v>138267.1202</v>
       </c>
       <c r="M48" s="46" t="n">
-        <v>259207.62988</v>
-      </c>
-      <c r="N48" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="49" s="70" spans="1:14">
+        <v>290830.21594</v>
+      </c>
+      <c r="N48" s="46" t="n">
+        <v>253885.394</v>
+      </c>
+      <c r="O48" s="10" t="n"/>
+    </row>
+    <row r="49" ht="12.6" customHeight="1" s="70">
       <c r="A49" s="8" t="n"/>
-      <c r="B49" s="64" t="s">
-        <v>47</v>
+      <c r="B49" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Prepayments for the Next Months</t>
+        </is>
       </c>
       <c r="C49" s="22" t="n">
         <v>807.55681</v>
@@ -3253,7 +2923,7 @@
         <v>4797.90573</v>
       </c>
       <c r="H49" s="21" t="n">
-        <v>4602.98479</v>
+        <v>4600.13021</v>
       </c>
       <c r="I49" s="22" t="n">
         <v>1738.46611</v>
@@ -3265,17 +2935,22 @@
         <v>2690.16962</v>
       </c>
       <c r="L49" s="22" t="n">
-        <v>6343.723899999999</v>
+        <v>6348.2328</v>
       </c>
       <c r="M49" s="22" t="n">
-        <v>9895.642739999999</v>
-      </c>
-      <c r="N49" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="50" s="70" spans="1:14">
+        <v>9900.233</v>
+      </c>
+      <c r="N49" s="22" t="n">
+        <v>7769.003</v>
+      </c>
+      <c r="O49" s="11" t="n"/>
+    </row>
+    <row r="50" ht="12.6" customHeight="1" s="70">
       <c r="A50" s="5" t="n"/>
-      <c r="B50" s="64" t="s">
-        <v>48</v>
+      <c r="B50" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Income</t>
+        </is>
       </c>
       <c r="C50" s="22" t="n">
         <v>1513.33012</v>
@@ -3287,38 +2962,43 @@
         <v>26526.73195</v>
       </c>
       <c r="F50" s="21" t="n">
-        <v>6851.420369999999</v>
+        <v>6851.42037</v>
       </c>
       <c r="G50" s="22" t="n">
         <v>27768.55187</v>
       </c>
       <c r="H50" s="21" t="n">
-        <v>3975.9704</v>
+        <v>3976.1127</v>
       </c>
       <c r="I50" s="22" t="n">
-        <v>5875.61463</v>
+        <v>5875.664019999999</v>
       </c>
       <c r="J50" s="21" t="n">
         <v>13460.14115</v>
       </c>
       <c r="K50" s="22" t="n">
-        <v>7553.8345</v>
+        <v>7553.834500000001</v>
       </c>
       <c r="L50" s="22" t="n">
         <v>131918.8874</v>
       </c>
       <c r="M50" s="22" t="n">
-        <v>249311.98714</v>
-      </c>
-      <c r="N50" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="51" s="70" spans="1:14">
+        <v>280929.98294</v>
+      </c>
+      <c r="N50" s="22" t="n">
+        <v>246116.391</v>
+      </c>
+      <c r="O50" s="10" t="n"/>
+    </row>
+    <row r="51" ht="12.6" customHeight="1" s="70">
       <c r="A51" s="5" t="n"/>
-      <c r="B51" s="57" t="s">
-        <v>49</v>
+      <c r="B51" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  H- Other Current Assets</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>4680.271809999999</v>
+        <v>4680.27181</v>
       </c>
       <c r="D51" s="46" t="n">
         <v>69366.33141</v>
@@ -3333,29 +3013,34 @@
         <v>146334.02103</v>
       </c>
       <c r="H51" s="45" t="n">
-        <v>194530.7605</v>
+        <v>194617.84979</v>
       </c>
       <c r="I51" s="46" t="n">
-        <v>254817.86754</v>
+        <v>258630.86017</v>
       </c>
       <c r="J51" s="45" t="n">
-        <v>446021.24463</v>
+        <v>446023.05611</v>
       </c>
       <c r="K51" s="46" t="n">
         <v>392646.13063</v>
       </c>
       <c r="L51" s="46" t="n">
-        <v>419497.8346999999</v>
+        <v>480040.0846899999</v>
       </c>
       <c r="M51" s="46" t="n">
-        <v>521973.75939</v>
-      </c>
-      <c r="N51" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="52" s="70" spans="1:14">
+        <v>604087.39997</v>
+      </c>
+      <c r="N51" s="46" t="n">
+        <v>641344.0699999999</v>
+      </c>
+      <c r="O51" s="10" t="n"/>
+    </row>
+    <row r="52" ht="12.6" customHeight="1" s="70">
       <c r="A52" s="5" t="n"/>
-      <c r="B52" s="64" t="s">
-        <v>50</v>
+      <c r="B52" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T.Carried to the Next Period</t>
+        </is>
       </c>
       <c r="C52" s="22" t="n">
         <v>3267.36673</v>
@@ -3367,35 +3052,40 @@
         <v>35464.10446</v>
       </c>
       <c r="F52" s="21" t="n">
-        <v>44517.05259000001</v>
+        <v>44517.05259</v>
       </c>
       <c r="G52" s="22" t="n">
-        <v>84573.49999000001</v>
+        <v>84573.49999</v>
       </c>
       <c r="H52" s="21" t="n">
-        <v>94663.41160000001</v>
+        <v>94672.54756000001</v>
       </c>
       <c r="I52" s="22" t="n">
-        <v>103879.11783</v>
+        <v>104616.3626</v>
       </c>
       <c r="J52" s="21" t="n">
-        <v>94414.01253000001</v>
+        <v>94415.82401</v>
       </c>
       <c r="K52" s="22" t="n">
-        <v>93716.42154000001</v>
+        <v>93716.42154</v>
       </c>
       <c r="L52" s="22" t="n">
-        <v>109973.40867</v>
+        <v>111178.5786</v>
       </c>
       <c r="M52" s="22" t="n">
-        <v>147758.82145</v>
-      </c>
-      <c r="N52" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="53" s="70" spans="1:14">
+        <v>149254.58793</v>
+      </c>
+      <c r="N52" s="22" t="n">
+        <v>188969.385</v>
+      </c>
+      <c r="O52" s="10" t="n"/>
+    </row>
+    <row r="53" ht="12.6" customHeight="1" s="70">
       <c r="A53" s="5" t="n"/>
-      <c r="B53" s="64" t="s">
-        <v>51</v>
+      <c r="B53" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- V.A.T. Paid</t>
+        </is>
       </c>
       <c r="C53" s="22" t="n">
         <v>0</v>
@@ -3428,14 +3118,19 @@
         <v>2093.80557</v>
       </c>
       <c r="M53" s="22" t="n">
-        <v>57.31712</v>
-      </c>
-      <c r="N53" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="54" s="70" spans="1:14">
+        <v>57.31722</v>
+      </c>
+      <c r="N53" s="22" t="n">
+        <v>272.668</v>
+      </c>
+      <c r="O53" s="10" t="n"/>
+    </row>
+    <row r="54" ht="12.6" customHeight="1" s="70">
       <c r="A54" s="5" t="n"/>
-      <c r="B54" s="64" t="s">
-        <v>52</v>
+      <c r="B54" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other V.A.T</t>
+        </is>
       </c>
       <c r="C54" s="22" t="n">
         <v>82.60037</v>
@@ -3470,12 +3165,17 @@
       <c r="M54" s="22" t="n">
         <v>12.34661</v>
       </c>
-      <c r="N54" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="55" s="70" spans="1:14">
+      <c r="N54" s="22" t="n">
+        <v>12.471</v>
+      </c>
+      <c r="O54" s="10" t="n"/>
+    </row>
+    <row r="55" ht="12.6" customHeight="1" s="70">
       <c r="A55" s="5" t="n"/>
-      <c r="B55" s="61" t="s">
-        <v>53</v>
+      <c r="B55" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Prepaid Taxes and Funds</t>
+        </is>
       </c>
       <c r="C55" s="22" t="n">
         <v>508.68457</v>
@@ -3493,29 +3193,34 @@
         <v>10684.15207</v>
       </c>
       <c r="H55" s="21" t="n">
-        <v>6167.060629999999</v>
+        <v>6167.83371</v>
       </c>
       <c r="I55" s="22" t="n">
-        <v>11881.97371</v>
+        <v>11884.8332</v>
       </c>
       <c r="J55" s="21" t="n">
         <v>3363.72033</v>
       </c>
       <c r="K55" s="22" t="n">
-        <v>5699.69107</v>
+        <v>5699.691070000002</v>
       </c>
       <c r="L55" s="22" t="n">
         <v>17522.14199</v>
       </c>
       <c r="M55" s="22" t="n">
-        <v>8993.073489999999</v>
-      </c>
-      <c r="N55" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="56" s="70" spans="1:14">
+        <v>22756.36103</v>
+      </c>
+      <c r="N55" s="22" t="n">
+        <v>77417.06299999999</v>
+      </c>
+      <c r="O55" s="10" t="n"/>
+    </row>
+    <row r="56" ht="12.6" customHeight="1" s="70">
       <c r="A56" s="5" t="n"/>
-      <c r="B56" s="59" t="s">
-        <v>54</v>
+      <c r="B56" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Business Related Advances </t>
+        </is>
       </c>
       <c r="C56" s="22" t="n">
         <v>710.0586500000001</v>
@@ -3524,7 +3229,7 @@
         <v>37621.51945</v>
       </c>
       <c r="E56" s="22" t="n">
-        <v>4952.7814</v>
+        <v>4952.781400000001</v>
       </c>
       <c r="F56" s="21" t="n">
         <v>37767.50119</v>
@@ -3533,29 +3238,34 @@
         <v>50992.49222</v>
       </c>
       <c r="H56" s="21" t="n">
-        <v>53401.64659</v>
+        <v>53478.82684</v>
       </c>
       <c r="I56" s="22" t="n">
-        <v>40603.52247</v>
+        <v>43676.41084</v>
       </c>
       <c r="J56" s="21" t="n">
-        <v>56095.38454000001</v>
+        <v>56095.38454</v>
       </c>
       <c r="K56" s="22" t="n">
         <v>63185.04305</v>
       </c>
       <c r="L56" s="22" t="n">
-        <v>24999.57526</v>
+        <v>84336.65532000001</v>
       </c>
       <c r="M56" s="22" t="n">
-        <v>82528.15089999999</v>
-      </c>
-      <c r="N56" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="57" s="70" spans="1:14">
+        <v>149295.04889</v>
+      </c>
+      <c r="N56" s="22" t="n">
+        <v>58995.054</v>
+      </c>
+      <c r="O56" s="10" t="n"/>
+    </row>
+    <row r="57" ht="12.6" customHeight="1" s="70">
       <c r="A57" s="5" t="n"/>
-      <c r="B57" s="61" t="s">
-        <v>55</v>
+      <c r="B57" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Advances to employees</t>
+        </is>
       </c>
       <c r="C57" s="22" t="n">
         <v>111.56057</v>
@@ -3570,7 +3280,7 @@
         <v>134.27432</v>
       </c>
       <c r="G57" s="22" t="n">
-        <v>79.57767999999999</v>
+        <v>79.57768</v>
       </c>
       <c r="H57" s="21" t="n">
         <v>38.85795</v>
@@ -3590,12 +3300,17 @@
       <c r="M57" s="22" t="n">
         <v>119.58842</v>
       </c>
-      <c r="N57" s="10" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="12.6" r="58" s="14" spans="1:14">
+      <c r="N57" s="22" t="n">
+        <v>765.64</v>
+      </c>
+      <c r="O57" s="10" t="n"/>
+    </row>
+    <row r="58" ht="12.6" customFormat="1" customHeight="1" s="14">
       <c r="A58" s="5" t="n"/>
-      <c r="B58" s="64" t="s">
-        <v>56</v>
+      <c r="B58" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Stock Taking and Receiving Shortages</t>
+        </is>
       </c>
       <c r="C58" s="22" t="n">
         <v>0.00092</v>
@@ -3630,12 +3345,17 @@
       <c r="M58" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N58" s="10" t="n"/>
-    </row>
-    <row r="59" spans="1:14">
+      <c r="N58" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" s="10" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="10" t="n"/>
-      <c r="B59" s="59" t="s">
-        <v>57</v>
+      <c r="B59" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Other </t>
+        </is>
       </c>
       <c r="C59" s="22" t="n">
         <v>0</v>
@@ -3650,7 +3370,7 @@
         <v>5.17785</v>
       </c>
       <c r="G59" s="22" t="n">
-        <v>4.083069999999999</v>
+        <v>4.08307</v>
       </c>
       <c r="H59" s="21" t="n">
         <v>40159.30739</v>
@@ -3668,13 +3388,18 @@
         <v>264843.20779</v>
       </c>
       <c r="M59" s="22" t="n">
-        <v>282504.4614</v>
-      </c>
-      <c r="N59" s="10" t="n"/>
-    </row>
-    <row r="60" spans="1:14">
-      <c r="B60" s="62" t="s">
-        <v>58</v>
+        <v>282592.14987</v>
+      </c>
+      <c r="N59" s="22" t="n">
+        <v>314911.789</v>
+      </c>
+      <c r="O59" s="10" t="n"/>
+    </row>
+    <row r="60">
+      <c r="B60" s="62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Provisions for Other Current Assets (-)</t>
+        </is>
       </c>
       <c r="C60" s="35" t="n">
         <v>0</v>
@@ -3709,12 +3434,17 @@
       <c r="M60" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="N60" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="61" s="70" spans="1:14">
+      <c r="N60" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" s="10" t="n"/>
+    </row>
+    <row r="61" ht="12.6" customHeight="1" s="70">
       <c r="A61" s="5" t="n"/>
-      <c r="B61" s="56" t="s">
-        <v>59</v>
+      <c r="B61" s="56" t="inlineStr">
+        <is>
+          <t>II- FIXED ASSETS</t>
+        </is>
       </c>
       <c r="C61" s="36" t="n">
         <v>1120252.46217</v>
@@ -3732,29 +3462,34 @@
         <v>1812609.70818</v>
       </c>
       <c r="H61" s="37" t="n">
-        <v>5096251.402050001</v>
+        <v>5096228.27858</v>
       </c>
       <c r="I61" s="36" t="n">
-        <v>7212086.76277</v>
+        <v>7212569.09367</v>
       </c>
       <c r="J61" s="37" t="n">
-        <v>7351180.85992</v>
+        <v>7351183.251979999</v>
       </c>
       <c r="K61" s="36" t="n">
         <v>7089814.83669</v>
       </c>
       <c r="L61" s="36" t="n">
-        <v>6953422.44502</v>
+        <v>6953449.94632</v>
       </c>
       <c r="M61" s="36" t="n">
-        <v>6091470.38536</v>
-      </c>
-      <c r="N61" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="62" s="70" spans="1:14">
+        <v>6248038.20112</v>
+      </c>
+      <c r="N61" s="36" t="n">
+        <v>9249874.073000001</v>
+      </c>
+      <c r="O61" s="10" t="n"/>
+    </row>
+    <row r="62" ht="12.6" customHeight="1" s="70">
       <c r="A62" s="5" t="n"/>
-      <c r="B62" s="60" t="s">
-        <v>60</v>
+      <c r="B62" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Long-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C62" s="36" t="n">
         <v>401.98194</v>
@@ -3763,7 +3498,7 @@
         <v>1987.10695</v>
       </c>
       <c r="E62" s="36" t="n">
-        <v>3865.76678</v>
+        <v>3865.766779999999</v>
       </c>
       <c r="F62" s="37" t="n">
         <v>2665.11409</v>
@@ -3772,10 +3507,10 @@
         <v>2441.1287</v>
       </c>
       <c r="H62" s="37" t="n">
-        <v>3499.75625</v>
+        <v>3500.51975</v>
       </c>
       <c r="I62" s="36" t="n">
-        <v>3106.16476</v>
+        <v>3135.67176</v>
       </c>
       <c r="J62" s="37" t="n">
         <v>8849.10123</v>
@@ -3784,17 +3519,22 @@
         <v>16304.78749</v>
       </c>
       <c r="L62" s="36" t="n">
-        <v>16165.8517</v>
+        <v>16169.0317</v>
       </c>
       <c r="M62" s="36" t="n">
-        <v>16807.55948</v>
-      </c>
-      <c r="N62" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="63" s="70" spans="1:14">
+        <v>16810.73948</v>
+      </c>
+      <c r="N62" s="36" t="n">
+        <v>12195.862</v>
+      </c>
+      <c r="O62" s="10" t="n"/>
+    </row>
+    <row r="63" ht="12.6" customHeight="1" s="70">
       <c r="A63" s="5" t="n"/>
-      <c r="B63" s="64" t="s">
-        <v>17</v>
+      <c r="B63" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Customers</t>
+        </is>
       </c>
       <c r="C63" s="22" t="n">
         <v>0</v>
@@ -3829,12 +3569,17 @@
       <c r="M63" s="22" t="n">
         <v>9096.43759</v>
       </c>
-      <c r="N63" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="64" s="70" spans="1:14">
+      <c r="N63" s="22" t="n">
+        <v>7408.259</v>
+      </c>
+      <c r="O63" s="10" t="n"/>
+    </row>
+    <row r="64" ht="12.6" customHeight="1" s="70">
       <c r="A64" s="5" t="n"/>
-      <c r="B64" s="59" t="s">
-        <v>18</v>
+      <c r="B64" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Receivable</t>
+        </is>
       </c>
       <c r="C64" s="22" t="n">
         <v>0</v>
@@ -3869,12 +3614,17 @@
       <c r="M64" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N64" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="65" s="70" spans="1:14">
+      <c r="N64" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O64" s="10" t="n"/>
+    </row>
+    <row r="65" ht="12.6" customHeight="1" s="70">
       <c r="A65" s="5" t="n"/>
-      <c r="B65" s="64" t="s">
-        <v>19</v>
+      <c r="B65" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C65" s="22" t="n">
         <v>0</v>
@@ -3909,12 +3659,17 @@
       <c r="M65" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N65" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="66" s="70" spans="1:14">
+      <c r="N65" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" s="10" t="n"/>
+    </row>
+    <row r="66" ht="12.6" customHeight="1" s="70">
       <c r="A66" s="5" t="n"/>
-      <c r="B66" s="64" t="s">
-        <v>20</v>
+      <c r="B66" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
+        </is>
       </c>
       <c r="C66" s="22" t="n">
         <v>0</v>
@@ -3949,18 +3704,23 @@
       <c r="M66" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N66" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="67" s="70" spans="1:14">
+      <c r="N66" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" s="10" t="n"/>
+    </row>
+    <row r="67" ht="12.6" customHeight="1" s="70">
       <c r="A67" s="5" t="n"/>
-      <c r="B67" s="59" t="s">
-        <v>21</v>
+      <c r="B67" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
+        </is>
       </c>
       <c r="C67" s="22" t="n">
         <v>401.98194</v>
       </c>
       <c r="D67" s="22" t="n">
-        <v>451.03231</v>
+        <v>451.0323100000001</v>
       </c>
       <c r="E67" s="22" t="n">
         <v>1253.34512</v>
@@ -3972,10 +3732,10 @@
         <v>1900.90284</v>
       </c>
       <c r="H67" s="21" t="n">
-        <v>2672.63039</v>
+        <v>2673.39389</v>
       </c>
       <c r="I67" s="22" t="n">
-        <v>3106.16476</v>
+        <v>3135.67176</v>
       </c>
       <c r="J67" s="21" t="n">
         <v>8849.10123</v>
@@ -3984,17 +3744,22 @@
         <v>5064.87703</v>
       </c>
       <c r="L67" s="22" t="n">
-        <v>6944.86263</v>
+        <v>6948.04263</v>
       </c>
       <c r="M67" s="22" t="n">
-        <v>7711.12189</v>
-      </c>
-      <c r="N67" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="68" s="70" spans="1:14">
+        <v>7714.301890000001</v>
+      </c>
+      <c r="N67" s="22" t="n">
+        <v>4787.603</v>
+      </c>
+      <c r="O67" s="10" t="n"/>
+    </row>
+    <row r="68" ht="12.6" customHeight="1" s="70">
       <c r="A68" s="8" t="n"/>
-      <c r="B68" s="64" t="s">
-        <v>61</v>
+      <c r="B68" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Doubtful Trade Receivables (-)</t>
+        </is>
       </c>
       <c r="C68" s="22" t="n">
         <v>0</v>
@@ -4029,12 +3794,17 @@
       <c r="M68" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N68" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="69" s="70" spans="1:14">
+      <c r="N68" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" s="10" t="n"/>
+    </row>
+    <row r="69" ht="12.6" customHeight="1" s="70">
       <c r="A69" s="5" t="n"/>
-      <c r="B69" s="57" t="s">
-        <v>62</v>
+      <c r="B69" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Other Long-Term Receivables</t>
+        </is>
       </c>
       <c r="C69" s="36" t="n">
         <v>622839.7436599999</v>
@@ -4043,7 +3813,7 @@
         <v>538748.70714</v>
       </c>
       <c r="E69" s="36" t="n">
-        <v>488390.5518599999</v>
+        <v>488390.55186</v>
       </c>
       <c r="F69" s="37" t="n">
         <v>486269.97737</v>
@@ -4069,12 +3839,17 @@
       <c r="M69" s="36" t="n">
         <v>168529.96634</v>
       </c>
-      <c r="N69" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="70" s="70" spans="1:14">
+      <c r="N69" s="36" t="n">
+        <v>3798982.466</v>
+      </c>
+      <c r="O69" s="10" t="n"/>
+    </row>
+    <row r="70" ht="12.6" customHeight="1" s="70">
       <c r="A70" s="5" t="n"/>
-      <c r="B70" s="64" t="s">
-        <v>26</v>
+      <c r="B70" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Receivables from Shareholders</t>
+        </is>
       </c>
       <c r="C70" s="22" t="n">
         <v>0</v>
@@ -4089,7 +3864,7 @@
         <v>7867.69245</v>
       </c>
       <c r="G70" s="22" t="n">
-        <v>5534.45668</v>
+        <v>5534.456679999999</v>
       </c>
       <c r="H70" s="21" t="n">
         <v>28745.34319</v>
@@ -4109,12 +3884,17 @@
       <c r="M70" s="22" t="n">
         <v>125.45065</v>
       </c>
-      <c r="N70" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="71" s="70" spans="1:14">
+      <c r="N70" s="22" t="n">
+        <v>42.445</v>
+      </c>
+      <c r="O70" s="10" t="n"/>
+    </row>
+    <row r="71" ht="12.6" customHeight="1" s="70">
       <c r="A71" s="8" t="n"/>
-      <c r="B71" s="59" t="s">
-        <v>27</v>
+      <c r="B71" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Receivables from Participations</t>
+        </is>
       </c>
       <c r="C71" s="22" t="n">
         <v>461602.22996</v>
@@ -4149,12 +3929,17 @@
       <c r="M71" s="22" t="n">
         <v>167929.16872</v>
       </c>
-      <c r="N71" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="72" s="70" spans="1:14">
+      <c r="N71" s="22" t="n">
+        <v>3798276.806</v>
+      </c>
+      <c r="O71" s="10" t="n"/>
+    </row>
+    <row r="72" ht="12.6" customHeight="1" s="70">
       <c r="A72" s="5" t="n"/>
-      <c r="B72" s="64" t="s">
-        <v>28</v>
+      <c r="B72" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C72" s="22" t="n">
         <v>3325.65776</v>
@@ -4189,12 +3974,17 @@
       <c r="M72" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N72" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="73" s="70" spans="1:14">
+      <c r="N72" s="22" t="n">
+        <v>30</v>
+      </c>
+      <c r="O72" s="10" t="n"/>
+    </row>
+    <row r="73" ht="12.6" customHeight="1" s="70">
       <c r="A73" s="5" t="n"/>
-      <c r="B73" s="64" t="s">
-        <v>29</v>
+      <c r="B73" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Receivables from Employees</t>
+        </is>
       </c>
       <c r="C73" s="22" t="n">
         <v>0</v>
@@ -4229,12 +4019,17 @@
       <c r="M73" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N73" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="74" s="70" spans="1:14">
+      <c r="N73" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O73" s="10" t="n"/>
+    </row>
+    <row r="74" ht="12.6" customHeight="1" s="70">
       <c r="A74" s="5" t="n"/>
-      <c r="B74" s="64" t="s">
-        <v>30</v>
+      <c r="B74" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C74" s="22" t="n">
         <v>157911.85594</v>
@@ -4269,12 +4064,17 @@
       <c r="M74" s="22" t="n">
         <v>475.34697</v>
       </c>
-      <c r="N74" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="75" s="70" spans="1:14">
+      <c r="N74" s="22" t="n">
+        <v>633.215</v>
+      </c>
+      <c r="O74" s="10" t="n"/>
+    </row>
+    <row r="75" ht="12.6" customHeight="1" s="70">
       <c r="A75" s="5" t="n"/>
-      <c r="B75" s="64" t="s">
-        <v>63</v>
+      <c r="B75" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C75" s="22" t="n">
         <v>0</v>
@@ -4309,12 +4109,17 @@
       <c r="M75" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N75" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="76" s="70" spans="1:14">
+      <c r="N75" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" s="11" t="n"/>
+    </row>
+    <row r="76" ht="12.6" customHeight="1" s="70">
       <c r="A76" s="8" t="n"/>
-      <c r="B76" s="64" t="s">
-        <v>64</v>
+      <c r="B76" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Provis. for Other Doubtful Receivables (-)</t>
+        </is>
       </c>
       <c r="C76" s="22" t="n">
         <v>0</v>
@@ -4349,12 +4154,17 @@
       <c r="M76" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N76" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="77" s="70" spans="1:14">
+      <c r="N76" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76" s="10" t="n"/>
+    </row>
+    <row r="77" ht="12.6" customHeight="1" s="70">
       <c r="A77" s="5" t="n"/>
-      <c r="B77" s="60" t="s">
-        <v>65</v>
+      <c r="B77" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Financial Fixed Assets</t>
+        </is>
       </c>
       <c r="C77" s="23" t="n">
         <v>14647.89662</v>
@@ -4369,32 +4179,37 @@
         <v>12930.17025</v>
       </c>
       <c r="G77" s="23" t="n">
-        <v>60439.21206999999</v>
+        <v>60439.21207</v>
       </c>
       <c r="H77" s="33" t="n">
-        <v>55656.17691999999</v>
+        <v>55656.17692000001</v>
       </c>
       <c r="I77" s="23" t="n">
         <v>83379.98497</v>
       </c>
       <c r="J77" s="33" t="n">
-        <v>6401227.79876</v>
+        <v>6401227.798760001</v>
       </c>
       <c r="K77" s="23" t="n">
         <v>6539412.55109</v>
       </c>
       <c r="L77" s="23" t="n">
-        <v>5762619.38282</v>
+        <v>5762619.382820001</v>
       </c>
       <c r="M77" s="23" t="n">
         <v>4692342.06487</v>
       </c>
-      <c r="N77" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="78" s="70" spans="1:14">
+      <c r="N77" s="23" t="n">
+        <v>3880163.776</v>
+      </c>
+      <c r="O77" s="10" t="n"/>
+    </row>
+    <row r="78" ht="12.6" customHeight="1" s="70">
       <c r="A78" s="5" t="n"/>
-      <c r="B78" s="64" t="s">
-        <v>66</v>
+      <c r="B78" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Non-Marketable Securities</t>
+        </is>
       </c>
       <c r="C78" s="22" t="n">
         <v>0</v>
@@ -4429,12 +4244,17 @@
       <c r="M78" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N78" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="79" s="70" spans="1:14">
+      <c r="N78" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O78" s="10" t="n"/>
+    </row>
+    <row r="79" ht="12.6" customHeight="1" s="70">
       <c r="A79" s="5" t="n"/>
-      <c r="B79" s="59" t="s">
-        <v>67</v>
+      <c r="B79" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Provis.for  non-Marketable Securities (-)</t>
+        </is>
       </c>
       <c r="C79" s="22" t="n">
         <v>0</v>
@@ -4469,12 +4289,17 @@
       <c r="M79" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N79" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="80" s="70" spans="1:14">
+      <c r="N79" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" s="10" t="n"/>
+    </row>
+    <row r="80" ht="12.6" customHeight="1" s="70">
       <c r="A80" s="5" t="n"/>
-      <c r="B80" s="59" t="s">
-        <v>68</v>
+      <c r="B80" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Participations</t>
+        </is>
       </c>
       <c r="C80" s="22" t="n">
         <v>6001.03287</v>
@@ -4498,23 +4323,28 @@
         <v>14872.34517</v>
       </c>
       <c r="J80" s="21" t="n">
-        <v>6329860.252959999</v>
+        <v>6329860.25296</v>
       </c>
       <c r="K80" s="22" t="n">
         <v>6468045.00529</v>
       </c>
       <c r="L80" s="22" t="n">
-        <v>5666404.18435</v>
+        <v>5666404.184350001</v>
       </c>
       <c r="M80" s="22" t="n">
         <v>4596808.87787</v>
       </c>
-      <c r="N80" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="81" s="70" spans="1:14">
+      <c r="N80" s="22" t="n">
+        <v>3813746.638</v>
+      </c>
+      <c r="O80" s="10" t="n"/>
+    </row>
+    <row r="81" ht="12.6" customHeight="1" s="70">
       <c r="A81" s="5" t="n"/>
-      <c r="B81" s="59" t="s">
-        <v>69</v>
+      <c r="B81" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Subscribed Capital to Participations (-)</t>
+        </is>
       </c>
       <c r="C81" s="22" t="n">
         <v>0</v>
@@ -4549,12 +4379,17 @@
       <c r="M81" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N81" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="82" s="70" spans="1:14">
+      <c r="N81" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O81" s="10" t="n"/>
+    </row>
+    <row r="82" ht="12.6" customHeight="1" s="70">
       <c r="A82" s="8" t="n"/>
-      <c r="B82" s="59" t="s">
-        <v>70</v>
+      <c r="B82" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provis.for Capital Share in Participations (-)</t>
+        </is>
       </c>
       <c r="C82" s="22" t="n">
         <v>0</v>
@@ -4589,12 +4424,17 @@
       <c r="M82" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N82" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="83" s="70" spans="1:14">
+      <c r="N82" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" s="10" t="n"/>
+    </row>
+    <row r="83" ht="12.6" customHeight="1" s="70">
       <c r="A83" s="5" t="n"/>
-      <c r="B83" s="64" t="s">
-        <v>71</v>
+      <c r="B83" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C83" s="22" t="n">
         <v>8646.86375</v>
@@ -4629,12 +4469,17 @@
       <c r="M83" s="22" t="n">
         <v>102406.44</v>
       </c>
-      <c r="N83" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="84" s="70" spans="1:14">
+      <c r="N83" s="22" t="n">
+        <v>73290.391</v>
+      </c>
+      <c r="O83" s="10" t="n"/>
+    </row>
+    <row r="84" ht="12.6" customHeight="1" s="70">
       <c r="A84" s="5" t="n"/>
-      <c r="B84" s="59" t="s">
-        <v>72</v>
+      <c r="B84" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Subscribed Capital to Affili. Enterprises (-)</t>
+        </is>
       </c>
       <c r="C84" s="22" t="n">
         <v>0</v>
@@ -4669,12 +4514,17 @@
       <c r="M84" s="22" t="n">
         <v>6873.253</v>
       </c>
-      <c r="N84" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="85" s="70" spans="1:14">
+      <c r="N84" s="22" t="n">
+        <v>6873.253</v>
+      </c>
+      <c r="O84" s="10" t="n"/>
+    </row>
+    <row r="85" ht="12.6" customHeight="1" s="70">
       <c r="A85" s="5" t="n"/>
-      <c r="B85" s="59" t="s">
-        <v>73</v>
+      <c r="B85" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provi.for Capital Share in Affili.Enterp. (-)</t>
+        </is>
       </c>
       <c r="C85" s="22" t="n">
         <v>0</v>
@@ -4709,12 +4559,17 @@
       <c r="M85" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N85" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="86" s="70" spans="1:14">
+      <c r="N85" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O85" s="10" t="n"/>
+    </row>
+    <row r="86" ht="12.6" customHeight="1" s="70">
       <c r="A86" s="5" t="n"/>
-      <c r="B86" s="64" t="s">
-        <v>74</v>
+      <c r="B86" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Other Financial Fixed Assets</t>
+        </is>
       </c>
       <c r="C86" s="22" t="n">
         <v>0</v>
@@ -4749,12 +4604,17 @@
       <c r="M86" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N86" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="87" s="70" spans="1:14">
+      <c r="N86" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O86" s="11" t="n"/>
+    </row>
+    <row r="87" ht="12.6" customHeight="1" s="70">
       <c r="A87" s="8" t="n"/>
-      <c r="B87" s="59" t="s">
-        <v>75</v>
+      <c r="B87" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      10- Provi. for Other Financial Fixed Assets (-)</t>
+        </is>
       </c>
       <c r="C87" s="22" t="n">
         <v>0</v>
@@ -4789,15 +4649,20 @@
       <c r="M87" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N87" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="88" s="70" spans="1:14">
+      <c r="N87" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O87" s="10" t="n"/>
+    </row>
+    <row r="88" ht="12.6" customHeight="1" s="70">
       <c r="A88" s="8" t="n"/>
-      <c r="B88" s="60" t="s">
-        <v>76</v>
+      <c r="B88" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C88" s="23" t="n">
-        <v>85523.35464000002</v>
+        <v>85523.35464000001</v>
       </c>
       <c r="D88" s="23" t="n">
         <v>120048.54505</v>
@@ -4809,13 +4674,13 @@
         <v>182732.62058</v>
       </c>
       <c r="G88" s="23" t="n">
-        <v>282011.16835</v>
+        <v>282011.1683500001</v>
       </c>
       <c r="H88" s="33" t="n">
-        <v>289194.57812</v>
+        <v>289193.06236</v>
       </c>
       <c r="I88" s="23" t="n">
-        <v>203577.27494</v>
+        <v>203580.77689</v>
       </c>
       <c r="J88" s="33" t="n">
         <v>198338.92526</v>
@@ -4824,17 +4689,22 @@
         <v>183742.93095</v>
       </c>
       <c r="L88" s="23" t="n">
-        <v>646688.46875</v>
+        <v>646710.0903699999</v>
       </c>
       <c r="M88" s="23" t="n">
-        <v>752545.94913</v>
-      </c>
-      <c r="N88" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="89" s="70" spans="1:14">
+        <v>761688.73126</v>
+      </c>
+      <c r="N88" s="23" t="n">
+        <v>967456.931</v>
+      </c>
+      <c r="O88" s="10" t="n"/>
+    </row>
+    <row r="89" ht="12.6" customHeight="1" s="70">
       <c r="A89" s="5" t="n"/>
-      <c r="B89" s="64" t="s">
-        <v>77</v>
+      <c r="B89" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Land</t>
+        </is>
       </c>
       <c r="C89" s="22" t="n">
         <v>2180.2153</v>
@@ -4861,20 +4731,25 @@
         <v>37631.15025</v>
       </c>
       <c r="K89" s="22" t="n">
-        <v>35525.22648999999</v>
+        <v>35525.22649</v>
       </c>
       <c r="L89" s="22" t="n">
-        <v>34757.03188999999</v>
+        <v>34757.03189</v>
       </c>
       <c r="M89" s="22" t="n">
-        <v>34432.20788999999</v>
-      </c>
-      <c r="N89" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="90" s="70" spans="1:14">
+        <v>34757.03189</v>
+      </c>
+      <c r="N89" s="22" t="n">
+        <v>45740.309</v>
+      </c>
+      <c r="O89" s="10" t="n"/>
+    </row>
+    <row r="90" ht="12.6" customHeight="1" s="70">
       <c r="A90" s="5" t="n"/>
-      <c r="B90" s="64" t="s">
-        <v>78</v>
+      <c r="B90" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Land Improvements</t>
+        </is>
       </c>
       <c r="C90" s="22" t="n">
         <v>0.74437</v>
@@ -4907,14 +4782,19 @@
         <v>173.50584</v>
       </c>
       <c r="M90" s="22" t="n">
-        <v>1741.75584</v>
-      </c>
-      <c r="N90" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="91" s="70" spans="1:14">
+        <v>24343.36776</v>
+      </c>
+      <c r="N90" s="22" t="n">
+        <v>18391.577</v>
+      </c>
+      <c r="O90" s="10" t="n"/>
+    </row>
+    <row r="91" ht="12.6" customHeight="1" s="70">
       <c r="A91" s="5" t="n"/>
-      <c r="B91" s="64" t="s">
-        <v>79</v>
+      <c r="B91" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Buildings</t>
+        </is>
       </c>
       <c r="C91" s="22" t="n">
         <v>1187.20093</v>
@@ -4947,17 +4827,22 @@
         <v>12428.47255</v>
       </c>
       <c r="M91" s="22" t="n">
-        <v>12570.84544</v>
-      </c>
-      <c r="N91" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="92" s="70" spans="1:14">
+        <v>18706.22935</v>
+      </c>
+      <c r="N91" s="22" t="n">
+        <v>20544.212</v>
+      </c>
+      <c r="O91" s="10" t="n"/>
+    </row>
+    <row r="92" ht="12.6" customHeight="1" s="70">
       <c r="A92" s="5" t="n"/>
-      <c r="B92" s="64" t="s">
-        <v>80</v>
+      <c r="B92" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Machinery, Plant &amp; Equipment</t>
+        </is>
       </c>
       <c r="C92" s="22" t="n">
-        <v>91074.35320000001</v>
+        <v>91074.3532</v>
       </c>
       <c r="D92" s="22" t="n">
         <v>137197.92716</v>
@@ -4972,7 +4857,7 @@
         <v>279958.46922</v>
       </c>
       <c r="H92" s="21" t="n">
-        <v>316302.6041200001</v>
+        <v>316302.6041199999</v>
       </c>
       <c r="I92" s="22" t="n">
         <v>249740.76075</v>
@@ -4987,17 +4872,22 @@
         <v>394216.50125</v>
       </c>
       <c r="M92" s="22" t="n">
-        <v>457242.62899</v>
-      </c>
-      <c r="N92" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="93" s="70" spans="1:14">
+        <v>484547.98486</v>
+      </c>
+      <c r="N92" s="22" t="n">
+        <v>950200.906</v>
+      </c>
+      <c r="O92" s="10" t="n"/>
+    </row>
+    <row r="93" ht="12.6" customHeight="1" s="70">
       <c r="A93" s="5" t="n"/>
-      <c r="B93" s="64" t="s">
-        <v>81</v>
+      <c r="B93" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Motor Vehicles</t>
+        </is>
       </c>
       <c r="C93" s="22" t="n">
-        <v>8891.99985</v>
+        <v>8891.999850000002</v>
       </c>
       <c r="D93" s="22" t="n">
         <v>21742.30998</v>
@@ -5021,20 +4911,25 @@
         <v>104580.06908</v>
       </c>
       <c r="K93" s="22" t="n">
-        <v>97812.36970000001</v>
+        <v>97812.36969999998</v>
       </c>
       <c r="L93" s="22" t="n">
-        <v>97455.05094999999</v>
+        <v>97455.05095</v>
       </c>
       <c r="M93" s="22" t="n">
-        <v>99306.35587</v>
-      </c>
-      <c r="N93" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="94" s="70" spans="1:14">
+        <v>102840.90383</v>
+      </c>
+      <c r="N93" s="22" t="n">
+        <v>102788.969</v>
+      </c>
+      <c r="O93" s="10" t="n"/>
+    </row>
+    <row r="94" ht="12.6" customHeight="1" s="70">
       <c r="A94" s="5" t="n"/>
-      <c r="B94" s="59" t="s">
-        <v>82</v>
+      <c r="B94" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Furniture &amp; Fixtures</t>
+        </is>
       </c>
       <c r="C94" s="22" t="n">
         <v>38932.34013</v>
@@ -5043,19 +4938,19 @@
         <v>34638.60269</v>
       </c>
       <c r="E94" s="22" t="n">
-        <v>42254.42722000001</v>
+        <v>42254.42721999999</v>
       </c>
       <c r="F94" s="21" t="n">
-        <v>43015.44519999999</v>
+        <v>43015.4452</v>
       </c>
       <c r="G94" s="22" t="n">
-        <v>43461.63397</v>
+        <v>43461.63396999999</v>
       </c>
       <c r="H94" s="21" t="n">
-        <v>45572.96492999999</v>
+        <v>45572.96493</v>
       </c>
       <c r="I94" s="22" t="n">
-        <v>46208.69438</v>
+        <v>46350.91448000001</v>
       </c>
       <c r="J94" s="21" t="n">
         <v>47020.3863</v>
@@ -5064,17 +4959,22 @@
         <v>18598.70601</v>
       </c>
       <c r="L94" s="22" t="n">
-        <v>427721.31435</v>
+        <v>427747.82761</v>
       </c>
       <c r="M94" s="22" t="n">
-        <v>492635.3436500001</v>
-      </c>
-      <c r="N94" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="95" s="70" spans="1:14">
+        <v>498610.49649</v>
+      </c>
+      <c r="N94" s="22" t="n">
+        <v>545594.877</v>
+      </c>
+      <c r="O94" s="10" t="n"/>
+    </row>
+    <row r="95" ht="12.6" customHeight="1" s="70">
       <c r="A95" s="5" t="n"/>
-      <c r="B95" s="64" t="s">
-        <v>83</v>
+      <c r="B95" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C95" s="22" t="n">
         <v>0.001</v>
@@ -5109,18 +5009,23 @@
       <c r="M95" s="22" t="n">
         <v>179.92053</v>
       </c>
-      <c r="N95" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="96" s="70" spans="1:14">
+      <c r="N95" s="22" t="n">
+        <v>3414.338</v>
+      </c>
+      <c r="O95" s="10" t="n"/>
+    </row>
+    <row r="96" ht="12.6" customHeight="1" s="70">
       <c r="A96" s="5" t="n"/>
-      <c r="B96" s="59" t="s">
-        <v>84</v>
+      <c r="B96" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Accumulated Depreciation (-)</t>
+        </is>
       </c>
       <c r="C96" s="22" t="n">
         <v>59594.42989</v>
       </c>
       <c r="D96" s="22" t="n">
-        <v>88332.41888999999</v>
+        <v>88332.41889000002</v>
       </c>
       <c r="E96" s="22" t="n">
         <v>113807.30948</v>
@@ -5132,10 +5037,10 @@
         <v>214777.11266</v>
       </c>
       <c r="H96" s="21" t="n">
-        <v>290448.11537</v>
+        <v>290449.63113</v>
       </c>
       <c r="I96" s="22" t="n">
-        <v>298032.23547</v>
+        <v>298170.95362</v>
       </c>
       <c r="J96" s="21" t="n">
         <v>303180.06573</v>
@@ -5144,17 +5049,22 @@
         <v>306845.99993</v>
       </c>
       <c r="L96" s="22" t="n">
-        <v>362963.89365</v>
+        <v>362968.78529</v>
       </c>
       <c r="M96" s="22" t="n">
-        <v>471248.0932000001</v>
-      </c>
-      <c r="N96" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="97" s="70" spans="1:14">
+        <v>527982.18758</v>
+      </c>
+      <c r="N96" s="22" t="n">
+        <v>843188.254</v>
+      </c>
+      <c r="O96" s="10" t="n"/>
+    </row>
+    <row r="97" ht="12.6" customHeight="1" s="70">
       <c r="A97" s="5" t="n"/>
-      <c r="B97" s="64" t="s">
-        <v>85</v>
+      <c r="B97" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Assets in Construction</t>
+        </is>
       </c>
       <c r="C97" s="22" t="n">
         <v>2475.29045</v>
@@ -5163,13 +5073,13 @@
         <v>7600.77858</v>
       </c>
       <c r="E97" s="22" t="n">
-        <v>6315.918529999999</v>
+        <v>6315.91853</v>
       </c>
       <c r="F97" s="21" t="n">
         <v>13116.21978</v>
       </c>
       <c r="G97" s="22" t="n">
-        <v>83237.40637000001</v>
+        <v>83237.40637</v>
       </c>
       <c r="H97" s="21" t="n">
         <v>82865.57044</v>
@@ -5184,17 +5094,22 @@
         <v>50136.33185</v>
       </c>
       <c r="L97" s="22" t="n">
-        <v>42707.06504000001</v>
+        <v>42707.06504</v>
       </c>
       <c r="M97" s="22" t="n">
-        <v>36848.50608</v>
-      </c>
-      <c r="N97" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="98" s="70" spans="1:14">
+        <v>36848.50609</v>
+      </c>
+      <c r="N97" s="22" t="n">
+        <v>35133.519</v>
+      </c>
+      <c r="O97" s="11" t="n"/>
+    </row>
+    <row r="98" ht="12.6" customHeight="1" s="70">
       <c r="A98" s="8" t="n"/>
-      <c r="B98" s="64" t="s">
-        <v>86</v>
+      <c r="B98" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      10- Advances Paid</t>
+        </is>
       </c>
       <c r="C98" s="22" t="n">
         <v>375.6393</v>
@@ -5229,12 +5144,17 @@
       <c r="M98" s="22" t="n">
         <v>88836.47804</v>
       </c>
-      <c r="N98" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="99" s="70" spans="1:14">
+      <c r="N98" s="22" t="n">
+        <v>88836.478</v>
+      </c>
+      <c r="O98" s="10" t="n"/>
+    </row>
+    <row r="99" ht="12.6" customHeight="1" s="70">
       <c r="A99" s="5" t="n"/>
-      <c r="B99" s="60" t="s">
-        <v>87</v>
+      <c r="B99" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Intangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C99" s="23" t="n">
         <v>14414.55618</v>
@@ -5252,29 +5172,34 @@
         <v>10418.39945</v>
       </c>
       <c r="H99" s="33" t="n">
-        <v>21810.95078</v>
+        <v>21788.00151</v>
       </c>
       <c r="I99" s="23" t="n">
-        <v>49966.27503</v>
+        <v>50411.80236</v>
       </c>
       <c r="J99" s="33" t="n">
-        <v>50422.62765000001</v>
+        <v>50425.01971</v>
       </c>
       <c r="K99" s="23" t="n">
         <v>50597.06859</v>
       </c>
       <c r="L99" s="23" t="n">
-        <v>371560.4461400001</v>
+        <v>371563.1458199999</v>
       </c>
       <c r="M99" s="23" t="n">
-        <v>375507.2991600001</v>
-      </c>
-      <c r="N99" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="100" s="70" spans="1:14">
+        <v>391475.06712</v>
+      </c>
+      <c r="N99" s="23" t="n">
+        <v>371606.394</v>
+      </c>
+      <c r="O99" s="10" t="n"/>
+    </row>
+    <row r="100" ht="12.6" customHeight="1" s="70">
       <c r="A100" s="5" t="n"/>
-      <c r="B100" s="64" t="s">
-        <v>88</v>
+      <c r="B100" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Know-How</t>
+        </is>
       </c>
       <c r="C100" s="22" t="n">
         <v>7079.35262</v>
@@ -5301,20 +5226,25 @@
         <v>58361.77943</v>
       </c>
       <c r="K100" s="22" t="n">
-        <v>60685.37684999999</v>
+        <v>60685.37685</v>
       </c>
       <c r="L100" s="22" t="n">
         <v>371951.07249</v>
       </c>
       <c r="M100" s="22" t="n">
-        <v>375665.20652</v>
-      </c>
-      <c r="N100" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="101" s="70" spans="1:14">
+        <v>394731.1669</v>
+      </c>
+      <c r="N100" s="22" t="n">
+        <v>377938.493</v>
+      </c>
+      <c r="O100" s="10" t="n"/>
+    </row>
+    <row r="101" ht="12.6" customHeight="1" s="70">
       <c r="A101" s="5" t="n"/>
-      <c r="B101" s="64" t="s">
-        <v>89</v>
+      <c r="B101" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Goodwill</t>
+        </is>
       </c>
       <c r="C101" s="22" t="n">
         <v>0</v>
@@ -5349,12 +5279,17 @@
       <c r="M101" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N101" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="102" s="70" spans="1:14">
+      <c r="N101" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O101" s="10" t="n"/>
+    </row>
+    <row r="102" ht="12.6" customHeight="1" s="70">
       <c r="A102" s="5" t="n"/>
-      <c r="B102" s="59" t="s">
-        <v>90</v>
+      <c r="B102" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Formation and Organisation Expenses</t>
+        </is>
       </c>
       <c r="C102" s="22" t="n">
         <v>53.60189</v>
@@ -5375,26 +5310,31 @@
         <v>63.61789</v>
       </c>
       <c r="I102" s="22" t="n">
-        <v>55.93113</v>
+        <v>55.93112999999999</v>
       </c>
       <c r="J102" s="21" t="n">
-        <v>68.56845</v>
+        <v>71.60275999999999</v>
       </c>
       <c r="K102" s="22" t="n">
         <v>69.17998</v>
       </c>
       <c r="L102" s="22" t="n">
-        <v>66.60860000000001</v>
+        <v>68.7795</v>
       </c>
       <c r="M102" s="22" t="n">
-        <v>68.50019999999999</v>
-      </c>
-      <c r="N102" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="103" s="70" spans="1:14">
+        <v>70.96719999999999</v>
+      </c>
+      <c r="N102" s="22" t="n">
+        <v>63.843</v>
+      </c>
+      <c r="O102" s="10" t="n"/>
+    </row>
+    <row r="103" ht="12.6" customHeight="1" s="70">
       <c r="A103" s="8" t="n"/>
-      <c r="B103" s="59" t="s">
-        <v>91</v>
+      <c r="B103" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Research and Development Expenses</t>
+        </is>
       </c>
       <c r="C103" s="22" t="n">
         <v>3044.65418</v>
@@ -5429,15 +5369,20 @@
       <c r="M103" s="22" t="n">
         <v>3080.17291</v>
       </c>
-      <c r="N103" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="104" s="70" spans="1:14">
+      <c r="N103" s="22" t="n">
+        <v>3242.256</v>
+      </c>
+      <c r="O103" s="10" t="n"/>
+    </row>
+    <row r="104" ht="12.6" customHeight="1" s="70">
       <c r="A104" s="5" t="n"/>
-      <c r="B104" s="66" t="s">
-        <v>92</v>
+      <c r="B104" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Special Expenses</t>
+        </is>
       </c>
       <c r="C104" s="22" t="n">
-        <v>6071.684659999999</v>
+        <v>6071.68466</v>
       </c>
       <c r="D104" s="22" t="n">
         <v>7363.76529</v>
@@ -5446,16 +5391,16 @@
         <v>10819.7407</v>
       </c>
       <c r="F104" s="21" t="n">
-        <v>6268.485210000001</v>
+        <v>6268.48521</v>
       </c>
       <c r="G104" s="22" t="n">
-        <v>6478.962270000001</v>
+        <v>6478.96227</v>
       </c>
       <c r="H104" s="21" t="n">
         <v>8312.29442</v>
       </c>
       <c r="I104" s="22" t="n">
-        <v>7309.555810000001</v>
+        <v>7996.931949999999</v>
       </c>
       <c r="J104" s="21" t="n">
         <v>8348.24271</v>
@@ -5464,17 +5409,22 @@
         <v>8544.39609</v>
       </c>
       <c r="L104" s="22" t="n">
-        <v>9373.77203</v>
+        <v>9374.97573</v>
       </c>
       <c r="M104" s="22" t="n">
-        <v>10824.36674</v>
-      </c>
-      <c r="N104" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="105" s="70" spans="1:14">
+        <v>11983.91722</v>
+      </c>
+      <c r="N104" s="22" t="n">
+        <v>15844.59</v>
+      </c>
+      <c r="O104" s="10" t="n"/>
+    </row>
+    <row r="105" ht="12.6" customHeight="1" s="70">
       <c r="A105" s="5" t="n"/>
-      <c r="B105" s="66" t="s">
-        <v>93</v>
+      <c r="B105" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other Intangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C105" s="22" t="n">
         <v>2233.04523</v>
@@ -5489,13 +5439,13 @@
         <v>3816.75458</v>
       </c>
       <c r="G105" s="22" t="n">
-        <v>3869.410939999999</v>
+        <v>3869.41094</v>
       </c>
       <c r="H105" s="21" t="n">
         <v>3974.50296</v>
       </c>
       <c r="I105" s="22" t="n">
-        <v>1309.02724</v>
+        <v>3940.8738</v>
       </c>
       <c r="J105" s="21" t="n">
         <v>3983.67015</v>
@@ -5507,14 +5457,19 @@
         <v>4940.85043</v>
       </c>
       <c r="M105" s="22" t="n">
-        <v>5992.620900000001</v>
-      </c>
-      <c r="N105" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="106" s="70" spans="1:14">
+        <v>11407.79759</v>
+      </c>
+      <c r="N105" s="22" t="n">
+        <v>14157.511</v>
+      </c>
+      <c r="O105" s="10" t="n"/>
+    </row>
+    <row r="106" ht="12.6" customHeight="1" s="70">
       <c r="A106" s="8" t="n"/>
-      <c r="B106" s="67" t="s">
-        <v>94</v>
+      <c r="B106" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Accumulated Depreciation (-)</t>
+        </is>
       </c>
       <c r="C106" s="22" t="n">
         <v>4067.7824</v>
@@ -5523,38 +5478,43 @@
         <v>6363.985199999999</v>
       </c>
       <c r="E106" s="22" t="n">
-        <v>9150.689880000002</v>
+        <v>9150.689879999998</v>
       </c>
       <c r="F106" s="21" t="n">
-        <v>9831.16914</v>
+        <v>9831.169139999998</v>
       </c>
       <c r="G106" s="22" t="n">
         <v>12121.62768</v>
       </c>
       <c r="H106" s="21" t="n">
-        <v>15888.94958</v>
+        <v>15911.89885</v>
       </c>
       <c r="I106" s="22" t="n">
-        <v>13835.81833</v>
+        <v>16709.5137</v>
       </c>
       <c r="J106" s="21" t="n">
-        <v>23419.806</v>
+        <v>23420.44825</v>
       </c>
       <c r="K106" s="22" t="n">
         <v>25893.87504</v>
       </c>
       <c r="L106" s="22" t="n">
-        <v>17852.03032</v>
+        <v>17852.70524</v>
       </c>
       <c r="M106" s="22" t="n">
-        <v>20123.56811</v>
-      </c>
-      <c r="N106" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="107" s="70" spans="1:14">
+        <v>29798.9547</v>
+      </c>
+      <c r="N106" s="22" t="n">
+        <v>39640.299</v>
+      </c>
+      <c r="O106" s="10" t="n"/>
+    </row>
+    <row r="107" ht="12.6" customHeight="1" s="70">
       <c r="A107" s="8" t="n"/>
-      <c r="B107" s="66" t="s">
-        <v>95</v>
+      <c r="B107" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Advances Paid</t>
+        </is>
       </c>
       <c r="C107" s="22" t="n">
         <v>0</v>
@@ -5589,18 +5549,23 @@
       <c r="M107" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N107" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="108" s="70" spans="1:14">
+      <c r="N107" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O107" s="10" t="n"/>
+    </row>
+    <row r="108" ht="12.6" customHeight="1" s="70">
       <c r="A108" s="5" t="n"/>
-      <c r="B108" s="68" t="s">
-        <v>96</v>
+      <c r="B108" s="68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Assets Subject to Depletion</t>
+        </is>
       </c>
       <c r="C108" s="23" t="n">
         <v>381934.90387</v>
       </c>
       <c r="D108" s="23" t="n">
-        <v>754683.07037</v>
+        <v>754683.0703699999</v>
       </c>
       <c r="E108" s="23" t="n">
         <v>1416900.1902</v>
@@ -5612,13 +5577,13 @@
         <v>354346.48474</v>
       </c>
       <c r="H108" s="33" t="n">
-        <v>563456.9819499999</v>
+        <v>563456.98195</v>
       </c>
       <c r="I108" s="23" t="n">
-        <v>771554.4594699999</v>
+        <v>771554.45947</v>
       </c>
       <c r="J108" s="33" t="n">
-        <v>557158.0094099999</v>
+        <v>557158.0094100001</v>
       </c>
       <c r="K108" s="23" t="n">
         <v>157468.37292</v>
@@ -5627,14 +5592,19 @@
         <v>80891.76797</v>
       </c>
       <c r="M108" s="23" t="n">
-        <v>77670.19500000001</v>
-      </c>
-      <c r="N108" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="109" s="70" spans="1:14">
+        <v>207446.70748</v>
+      </c>
+      <c r="N108" s="23" t="n">
+        <v>189244.047</v>
+      </c>
+      <c r="O108" s="10" t="n"/>
+    </row>
+    <row r="109" ht="12.6" customHeight="1" s="70">
       <c r="A109" s="5" t="n"/>
-      <c r="B109" s="66" t="s">
-        <v>97</v>
+      <c r="B109" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Exploration Expenses</t>
+        </is>
       </c>
       <c r="C109" s="22" t="n">
         <v>382227.71904</v>
@@ -5652,10 +5622,10 @@
         <v>354019.0004</v>
       </c>
       <c r="H109" s="21" t="n">
-        <v>563012.74257</v>
+        <v>563012.7425699999</v>
       </c>
       <c r="I109" s="22" t="n">
-        <v>770353.3346299999</v>
+        <v>770353.3346300002</v>
       </c>
       <c r="J109" s="21" t="n">
         <v>556228.26512</v>
@@ -5667,14 +5637,19 @@
         <v>22208.17637</v>
       </c>
       <c r="M109" s="22" t="n">
-        <v>32512.69378</v>
-      </c>
-      <c r="N109" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="110" s="70" spans="1:14">
+        <v>40962.56312</v>
+      </c>
+      <c r="N109" s="22" t="n">
+        <v>61559.913</v>
+      </c>
+      <c r="O109" s="10" t="n"/>
+    </row>
+    <row r="110" ht="12.6" customHeight="1" s="70">
       <c r="A110" s="5" t="n"/>
-      <c r="B110" s="64" t="s">
-        <v>98</v>
+      <c r="B110" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Preparation and Development Expenses</t>
+        </is>
       </c>
       <c r="C110" s="22" t="n">
         <v>663.34371</v>
@@ -5707,14 +5682,19 @@
         <v>2482.65711</v>
       </c>
       <c r="M110" s="22" t="n">
-        <v>349.08926</v>
-      </c>
-      <c r="N110" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="111" s="70" spans="1:14">
+        <v>1862.11301</v>
+      </c>
+      <c r="N110" s="22" t="n">
+        <v>3078.929</v>
+      </c>
+      <c r="O110" s="10" t="n"/>
+    </row>
+    <row r="111" ht="12.6" customHeight="1" s="70">
       <c r="A111" s="5" t="n"/>
-      <c r="B111" s="64" t="s">
-        <v>99</v>
+      <c r="B111" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other Assets subject to Depletion</t>
+        </is>
       </c>
       <c r="C111" s="22" t="n">
         <v>24.8314</v>
@@ -5747,14 +5727,19 @@
         <v>83820.30847</v>
       </c>
       <c r="M111" s="22" t="n">
-        <v>83889.70615000001</v>
-      </c>
-      <c r="N111" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="112" s="70" spans="1:14">
+        <v>412503.42158</v>
+      </c>
+      <c r="N111" s="22" t="n">
+        <v>371395.201</v>
+      </c>
+      <c r="O111" s="10" t="n"/>
+    </row>
+    <row r="112" ht="12.6" customHeight="1" s="70">
       <c r="A112" s="5" t="n"/>
-      <c r="B112" s="59" t="s">
-        <v>100</v>
+      <c r="B112" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Accumulated Depletion (-)</t>
+        </is>
       </c>
       <c r="C112" s="22" t="n">
         <v>1007.39903</v>
@@ -5787,14 +5772,19 @@
         <v>27619.37398</v>
       </c>
       <c r="M112" s="22" t="n">
-        <v>39081.29419</v>
-      </c>
-      <c r="N112" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="113" s="70" spans="1:14">
+        <v>247881.39023</v>
+      </c>
+      <c r="N112" s="22" t="n">
+        <v>246789.996</v>
+      </c>
+      <c r="O112" s="11" t="n"/>
+    </row>
+    <row r="113" ht="12.6" customHeight="1" s="70">
       <c r="A113" s="8" t="n"/>
-      <c r="B113" s="64" t="s">
-        <v>101</v>
+      <c r="B113" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Advances Paid</t>
+        </is>
       </c>
       <c r="C113" s="22" t="n">
         <v>26.40875</v>
@@ -5829,12 +5819,17 @@
       <c r="M113" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N113" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="114" s="70" spans="1:14">
+      <c r="N113" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O113" s="10" t="n"/>
+    </row>
+    <row r="114" ht="12.6" customHeight="1" s="70">
       <c r="A114" s="5" t="n"/>
-      <c r="B114" s="60" t="s">
-        <v>102</v>
+      <c r="B114" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G-Prepaym.&amp; Accrued Inc. for the Next Yrs.</t>
+        </is>
       </c>
       <c r="C114" s="23" t="n">
         <v>490.02526</v>
@@ -5852,29 +5847,34 @@
         <v>6855.865390000001</v>
       </c>
       <c r="H114" s="33" t="n">
-        <v>4790.4812</v>
+        <v>4791.05926</v>
       </c>
       <c r="I114" s="23" t="n">
-        <v>9364.307839999998</v>
+        <v>9368.102459999998</v>
       </c>
       <c r="J114" s="33" t="n">
         <v>9900.973310000001</v>
       </c>
       <c r="K114" s="23" t="n">
-        <v>8960.633129999998</v>
+        <v>8960.63313</v>
       </c>
       <c r="L114" s="23" t="n">
         <v>10970.82683</v>
       </c>
       <c r="M114" s="23" t="n">
-        <v>6291.20168</v>
-      </c>
-      <c r="N114" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="115" s="70" spans="1:14">
+        <v>7968.774870000001</v>
+      </c>
+      <c r="N114" s="23" t="n">
+        <v>10851.687</v>
+      </c>
+      <c r="O114" s="10" t="n"/>
+    </row>
+    <row r="115" ht="12.6" customHeight="1" s="70">
       <c r="A115" s="5" t="n"/>
-      <c r="B115" s="64" t="s">
-        <v>103</v>
+      <c r="B115" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Prepayments for the Next Years</t>
+        </is>
       </c>
       <c r="C115" s="22" t="n">
         <v>490.02526</v>
@@ -5892,10 +5892,10 @@
         <v>6855.865390000001</v>
       </c>
       <c r="H115" s="21" t="n">
-        <v>4790.4812</v>
+        <v>4791.05926</v>
       </c>
       <c r="I115" s="22" t="n">
-        <v>9364.307839999998</v>
+        <v>9368.102459999998</v>
       </c>
       <c r="J115" s="21" t="n">
         <v>9900.973310000001</v>
@@ -5907,14 +5907,19 @@
         <v>10970.82683</v>
       </c>
       <c r="M115" s="22" t="n">
-        <v>6291.20168</v>
-      </c>
-      <c r="N115" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="116" s="70" spans="1:14">
+        <v>7968.774869999999</v>
+      </c>
+      <c r="N115" s="22" t="n">
+        <v>10586.513</v>
+      </c>
+      <c r="O115" s="11" t="n"/>
+    </row>
+    <row r="116" ht="12.6" customHeight="1" s="70">
       <c r="A116" s="8" t="n"/>
-      <c r="B116" s="64" t="s">
-        <v>48</v>
+      <c r="B116" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Income</t>
+        </is>
       </c>
       <c r="C116" s="22" t="n">
         <v>0</v>
@@ -5949,12 +5954,17 @@
       <c r="M116" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N116" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="117" s="70" spans="1:14">
+      <c r="N116" s="22" t="n">
+        <v>265.174</v>
+      </c>
+      <c r="O116" s="10" t="n"/>
+    </row>
+    <row r="117" ht="12.6" customHeight="1" s="70">
       <c r="A117" s="8" t="n"/>
-      <c r="B117" s="57" t="s">
-        <v>104</v>
+      <c r="B117" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   H- Other Long-Term Assets</t>
+        </is>
       </c>
       <c r="C117" s="23" t="n">
         <v>0</v>
@@ -5989,12 +5999,17 @@
       <c r="M117" s="23" t="n">
         <v>1776.1497</v>
       </c>
-      <c r="N117" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="118" s="70" spans="1:14">
+      <c r="N117" s="23" t="n">
+        <v>19372.91</v>
+      </c>
+      <c r="O117" s="10" t="n"/>
+    </row>
+    <row r="118" ht="12.6" customHeight="1" s="70">
       <c r="A118" s="5" t="n"/>
-      <c r="B118" s="64" t="s">
-        <v>105</v>
+      <c r="B118" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Deductable in the Following Years</t>
+        </is>
       </c>
       <c r="C118" s="22" t="n">
         <v>0</v>
@@ -6029,12 +6044,17 @@
       <c r="M118" s="22" t="n">
         <v>564.4324799999999</v>
       </c>
-      <c r="N118" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="119" s="70" spans="1:14">
+      <c r="N118" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O118" s="10" t="n"/>
+    </row>
+    <row r="119" ht="12.6" customHeight="1" s="70">
       <c r="A119" s="5" t="n"/>
-      <c r="B119" s="64" t="s">
-        <v>106</v>
+      <c r="B119" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other V.A.T.</t>
+        </is>
       </c>
       <c r="C119" s="22" t="n">
         <v>0</v>
@@ -6069,12 +6089,17 @@
       <c r="M119" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N119" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="120" s="70" spans="1:14">
+      <c r="N119" s="22" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="O119" s="10" t="n"/>
+    </row>
+    <row r="120" ht="12.6" customHeight="1" s="70">
       <c r="A120" s="5" t="n"/>
-      <c r="B120" s="64" t="s">
-        <v>107</v>
+      <c r="B120" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Inventory Held for the Next Years</t>
+        </is>
       </c>
       <c r="C120" s="22" t="n">
         <v>0</v>
@@ -6109,12 +6134,17 @@
       <c r="M120" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N120" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="121" s="70" spans="1:14">
+      <c r="N120" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O120" s="10" t="n"/>
+    </row>
+    <row r="121" ht="12.6" customHeight="1" s="70">
       <c r="A121" s="5" t="n"/>
-      <c r="B121" s="64" t="s">
-        <v>108</v>
+      <c r="B121" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Inventories and Tang.Fixed Assets to be Sold</t>
+        </is>
       </c>
       <c r="C121" s="22" t="n">
         <v>0</v>
@@ -6149,12 +6179,17 @@
       <c r="M121" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N121" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="122" s="70" spans="1:14">
+      <c r="N121" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O121" s="10" t="n"/>
+    </row>
+    <row r="122" ht="12.6" customHeight="1" s="70">
       <c r="A122" s="5" t="n"/>
-      <c r="B122" s="59" t="s">
-        <v>109</v>
+      <c r="B122" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Prepaid taxes and funds</t>
+        </is>
       </c>
       <c r="C122" s="22" t="n">
         <v>0</v>
@@ -6189,12 +6224,17 @@
       <c r="M122" s="22" t="n">
         <v>1039.56673</v>
       </c>
-      <c r="N122" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="123" s="70" spans="1:14">
+      <c r="N122" s="22" t="n">
+        <v>19200.705</v>
+      </c>
+      <c r="O122" s="10" t="n"/>
+    </row>
+    <row r="123" ht="12.6" customHeight="1" s="70">
       <c r="A123" s="5" t="n"/>
-      <c r="B123" s="59" t="s">
-        <v>110</v>
+      <c r="B123" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other </t>
+        </is>
       </c>
       <c r="C123" s="22" t="n">
         <v>0</v>
@@ -6229,12 +6269,17 @@
       <c r="M123" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N123" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="124" s="70" spans="1:14">
+      <c r="N123" s="22" t="n">
+        <v>0.054</v>
+      </c>
+      <c r="O123" s="10" t="n"/>
+    </row>
+    <row r="124" ht="12.6" customHeight="1" s="70">
       <c r="A124" s="5" t="n"/>
-      <c r="B124" s="59" t="s">
-        <v>111</v>
+      <c r="B124" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Provisions for  inventories (-)</t>
+        </is>
       </c>
       <c r="C124" s="22" t="n">
         <v>0</v>
@@ -6269,12 +6314,17 @@
       <c r="M124" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N124" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="125" s="70" spans="1:14">
+      <c r="N124" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O124" s="11" t="n"/>
+    </row>
+    <row r="125" ht="12.6" customHeight="1" s="70">
       <c r="A125" s="8" t="n"/>
-      <c r="B125" s="59" t="s">
-        <v>112</v>
+      <c r="B125" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Accumulated depreciation (-)</t>
+        </is>
       </c>
       <c r="C125" s="22" t="n">
         <v>0</v>
@@ -6309,12 +6359,17 @@
       <c r="M125" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N125" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="126" s="70" spans="1:14">
+      <c r="N125" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O125" s="10" t="n"/>
+    </row>
+    <row r="126" ht="12.6" customHeight="1" s="70">
       <c r="A126" s="8" t="n"/>
-      <c r="B126" s="59" t="s">
-        <v>113</v>
+      <c r="B126" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Suspence Account</t>
+        </is>
       </c>
       <c r="C126" s="22" t="n">
         <v>0</v>
@@ -6349,12 +6404,17 @@
       <c r="M126" s="22" t="n">
         <v>172.15049</v>
       </c>
-      <c r="N126" s="10" t="n"/>
-    </row>
-    <row r="127" spans="1:14">
+      <c r="N126" s="22" t="n">
+        <v>172.15</v>
+      </c>
+      <c r="O126" s="10" t="n"/>
+    </row>
+    <row r="127">
       <c r="A127" s="8" t="n"/>
-      <c r="B127" s="38" t="s">
-        <v>114</v>
+      <c r="B127" s="38" t="inlineStr">
+        <is>
+          <t>TOTAL ASSETS</t>
+        </is>
       </c>
       <c r="C127" s="23" t="n">
         <v>1322524.29662</v>
@@ -6372,26 +6432,29 @@
         <v>2802453.08866</v>
       </c>
       <c r="H127" s="33" t="n">
-        <v>6320246.749709999</v>
+        <v>6320190.686939999</v>
       </c>
       <c r="I127" s="23" t="n">
-        <v>8384783.333339999</v>
+        <v>8406905.467490001</v>
       </c>
       <c r="J127" s="33" t="n">
-        <v>8909584.310350001</v>
+        <v>8909648.24257</v>
       </c>
       <c r="K127" s="23" t="n">
         <v>8493140.18045</v>
       </c>
       <c r="L127" s="23" t="n">
-        <v>9104364.273499999</v>
+        <v>9201975.447880002</v>
       </c>
       <c r="M127" s="23" t="n">
-        <v>9547482.62961</v>
-      </c>
-      <c r="N127" s="1" t="n"/>
-    </row>
-    <row r="128" spans="1:14">
+        <v>10194043.78692</v>
+      </c>
+      <c r="N127" s="23" t="n">
+        <v>15943772.148</v>
+      </c>
+      <c r="O127" s="1" t="n"/>
+    </row>
+    <row r="128">
       <c r="A128" s="18" t="n"/>
       <c r="B128" s="39" t="n"/>
       <c r="C128" s="40" t="n"/>
@@ -6405,11 +6468,14 @@
       <c r="K128" s="40" t="n"/>
       <c r="L128" s="40" t="n"/>
       <c r="M128" s="40" t="n"/>
-      <c r="N128" s="1" t="n"/>
-    </row>
-    <row r="129" spans="1:14">
-      <c r="A129" s="4" t="s">
-        <v>0</v>
+      <c r="N128" s="40" t="n"/>
+      <c r="O128" s="1" t="n"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="4" t="inlineStr">
+        <is>
+          <t>091-Support activities for petroleum and natural gas extraction</t>
+        </is>
       </c>
       <c r="B129" s="29" t="n"/>
       <c r="C129" s="29" t="n"/>
@@ -6423,11 +6489,14 @@
       <c r="K129" s="29" t="n"/>
       <c r="L129" s="29" t="n"/>
       <c r="M129" s="29" t="n"/>
-      <c r="N129" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="130" s="70" spans="1:14">
-      <c r="A130" s="4" t="s">
-        <v>1</v>
+      <c r="N129" s="29" t="n"/>
+      <c r="O129" s="10" t="n"/>
+    </row>
+    <row r="130" ht="12.6" customHeight="1" s="70">
+      <c r="A130" s="4" t="inlineStr">
+        <is>
+          <t>BALANCE SHEET (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="B130" s="63" t="n"/>
       <c r="C130" s="29" t="n"/>
@@ -6441,12 +6510,15 @@
       <c r="K130" s="29" t="n"/>
       <c r="L130" s="29" t="n"/>
       <c r="M130" s="29" t="n"/>
-      <c r="N130" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="25.5" r="131" s="70" spans="1:14">
+      <c r="N130" s="29" t="n"/>
+      <c r="O130" s="11" t="n"/>
+    </row>
+    <row r="131" ht="25.5" customHeight="1" s="70">
       <c r="A131" s="19" t="n"/>
-      <c r="B131" s="42" t="s">
-        <v>115</v>
+      <c r="B131" s="42" t="inlineStr">
+        <is>
+          <t>LIABILITIES</t>
+        </is>
       </c>
       <c r="C131" s="44" t="n">
         <v>2009</v>
@@ -6481,18 +6553,23 @@
       <c r="M131" s="31" t="n">
         <v>2019</v>
       </c>
-      <c r="N131" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="132" s="70" spans="1:14">
+      <c r="N131" s="31" t="n">
+        <v>2020</v>
+      </c>
+      <c r="O131" s="11" t="n"/>
+    </row>
+    <row r="132" ht="12.6" customHeight="1" s="70">
       <c r="A132" s="8" t="n"/>
-      <c r="B132" s="56" t="s">
-        <v>116</v>
+      <c r="B132" s="56" t="inlineStr">
+        <is>
+          <t>I- SHORT-TERM LIABILITIES</t>
+        </is>
       </c>
       <c r="C132" s="23" t="n">
         <v>451932.97684</v>
       </c>
       <c r="D132" s="23" t="n">
-        <v>949416.3130900001</v>
+        <v>949416.3130900002</v>
       </c>
       <c r="E132" s="23" t="n">
         <v>1682830.37252</v>
@@ -6504,29 +6581,34 @@
         <v>1796449.12821</v>
       </c>
       <c r="H132" s="33" t="n">
-        <v>1865758.0878</v>
+        <v>1865787.43999</v>
       </c>
       <c r="I132" s="23" t="n">
-        <v>1590585.455</v>
+        <v>1594623.57903</v>
       </c>
       <c r="J132" s="33" t="n">
-        <v>2225996.61878</v>
+        <v>2226003.78989</v>
       </c>
       <c r="K132" s="23" t="n">
         <v>1702126.39594</v>
       </c>
       <c r="L132" s="23" t="n">
-        <v>2750764.16364</v>
+        <v>2880007.31492</v>
       </c>
       <c r="M132" s="23" t="n">
-        <v>3471200.62816</v>
-      </c>
-      <c r="N132" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="133" s="70" spans="1:14">
+        <v>3760846.08358</v>
+      </c>
+      <c r="N132" s="23" t="n">
+        <v>5135125.674</v>
+      </c>
+      <c r="O132" s="10" t="n"/>
+    </row>
+    <row r="133" ht="12.6" customHeight="1" s="70">
       <c r="A133" s="5" t="n"/>
-      <c r="B133" s="60" t="s">
-        <v>117</v>
+      <c r="B133" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Financial Liabilities</t>
+        </is>
       </c>
       <c r="C133" s="23" t="n">
         <v>90623.86751000001</v>
@@ -6550,7 +6632,7 @@
         <v>23082.90073</v>
       </c>
       <c r="J133" s="33" t="n">
-        <v>45261.51667999999</v>
+        <v>45261.51669</v>
       </c>
       <c r="K133" s="23" t="n">
         <v>2565.43675</v>
@@ -6559,26 +6641,31 @@
         <v>22854.6249</v>
       </c>
       <c r="M133" s="23" t="n">
-        <v>8208.732479999999</v>
-      </c>
-      <c r="N133" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="134" s="70" spans="1:14">
+        <v>8208.974620000001</v>
+      </c>
+      <c r="N133" s="23" t="n">
+        <v>103446.406</v>
+      </c>
+      <c r="O133" s="10" t="n"/>
+    </row>
+    <row r="134" ht="12.6" customHeight="1" s="70">
       <c r="A134" s="5" t="n"/>
-      <c r="B134" s="64" t="s">
-        <v>118</v>
+      <c r="B134" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Bank Loans</t>
+        </is>
       </c>
       <c r="C134" s="22" t="n">
         <v>90623.86751000001</v>
       </c>
       <c r="D134" s="22" t="n">
-        <v>6568.058619999999</v>
+        <v>6568.05862</v>
       </c>
       <c r="E134" s="22" t="n">
         <v>3587.99208</v>
       </c>
       <c r="F134" s="21" t="n">
-        <v>8414.52729</v>
+        <v>8414.527290000002</v>
       </c>
       <c r="G134" s="22" t="n">
         <v>37625.62037999999</v>
@@ -6590,7 +6677,7 @@
         <v>555.41589</v>
       </c>
       <c r="J134" s="21" t="n">
-        <v>15689.53994</v>
+        <v>15689.53995</v>
       </c>
       <c r="K134" s="22" t="n">
         <v>1043.85541</v>
@@ -6599,14 +6686,19 @@
         <v>1112.65338</v>
       </c>
       <c r="M134" s="22" t="n">
-        <v>562.29349</v>
-      </c>
-      <c r="N134" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="135" s="70" spans="1:14">
+        <v>562.53463</v>
+      </c>
+      <c r="N134" s="22" t="n">
+        <v>89280.675</v>
+      </c>
+      <c r="O134" s="10" t="n"/>
+    </row>
+    <row r="135" ht="12.6" customHeight="1" s="70">
       <c r="A135" s="5" t="n"/>
-      <c r="B135" s="64" t="s">
-        <v>119</v>
+      <c r="B135" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Financial Leasing Payables</t>
+        </is>
       </c>
       <c r="C135" s="22" t="n">
         <v>0</v>
@@ -6641,12 +6733,17 @@
       <c r="M135" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N135" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="136" s="70" spans="1:14">
+      <c r="N135" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O135" s="10" t="n"/>
+    </row>
+    <row r="136" ht="12.6" customHeight="1" s="70">
       <c r="A136" s="5" t="n"/>
-      <c r="B136" s="64" t="s">
-        <v>120</v>
+      <c r="B136" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
+        </is>
       </c>
       <c r="C136" s="22" t="n">
         <v>0</v>
@@ -6681,12 +6778,17 @@
       <c r="M136" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N136" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="137" s="70" spans="1:14">
+      <c r="N136" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O136" s="10" t="n"/>
+    </row>
+    <row r="137" ht="12.6" customHeight="1" s="70">
       <c r="A137" s="5" t="n"/>
-      <c r="B137" s="59" t="s">
-        <v>121</v>
+      <c r="B137" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Princip.Installm.&amp; Int.Paym.of Long-Term Loans</t>
+        </is>
       </c>
       <c r="C137" s="22" t="n">
         <v>0</v>
@@ -6721,12 +6823,17 @@
       <c r="M137" s="22" t="n">
         <v>7575.608429999999</v>
       </c>
-      <c r="N137" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="138" s="70" spans="1:14">
+      <c r="N137" s="22" t="n">
+        <v>5947.854</v>
+      </c>
+      <c r="O137" s="10" t="n"/>
+    </row>
+    <row r="138" ht="12.6" customHeight="1" s="70">
       <c r="A138" s="5" t="n"/>
-      <c r="B138" s="59" t="s">
-        <v>122</v>
+      <c r="B138" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Principal Installm.&amp; Int.Paym.of  Bonds</t>
+        </is>
       </c>
       <c r="C138" s="22" t="n">
         <v>0</v>
@@ -6761,12 +6868,17 @@
       <c r="M138" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N138" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="139" s="70" spans="1:14">
+      <c r="N138" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O138" s="10" t="n"/>
+    </row>
+    <row r="139" ht="12.6" customHeight="1" s="70">
       <c r="A139" s="5" t="n"/>
-      <c r="B139" s="59" t="s">
-        <v>123</v>
+      <c r="B139" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Commercial Papers Issued</t>
+        </is>
       </c>
       <c r="C139" s="22" t="n">
         <v>0</v>
@@ -6801,12 +6913,17 @@
       <c r="M139" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N139" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="140" s="70" spans="1:14">
+      <c r="N139" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O139" s="10" t="n"/>
+    </row>
+    <row r="140" ht="12.6" customHeight="1" s="70">
       <c r="A140" s="8" t="n"/>
-      <c r="B140" s="59" t="s">
-        <v>124</v>
+      <c r="B140" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Securities Issued</t>
+        </is>
       </c>
       <c r="C140" s="22" t="n">
         <v>0</v>
@@ -6841,12 +6958,17 @@
       <c r="M140" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N140" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="141" s="70" spans="1:14">
+      <c r="N140" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O140" s="10" t="n"/>
+    </row>
+    <row r="141" ht="12.6" customHeight="1" s="70">
       <c r="A141" s="5" t="n"/>
-      <c r="B141" s="59" t="s">
-        <v>125</v>
+      <c r="B141" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Adjust.for Secur.Issued under Par Value (-)</t>
+        </is>
       </c>
       <c r="C141" s="22" t="n">
         <v>0</v>
@@ -6881,12 +7003,17 @@
       <c r="M141" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N141" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="142" s="70" spans="1:14">
+      <c r="N141" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O141" s="11" t="n"/>
+    </row>
+    <row r="142" ht="12.6" customHeight="1" s="70">
       <c r="A142" s="8" t="n"/>
-      <c r="B142" s="59" t="s">
-        <v>126</v>
+      <c r="B142" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Other Financial Liabilities</t>
+        </is>
       </c>
       <c r="C142" s="22" t="n">
         <v>0</v>
@@ -6919,20 +7046,25 @@
         <v>274.11099</v>
       </c>
       <c r="M142" s="22" t="n">
-        <v>70.83055999999999</v>
-      </c>
-      <c r="N142" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="143" s="70" spans="1:14">
+        <v>70.83156</v>
+      </c>
+      <c r="N142" s="22" t="n">
+        <v>8217.877</v>
+      </c>
+      <c r="O142" s="10" t="n"/>
+    </row>
+    <row r="143" ht="12.6" customHeight="1" s="70">
       <c r="A143" s="8" t="n"/>
-      <c r="B143" s="60" t="s">
-        <v>127</v>
+      <c r="B143" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Trade Debts</t>
+        </is>
       </c>
       <c r="C143" s="46" t="n">
         <v>42399.47123</v>
       </c>
       <c r="D143" s="46" t="n">
-        <v>55814.26788</v>
+        <v>55814.26787999999</v>
       </c>
       <c r="E143" s="46" t="n">
         <v>303593.89233</v>
@@ -6944,29 +7076,34 @@
         <v>173080.66124</v>
       </c>
       <c r="H143" s="45" t="n">
-        <v>290388.82391</v>
+        <v>290403.43534</v>
       </c>
       <c r="I143" s="46" t="n">
-        <v>189724.21592</v>
+        <v>189726.96348</v>
       </c>
       <c r="J143" s="45" t="n">
-        <v>231750.45667</v>
+        <v>231757.37277</v>
       </c>
       <c r="K143" s="46" t="n">
         <v>220092.5546</v>
       </c>
       <c r="L143" s="46" t="n">
-        <v>324971.95716</v>
+        <v>408212.46759</v>
       </c>
       <c r="M143" s="46" t="n">
-        <v>464991.22047</v>
-      </c>
-      <c r="N143" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="144" s="70" spans="1:14">
+        <v>566846.26501</v>
+      </c>
+      <c r="N143" s="46" t="n">
+        <v>1234035</v>
+      </c>
+      <c r="O143" s="10" t="n"/>
+    </row>
+    <row r="144" ht="12.6" customHeight="1" s="70">
       <c r="A144" s="8" t="n"/>
-      <c r="B144" s="64" t="s">
-        <v>128</v>
+      <c r="B144" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Creditors</t>
+        </is>
       </c>
       <c r="C144" s="25" t="n">
         <v>41575.91437999999</v>
@@ -6975,7 +7112,7 @@
         <v>54684.72492</v>
       </c>
       <c r="E144" s="25" t="n">
-        <v>301605.402</v>
+        <v>301605.4019999999</v>
       </c>
       <c r="F144" s="24" t="n">
         <v>229443.63095</v>
@@ -6984,29 +7121,34 @@
         <v>158679.99336</v>
       </c>
       <c r="H144" s="24" t="n">
-        <v>230114.25955</v>
+        <v>230128.87098</v>
       </c>
       <c r="I144" s="25" t="n">
-        <v>182842.70928</v>
+        <v>182845.45684</v>
       </c>
       <c r="J144" s="24" t="n">
-        <v>223640.36668</v>
+        <v>223647.28278</v>
       </c>
       <c r="K144" s="25" t="n">
         <v>214833.9499</v>
       </c>
       <c r="L144" s="25" t="n">
-        <v>312731.16661</v>
+        <v>395947.7328300001</v>
       </c>
       <c r="M144" s="25" t="n">
-        <v>451069.05029</v>
-      </c>
-      <c r="N144" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="145" s="70" spans="1:14">
+        <v>552840.1506199999</v>
+      </c>
+      <c r="N144" s="25" t="n">
+        <v>1165894.634</v>
+      </c>
+      <c r="O144" s="10" t="n"/>
+    </row>
+    <row r="145" ht="12.6" customHeight="1" s="70">
       <c r="A145" s="5" t="n"/>
-      <c r="B145" s="64" t="s">
-        <v>129</v>
+      <c r="B145" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Payable</t>
+        </is>
       </c>
       <c r="C145" s="25" t="n">
         <v>28.78079</v>
@@ -7018,13 +7160,13 @@
         <v>342.90987</v>
       </c>
       <c r="F145" s="24" t="n">
-        <v>814.4168899999999</v>
+        <v>814.41689</v>
       </c>
       <c r="G145" s="25" t="n">
         <v>26808.34413</v>
       </c>
       <c r="H145" s="24" t="n">
-        <v>57808.98642999999</v>
+        <v>57808.98643</v>
       </c>
       <c r="I145" s="25" t="n">
         <v>2367.04612</v>
@@ -7039,14 +7181,19 @@
         <v>546.3892</v>
       </c>
       <c r="M145" s="25" t="n">
-        <v>2.87704</v>
-      </c>
-      <c r="N145" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="146" s="70" spans="1:14">
+        <v>62.87704</v>
+      </c>
+      <c r="N145" s="25" t="n">
+        <v>1529.594</v>
+      </c>
+      <c r="O145" s="10" t="n"/>
+    </row>
+    <row r="146" ht="12.6" customHeight="1" s="70">
       <c r="A146" s="5" t="n"/>
-      <c r="B146" s="64" t="s">
-        <v>130</v>
+      <c r="B146" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C146" s="25" t="n">
         <v>0</v>
@@ -7081,12 +7228,17 @@
       <c r="M146" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="N146" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="147" s="70" spans="1:14">
+      <c r="N146" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O146" s="10" t="n"/>
+    </row>
+    <row r="147" ht="12.6" customHeight="1" s="70">
       <c r="A147" s="5" t="n"/>
-      <c r="B147" s="64" t="s">
-        <v>131</v>
+      <c r="B147" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
+        </is>
       </c>
       <c r="C147" s="25" t="n">
         <v>303.56458</v>
@@ -7107,38 +7259,43 @@
         <v>1239.62005</v>
       </c>
       <c r="I147" s="25" t="n">
-        <v>810.68515</v>
+        <v>810.6851499999999</v>
       </c>
       <c r="J147" s="24" t="n">
-        <v>959.84068</v>
+        <v>959.8406799999999</v>
       </c>
       <c r="K147" s="25" t="n">
         <v>1096.51285</v>
       </c>
       <c r="L147" s="25" t="n">
-        <v>4532.87138</v>
+        <v>4556.81559</v>
       </c>
       <c r="M147" s="25" t="n">
-        <v>7384.391549999999</v>
-      </c>
-      <c r="N147" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="148" s="70" spans="1:14">
+        <v>7408.33576</v>
+      </c>
+      <c r="N147" s="25" t="n">
+        <v>8223.624</v>
+      </c>
+      <c r="O147" s="11" t="n"/>
+    </row>
+    <row r="148" ht="12.6" customHeight="1" s="70">
       <c r="A148" s="8" t="n"/>
-      <c r="B148" s="59" t="s">
-        <v>132</v>
+      <c r="B148" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Trade Debts</t>
+        </is>
       </c>
       <c r="C148" s="25" t="n">
         <v>491.21148</v>
       </c>
       <c r="D148" s="25" t="n">
-        <v>615.3351000000001</v>
+        <v>615.3351</v>
       </c>
       <c r="E148" s="25" t="n">
         <v>1074.12878</v>
       </c>
       <c r="F148" s="24" t="n">
-        <v>763.35612</v>
+        <v>763.3561200000001</v>
       </c>
       <c r="G148" s="25" t="n">
         <v>1554.65491</v>
@@ -7150,7 +7307,7 @@
         <v>3703.77537</v>
       </c>
       <c r="J148" s="24" t="n">
-        <v>5955.72227</v>
+        <v>5955.722270000001</v>
       </c>
       <c r="K148" s="25" t="n">
         <v>3085.18171</v>
@@ -7161,12 +7318,17 @@
       <c r="M148" s="25" t="n">
         <v>6534.901589999999</v>
       </c>
-      <c r="N148" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="149" s="70" spans="1:14">
+      <c r="N148" s="25" t="n">
+        <v>58387.148</v>
+      </c>
+      <c r="O148" s="10" t="n"/>
+    </row>
+    <row r="149" ht="12.6" customHeight="1" s="70">
       <c r="A149" s="8" t="n"/>
-      <c r="B149" s="57" t="s">
-        <v>133</v>
+      <c r="B149" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Other Short-Term Debts</t>
+        </is>
       </c>
       <c r="C149" s="23" t="n">
         <v>105836.65221</v>
@@ -7196,17 +7358,22 @@
         <v>116234.22812</v>
       </c>
       <c r="L149" s="23" t="n">
-        <v>127633.10731</v>
+        <v>132840.57274</v>
       </c>
       <c r="M149" s="23" t="n">
-        <v>228306.11123</v>
-      </c>
-      <c r="N149" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="150" s="70" spans="1:14">
+        <v>316190.69828</v>
+      </c>
+      <c r="N149" s="23" t="n">
+        <v>258071.621</v>
+      </c>
+      <c r="O149" s="10" t="n"/>
+    </row>
+    <row r="150" ht="12.6" customHeight="1" s="70">
       <c r="A150" s="5" t="n"/>
-      <c r="B150" s="59" t="s">
-        <v>134</v>
+      <c r="B150" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
+        </is>
       </c>
       <c r="C150" s="22" t="n">
         <v>21009.98688</v>
@@ -7236,17 +7403,22 @@
         <v>32032.383</v>
       </c>
       <c r="L150" s="22" t="n">
-        <v>33698.84209000001</v>
+        <v>36299.77185</v>
       </c>
       <c r="M150" s="22" t="n">
-        <v>32892.56869</v>
-      </c>
-      <c r="N150" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="151" s="70" spans="1:14">
+        <v>33070.37821</v>
+      </c>
+      <c r="N150" s="22" t="n">
+        <v>68546.826</v>
+      </c>
+      <c r="O150" s="10" t="n"/>
+    </row>
+    <row r="151" ht="12.6" customHeight="1" s="70">
       <c r="A151" s="5" t="n"/>
-      <c r="B151" s="59" t="s">
-        <v>135</v>
+      <c r="B151" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Amounts Owed to Participations</t>
+        </is>
       </c>
       <c r="C151" s="22" t="n">
         <v>0</v>
@@ -7281,12 +7453,17 @@
       <c r="M151" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N151" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="152" s="70" spans="1:14">
+      <c r="N151" s="22" t="n">
+        <v>225.575</v>
+      </c>
+      <c r="O151" s="10" t="n"/>
+    </row>
+    <row r="152" ht="12.6" customHeight="1" s="70">
       <c r="A152" s="5" t="n"/>
-      <c r="B152" s="59" t="s">
-        <v>136</v>
+      <c r="B152" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C152" s="22" t="n">
         <v>32.20977</v>
@@ -7321,12 +7498,17 @@
       <c r="M152" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N152" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="153" s="70" spans="1:14">
+      <c r="N152" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O152" s="10" t="n"/>
+    </row>
+    <row r="153" ht="12.6" customHeight="1" s="70">
       <c r="A153" s="5" t="n"/>
-      <c r="B153" s="59" t="s">
-        <v>137</v>
+      <c r="B153" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Amounts Owed to Employees</t>
+        </is>
       </c>
       <c r="C153" s="22" t="n">
         <v>1003.71491</v>
@@ -7356,17 +7538,22 @@
         <v>10632.41876</v>
       </c>
       <c r="L153" s="22" t="n">
-        <v>8378.03227</v>
+        <v>10983.49212</v>
       </c>
       <c r="M153" s="22" t="n">
-        <v>3060.60214</v>
-      </c>
-      <c r="N153" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="154" s="70" spans="1:14">
+        <v>3109.53795</v>
+      </c>
+      <c r="N153" s="22" t="n">
+        <v>17800.276</v>
+      </c>
+      <c r="O153" s="10" t="n"/>
+    </row>
+    <row r="154" ht="12.6" customHeight="1" s="70">
       <c r="A154" s="5" t="n"/>
-      <c r="B154" s="59" t="s">
-        <v>30</v>
+      <c r="B154" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C154" s="22" t="n">
         <v>83790.74065000001</v>
@@ -7381,7 +7568,7 @@
         <v>93179.92806999999</v>
       </c>
       <c r="G154" s="22" t="n">
-        <v>76522.71188999999</v>
+        <v>76522.71189000001</v>
       </c>
       <c r="H154" s="21" t="n">
         <v>81295.45479</v>
@@ -7393,20 +7580,25 @@
         <v>106912.09059</v>
       </c>
       <c r="K154" s="22" t="n">
-        <v>54084.02979999999</v>
+        <v>54084.0298</v>
       </c>
       <c r="L154" s="22" t="n">
-        <v>66235.24494</v>
+        <v>66236.32076</v>
       </c>
       <c r="M154" s="22" t="n">
-        <v>192352.9404</v>
-      </c>
-      <c r="N154" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="155" s="70" spans="1:14">
+        <v>280010.78212</v>
+      </c>
+      <c r="N154" s="22" t="n">
+        <v>171498.944</v>
+      </c>
+      <c r="O154" s="11" t="n"/>
+    </row>
+    <row r="155" ht="12.6" customHeight="1" s="70">
       <c r="A155" s="8" t="n"/>
-      <c r="B155" s="64" t="s">
-        <v>138</v>
+      <c r="B155" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C155" s="22" t="n">
         <v>0</v>
@@ -7441,12 +7633,17 @@
       <c r="M155" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N155" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="156" s="70" spans="1:14">
+      <c r="N155" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O155" s="10" t="n"/>
+    </row>
+    <row r="156" ht="12.6" customHeight="1" s="70">
       <c r="A156" s="5" t="n"/>
-      <c r="B156" s="60" t="s">
-        <v>139</v>
+      <c r="B156" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Advances Received</t>
+        </is>
       </c>
       <c r="C156" s="23" t="n">
         <v>697.64473</v>
@@ -7467,7 +7664,7 @@
         <v>68800.58501</v>
       </c>
       <c r="I156" s="23" t="n">
-        <v>79736.99920000001</v>
+        <v>79736.99919999999</v>
       </c>
       <c r="J156" s="33" t="n">
         <v>111031.23697</v>
@@ -7476,17 +7673,22 @@
         <v>139723.90721</v>
       </c>
       <c r="L156" s="23" t="n">
-        <v>308392.9114300001</v>
+        <v>308392.91143</v>
       </c>
       <c r="M156" s="23" t="n">
-        <v>389697.08022</v>
-      </c>
-      <c r="N156" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="157" s="70" spans="1:14">
+        <v>433221.01243</v>
+      </c>
+      <c r="N156" s="23" t="n">
+        <v>189231.241</v>
+      </c>
+      <c r="O156" s="10" t="n"/>
+    </row>
+    <row r="157" ht="12.6" customHeight="1" s="70">
       <c r="A157" s="5" t="n"/>
-      <c r="B157" s="59" t="s">
-        <v>140</v>
+      <c r="B157" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
+        </is>
       </c>
       <c r="C157" s="22" t="n">
         <v>354.00305</v>
@@ -7507,7 +7709,7 @@
         <v>68705.57360999999</v>
       </c>
       <c r="I157" s="22" t="n">
-        <v>79713.79670000001</v>
+        <v>79713.79669999999</v>
       </c>
       <c r="J157" s="21" t="n">
         <v>106663.27338</v>
@@ -7519,14 +7721,19 @@
         <v>269628.6669</v>
       </c>
       <c r="M157" s="22" t="n">
-        <v>378673.9542</v>
-      </c>
-      <c r="N157" s="6" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="158" s="70" spans="1:14">
+        <v>422197.88641</v>
+      </c>
+      <c r="N157" s="22" t="n">
+        <v>181343.55</v>
+      </c>
+      <c r="O157" s="6" t="n"/>
+    </row>
+    <row r="158" ht="12.6" customHeight="1" s="70">
       <c r="A158" s="15" t="n"/>
-      <c r="B158" s="64" t="s">
-        <v>141</v>
+      <c r="B158" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Advances Received</t>
+        </is>
       </c>
       <c r="C158" s="22" t="n">
         <v>343.64168</v>
@@ -7561,12 +7768,17 @@
       <c r="M158" s="22" t="n">
         <v>11023.12602</v>
       </c>
-      <c r="N158" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="159" s="70" spans="1:14">
+      <c r="N158" s="22" t="n">
+        <v>7887.691</v>
+      </c>
+      <c r="O158" s="11" t="n"/>
+    </row>
+    <row r="159" ht="12.6" customHeight="1" s="70">
       <c r="A159" s="8" t="n"/>
-      <c r="B159" s="60" t="s">
-        <v>142</v>
+      <c r="B159" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Remunerations Spread Over Years</t>
+        </is>
       </c>
       <c r="C159" s="23" t="n">
         <v>0</v>
@@ -7601,12 +7813,17 @@
       <c r="M159" s="23" t="n">
         <v>34652.22489</v>
       </c>
-      <c r="N159" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="160" s="70" spans="1:14">
+      <c r="N159" s="23" t="n">
+        <v>128461.617</v>
+      </c>
+      <c r="O159" s="10" t="n"/>
+    </row>
+    <row r="160" ht="12.6" customHeight="1" s="70">
       <c r="A160" s="8" t="n"/>
-      <c r="B160" s="64" t="s">
-        <v>143</v>
+      <c r="B160" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances to Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
+        </is>
       </c>
       <c r="C160" s="22" t="n">
         <v>0</v>
@@ -7641,12 +7858,17 @@
       <c r="M160" s="22" t="n">
         <v>34652.22489</v>
       </c>
-      <c r="N160" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="161" s="70" spans="1:14">
+      <c r="N160" s="22" t="n">
+        <v>128461.617</v>
+      </c>
+      <c r="O160" s="10" t="n"/>
+    </row>
+    <row r="161" ht="12.6" customHeight="1" s="70">
       <c r="A161" s="8" t="n"/>
-      <c r="B161" s="64" t="s">
-        <v>144</v>
+      <c r="B161" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
+        </is>
       </c>
       <c r="C161" s="22" t="n">
         <v>0</v>
@@ -7681,12 +7903,17 @@
       <c r="M161" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N161" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="162" s="70" spans="1:14">
+      <c r="N161" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O161" s="10" t="n"/>
+    </row>
+    <row r="162" ht="12.6" customHeight="1" s="70">
       <c r="A162" s="5" t="n"/>
-      <c r="B162" s="60" t="s">
-        <v>145</v>
+      <c r="B162" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Taxes and Other Liabilities Payable</t>
+        </is>
       </c>
       <c r="C162" s="23" t="n">
         <v>7887.183410000001</v>
@@ -7704,32 +7931,37 @@
         <v>30267.42187</v>
       </c>
       <c r="H162" s="33" t="n">
-        <v>55187.2381</v>
+        <v>55201.97886</v>
       </c>
       <c r="I162" s="23" t="n">
-        <v>61612.8414</v>
+        <v>61644.80309</v>
       </c>
       <c r="J162" s="33" t="n">
-        <v>45638.34046</v>
+        <v>45638.59546</v>
       </c>
       <c r="K162" s="23" t="n">
-        <v>41024.99695</v>
+        <v>41024.99694999999</v>
       </c>
       <c r="L162" s="23" t="n">
-        <v>64764.54712</v>
+        <v>67622.10849</v>
       </c>
       <c r="M162" s="23" t="n">
-        <v>102468.5748</v>
-      </c>
-      <c r="N162" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="163" s="70" spans="1:14">
+        <v>109315.15894</v>
+      </c>
+      <c r="N162" s="23" t="n">
+        <v>176761.196</v>
+      </c>
+      <c r="O162" s="10" t="n"/>
+    </row>
+    <row r="163" ht="12.6" customHeight="1" s="70">
       <c r="A163" s="5" t="n"/>
-      <c r="B163" s="59" t="s">
-        <v>146</v>
+      <c r="B163" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Taxes and Funds Payable </t>
+        </is>
       </c>
       <c r="C163" s="22" t="n">
-        <v>5887.136550000001</v>
+        <v>5887.13655</v>
       </c>
       <c r="D163" s="22" t="n">
         <v>5273.06357</v>
@@ -7744,32 +7976,37 @@
         <v>15483.29073</v>
       </c>
       <c r="H163" s="21" t="n">
-        <v>36956.87471</v>
+        <v>36971.61545</v>
       </c>
       <c r="I163" s="22" t="n">
-        <v>34855.58044</v>
+        <v>34882.16146</v>
       </c>
       <c r="J163" s="21" t="n">
-        <v>13589.62273</v>
+        <v>13589.87773</v>
       </c>
       <c r="K163" s="22" t="n">
         <v>16958.75498</v>
       </c>
       <c r="L163" s="22" t="n">
-        <v>50128.82852</v>
+        <v>52981.51905</v>
       </c>
       <c r="M163" s="22" t="n">
-        <v>83025.40521</v>
-      </c>
-      <c r="N163" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="164" s="70" spans="1:14">
+        <v>89484.89643999998</v>
+      </c>
+      <c r="N163" s="22" t="n">
+        <v>146272.644</v>
+      </c>
+      <c r="O163" s="10" t="n"/>
+    </row>
+    <row r="164" ht="12.6" customHeight="1" s="70">
       <c r="A164" s="8" t="n"/>
-      <c r="B164" s="64" t="s">
-        <v>147</v>
+      <c r="B164" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Social Security Costs Payable</t>
+        </is>
       </c>
       <c r="C164" s="22" t="n">
-        <v>812.9718799999999</v>
+        <v>812.9718800000001</v>
       </c>
       <c r="D164" s="22" t="n">
         <v>1312.67378</v>
@@ -7784,10 +8021,10 @@
         <v>2372.93162</v>
       </c>
       <c r="H164" s="21" t="n">
-        <v>2706.88959</v>
+        <v>2706.88961</v>
       </c>
       <c r="I164" s="22" t="n">
-        <v>2166.05786</v>
+        <v>2171.43853</v>
       </c>
       <c r="J164" s="21" t="n">
         <v>2646.04499</v>
@@ -7796,17 +8033,22 @@
         <v>5349.458809999999</v>
       </c>
       <c r="L164" s="22" t="n">
-        <v>12193.61391</v>
+        <v>12198.48475</v>
       </c>
       <c r="M164" s="22" t="n">
-        <v>17324.30733</v>
-      </c>
-      <c r="N164" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="165" s="70" spans="1:14">
+        <v>17707.3108</v>
+      </c>
+      <c r="N164" s="22" t="n">
+        <v>9962.549999999999</v>
+      </c>
+      <c r="O164" s="10" t="n"/>
+    </row>
+    <row r="165" ht="12.6" customHeight="1" s="70">
       <c r="A165" s="8" t="n"/>
-      <c r="B165" s="59" t="s">
-        <v>148</v>
+      <c r="B165" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Taxes &amp; Oth.Liab.that are Overd.or Deferred</t>
+        </is>
       </c>
       <c r="C165" s="22" t="n">
         <v>741.88951</v>
@@ -7839,14 +8081,19 @@
         <v>2434.02356</v>
       </c>
       <c r="M165" s="22" t="n">
-        <v>2060.77</v>
-      </c>
-      <c r="N165" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="166" s="70" spans="1:14">
+        <v>2064.85944</v>
+      </c>
+      <c r="N165" s="22" t="n">
+        <v>20307.116</v>
+      </c>
+      <c r="O165" s="10" t="n"/>
+    </row>
+    <row r="166" ht="12.6" customHeight="1" s="70">
       <c r="A166" s="8" t="n"/>
-      <c r="B166" s="59" t="s">
-        <v>149</v>
+      <c r="B166" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Liabilities Payable</t>
+        </is>
       </c>
       <c r="C166" s="22" t="n">
         <v>445.18547</v>
@@ -7881,27 +8128,32 @@
       <c r="M166" s="22" t="n">
         <v>58.09226</v>
       </c>
-      <c r="N166" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="167" s="70" spans="1:14">
+      <c r="N166" s="22" t="n">
+        <v>218.886</v>
+      </c>
+      <c r="O166" s="10" t="n"/>
+    </row>
+    <row r="167" ht="12.6" customHeight="1" s="70">
       <c r="A167" s="8" t="n"/>
-      <c r="B167" s="60" t="s">
-        <v>150</v>
+      <c r="B167" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C167" s="23" t="n">
-        <v>4806.204460000001</v>
+        <v>4806.20446</v>
       </c>
       <c r="D167" s="23" t="n">
         <v>1114.26628</v>
       </c>
       <c r="E167" s="23" t="n">
-        <v>6388.198530000001</v>
+        <v>6388.19853</v>
       </c>
       <c r="F167" s="33" t="n">
         <v>3582.75913</v>
       </c>
       <c r="G167" s="23" t="n">
-        <v>3173.887130000001</v>
+        <v>3173.88713</v>
       </c>
       <c r="H167" s="33" t="n">
         <v>1634.47405</v>
@@ -7916,23 +8168,28 @@
         <v>2156.58173</v>
       </c>
       <c r="L167" s="23" t="n">
-        <v>6162.658810000001</v>
+        <v>6162.65881</v>
       </c>
       <c r="M167" s="23" t="n">
-        <v>7816.23881</v>
-      </c>
-      <c r="N167" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="168" s="70" spans="1:14">
+        <v>8445.05242</v>
+      </c>
+      <c r="N167" s="23" t="n">
+        <v>18117.489</v>
+      </c>
+      <c r="O167" s="11" t="n"/>
+    </row>
+    <row r="168" ht="12.6" customHeight="1" s="70">
       <c r="A168" s="8" t="n"/>
-      <c r="B168" s="59" t="s">
-        <v>151</v>
+      <c r="B168" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Provisions for Inc.Tax &amp; Oth.Liab.to Gov.</t>
+        </is>
       </c>
       <c r="C168" s="22" t="n">
         <v>4145.63391</v>
       </c>
       <c r="D168" s="22" t="n">
-        <v>3420.962739999999</v>
+        <v>3420.96274</v>
       </c>
       <c r="E168" s="22" t="n">
         <v>19380.50361</v>
@@ -7956,17 +8213,22 @@
         <v>14298.98081</v>
       </c>
       <c r="L168" s="22" t="n">
-        <v>19787.7902</v>
+        <v>19834.31622</v>
       </c>
       <c r="M168" s="22" t="n">
-        <v>127960.6346</v>
-      </c>
-      <c r="N168" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="169" s="70" spans="1:14">
+        <v>128589.44821</v>
+      </c>
+      <c r="N168" s="22" t="n">
+        <v>64789.538</v>
+      </c>
+      <c r="O168" s="10" t="n"/>
+    </row>
+    <row r="169" ht="12.6" customHeight="1" s="70">
       <c r="A169" s="5" t="n"/>
-      <c r="B169" s="59" t="s">
-        <v>152</v>
+      <c r="B169" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Prepaid Inc.Tax &amp; Other Liab.to Gov.(-) </t>
+        </is>
       </c>
       <c r="C169" s="22" t="n">
         <v>500.54705</v>
@@ -7996,17 +8258,22 @@
         <v>13200.02548</v>
       </c>
       <c r="L169" s="22" t="n">
-        <v>16777.63754</v>
+        <v>16824.16356</v>
       </c>
       <c r="M169" s="22" t="n">
         <v>125605.69027</v>
       </c>
-      <c r="N169" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="170" s="70" spans="1:14">
+      <c r="N169" s="22" t="n">
+        <v>50190.234</v>
+      </c>
+      <c r="O169" s="10" t="n"/>
+    </row>
+    <row r="170" ht="12.6" customHeight="1" s="70">
       <c r="A170" s="5" t="n"/>
-      <c r="B170" s="59" t="s">
-        <v>153</v>
+      <c r="B170" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Provisions for Severance Payments </t>
+        </is>
       </c>
       <c r="C170" s="22" t="n">
         <v>0</v>
@@ -8041,12 +8308,17 @@
       <c r="M170" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N170" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="171" s="70" spans="1:14">
+      <c r="N170" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O170" s="10" t="n"/>
+    </row>
+    <row r="171" ht="12.6" customHeight="1" s="70">
       <c r="A171" s="5" t="n"/>
-      <c r="B171" s="59" t="s">
-        <v>154</v>
+      <c r="B171" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Provisions for Costs</t>
+        </is>
       </c>
       <c r="C171" s="22" t="n">
         <v>0</v>
@@ -8081,12 +8353,17 @@
       <c r="M171" s="22" t="n">
         <v>5461.29448</v>
       </c>
-      <c r="N171" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="172" s="70" spans="1:14">
+      <c r="N171" s="22" t="n">
+        <v>3518.185</v>
+      </c>
+      <c r="O171" s="10" t="n"/>
+    </row>
+    <row r="172" ht="12.6" customHeight="1" s="70">
       <c r="A172" s="5" t="n"/>
-      <c r="B172" s="59" t="s">
-        <v>155</v>
+      <c r="B172" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C172" s="22" t="n">
         <v>1161.1176</v>
@@ -8121,21 +8398,26 @@
       <c r="M172" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N172" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="173" s="70" spans="1:14">
+      <c r="N172" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O172" s="10" t="n"/>
+    </row>
+    <row r="173" ht="12.6" customHeight="1" s="70">
       <c r="A173" s="8" t="n"/>
-      <c r="B173" s="57" t="s">
-        <v>156</v>
+      <c r="B173" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   H- Defer.Inc.&amp; Accr.Exp.for the Next Months</t>
+        </is>
       </c>
       <c r="C173" s="23" t="n">
-        <v>56442.40863000001</v>
+        <v>56442.40863</v>
       </c>
       <c r="D173" s="23" t="n">
         <v>21644.626</v>
       </c>
       <c r="E173" s="23" t="n">
-        <v>41948.35332000001</v>
+        <v>41948.35331999999</v>
       </c>
       <c r="F173" s="33" t="n">
         <v>20816.26995</v>
@@ -8150,23 +8432,28 @@
         <v>66705.75124</v>
       </c>
       <c r="J173" s="33" t="n">
-        <v>73583.05969000001</v>
+        <v>73583.05968999999</v>
       </c>
       <c r="K173" s="23" t="n">
         <v>19322.41736</v>
       </c>
       <c r="L173" s="23" t="n">
-        <v>79048.15616000001</v>
+        <v>79048.15616</v>
       </c>
       <c r="M173" s="23" t="n">
-        <v>59435.44389</v>
-      </c>
-      <c r="N173" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="174" s="70" spans="1:14">
+        <v>65682.05713</v>
+      </c>
+      <c r="N173" s="23" t="n">
+        <v>40002.334</v>
+      </c>
+      <c r="O173" s="11" t="n"/>
+    </row>
+    <row r="174" ht="12.6" customHeight="1" s="70">
       <c r="A174" s="8" t="n"/>
-      <c r="B174" s="59" t="s">
-        <v>157</v>
+      <c r="B174" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Deferred Income for the Next Months</t>
+        </is>
       </c>
       <c r="C174" s="22" t="n">
         <v>0</v>
@@ -8201,21 +8488,26 @@
       <c r="M174" s="22" t="n">
         <v>3249.09809</v>
       </c>
-      <c r="N174" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="175" s="70" spans="1:14">
+      <c r="N174" s="22" t="n">
+        <v>245.839</v>
+      </c>
+      <c r="O174" s="10" t="n"/>
+    </row>
+    <row r="175" ht="12.6" customHeight="1" s="70">
       <c r="A175" s="5" t="n"/>
-      <c r="B175" s="64" t="s">
-        <v>158</v>
+      <c r="B175" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Expenses</t>
+        </is>
       </c>
       <c r="C175" s="22" t="n">
-        <v>56442.40863000001</v>
+        <v>56442.40863</v>
       </c>
       <c r="D175" s="22" t="n">
         <v>21437.50089</v>
       </c>
       <c r="E175" s="22" t="n">
-        <v>41679.69227000001</v>
+        <v>41679.69226999999</v>
       </c>
       <c r="F175" s="21" t="n">
         <v>19422.91357</v>
@@ -8230,23 +8522,28 @@
         <v>66592.84077000001</v>
       </c>
       <c r="J175" s="21" t="n">
-        <v>73583.05969000001</v>
+        <v>73583.05968999999</v>
       </c>
       <c r="K175" s="22" t="n">
         <v>19322.41736</v>
       </c>
       <c r="L175" s="22" t="n">
-        <v>78747.07366000001</v>
+        <v>78747.07365999999</v>
       </c>
       <c r="M175" s="22" t="n">
-        <v>56186.3458</v>
-      </c>
-      <c r="N175" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="176" s="70" spans="1:14">
+        <v>62432.95904000001</v>
+      </c>
+      <c r="N175" s="22" t="n">
+        <v>39756.495</v>
+      </c>
+      <c r="O175" s="10" t="n"/>
+    </row>
+    <row r="176" ht="12.6" customHeight="1" s="70">
       <c r="A176" s="5" t="n"/>
-      <c r="B176" s="57" t="s">
-        <v>159</v>
+      <c r="B176" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   I- Other Short-Term Liabilities</t>
+        </is>
       </c>
       <c r="C176" s="23" t="n">
         <v>143239.54466</v>
@@ -8267,7 +8564,7 @@
         <v>1163735.62784</v>
       </c>
       <c r="I176" s="23" t="n">
-        <v>1010433.32706</v>
+        <v>1014436.74184</v>
       </c>
       <c r="J176" s="33" t="n">
         <v>1569485.86215</v>
@@ -8276,17 +8573,22 @@
         <v>1161006.27322</v>
       </c>
       <c r="L176" s="23" t="n">
-        <v>1799842.64868</v>
+        <v>1837780.26273</v>
       </c>
       <c r="M176" s="23" t="n">
-        <v>2175625.00137</v>
-      </c>
-      <c r="N176" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="177" s="70" spans="1:14">
+        <v>2218284.63986</v>
+      </c>
+      <c r="N176" s="23" t="n">
+        <v>2986998.77</v>
+      </c>
+      <c r="O176" s="11" t="n"/>
+    </row>
+    <row r="177" ht="12.6" customHeight="1" s="70">
       <c r="A177" s="8" t="n"/>
-      <c r="B177" s="59" t="s">
-        <v>160</v>
+      <c r="B177" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Calculated</t>
+        </is>
       </c>
       <c r="C177" s="22" t="n">
         <v>0</v>
@@ -8319,14 +8621,19 @@
         <v>17.64623</v>
       </c>
       <c r="M177" s="22" t="n">
-        <v>26.04247</v>
-      </c>
-      <c r="N177" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="178" s="70" spans="1:14">
+        <v>26.04252</v>
+      </c>
+      <c r="N177" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O177" s="10" t="n"/>
+    </row>
+    <row r="178" ht="12.6" customHeight="1" s="70">
       <c r="A178" s="5" t="n"/>
-      <c r="B178" s="64" t="s">
-        <v>106</v>
+      <c r="B178" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other V.A.T.</t>
+        </is>
       </c>
       <c r="C178" s="22" t="n">
         <v>0</v>
@@ -8361,18 +8668,23 @@
       <c r="M178" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N178" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="179" s="70" spans="1:14">
+      <c r="N178" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O178" s="10" t="n"/>
+    </row>
+    <row r="179" ht="12.6" customHeight="1" s="70">
       <c r="A179" s="8" t="n"/>
-      <c r="B179" s="64" t="s">
-        <v>161</v>
+      <c r="B179" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Main and Branch Offices' Current Account</t>
+        </is>
       </c>
       <c r="C179" s="22" t="n">
         <v>143239.54466</v>
       </c>
       <c r="D179" s="22" t="n">
-        <v>465946.1657200001</v>
+        <v>465946.16572</v>
       </c>
       <c r="E179" s="22" t="n">
         <v>1036434.5898</v>
@@ -8387,7 +8699,7 @@
         <v>1163735.62784</v>
       </c>
       <c r="I179" s="22" t="n">
-        <v>1010433.32706</v>
+        <v>1014436.74184</v>
       </c>
       <c r="J179" s="21" t="n">
         <v>1569485.86215</v>
@@ -8396,17 +8708,22 @@
         <v>1161006.27322</v>
       </c>
       <c r="L179" s="22" t="n">
-        <v>1799825.00245</v>
+        <v>1837762.6165</v>
       </c>
       <c r="M179" s="22" t="n">
-        <v>2175598.9589</v>
-      </c>
-      <c r="N179" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="180" s="70" spans="1:14">
+        <v>2218258.59734</v>
+      </c>
+      <c r="N179" s="22" t="n">
+        <v>2986998.77</v>
+      </c>
+      <c r="O179" s="10" t="n"/>
+    </row>
+    <row r="180" ht="12.6" customHeight="1" s="70">
       <c r="A180" s="5" t="n"/>
-      <c r="B180" s="64" t="s">
-        <v>162</v>
+      <c r="B180" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Stock Taking and Receiving Surpluses</t>
+        </is>
       </c>
       <c r="C180" s="22" t="n">
         <v>0</v>
@@ -8441,12 +8758,17 @@
       <c r="M180" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N180" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="181" s="70" spans="1:14">
+      <c r="N180" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O180" s="10" t="n"/>
+    </row>
+    <row r="181" ht="12.6" customHeight="1" s="70">
       <c r="A181" s="5" t="n"/>
-      <c r="B181" s="65" t="s">
-        <v>30</v>
+      <c r="B181" s="65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C181" s="35" t="n">
         <v>0</v>
@@ -8481,15 +8803,20 @@
       <c r="M181" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="N181" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="182" s="70" spans="1:14">
+      <c r="N181" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O181" s="10" t="n"/>
+    </row>
+    <row r="182" ht="12.6" customHeight="1" s="70">
       <c r="A182" s="5" t="n"/>
-      <c r="B182" s="60" t="s">
-        <v>163</v>
+      <c r="B182" s="60" t="inlineStr">
+        <is>
+          <t>II- LONG-TERM LIABILITIES</t>
+        </is>
       </c>
       <c r="C182" s="23" t="n">
-        <v>576508.07378</v>
+        <v>576508.0737800001</v>
       </c>
       <c r="D182" s="23" t="n">
         <v>522567.4160200001</v>
@@ -8510,7 +8837,7 @@
         <v>6469596.082509999</v>
       </c>
       <c r="J182" s="33" t="n">
-        <v>9370035.716330001</v>
+        <v>9370035.716329999</v>
       </c>
       <c r="K182" s="23" t="n">
         <v>11611331.44783</v>
@@ -8519,14 +8846,19 @@
         <v>15607004.24013</v>
       </c>
       <c r="M182" s="23" t="n">
-        <v>16210628.35909</v>
-      </c>
-      <c r="N182" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="183" s="70" spans="1:14">
+        <v>16355452.35511</v>
+      </c>
+      <c r="N182" s="23" t="n">
+        <v>23344138.002</v>
+      </c>
+      <c r="O182" s="11" t="n"/>
+    </row>
+    <row r="183" ht="12.6" customHeight="1" s="70">
       <c r="A183" s="8" t="n"/>
-      <c r="B183" s="60" t="s">
-        <v>117</v>
+      <c r="B183" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Financial Liabilities</t>
+        </is>
       </c>
       <c r="C183" s="23" t="n">
         <v>30200.72185</v>
@@ -8553,20 +8885,25 @@
         <v>30634.01362</v>
       </c>
       <c r="K183" s="23" t="n">
-        <v>48380.68544000001</v>
+        <v>48380.68544</v>
       </c>
       <c r="L183" s="23" t="n">
         <v>8245.264380000001</v>
       </c>
       <c r="M183" s="23" t="n">
-        <v>30317.85896</v>
-      </c>
-      <c r="N183" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="184" s="70" spans="1:14">
+        <v>156058.761</v>
+      </c>
+      <c r="N183" s="23" t="n">
+        <v>121139.653</v>
+      </c>
+      <c r="O183" s="11" t="n"/>
+    </row>
+    <row r="184" ht="12.6" customHeight="1" s="70">
       <c r="A184" s="8" t="n"/>
-      <c r="B184" s="66" t="s">
-        <v>118</v>
+      <c r="B184" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Bank Loans</t>
+        </is>
       </c>
       <c r="C184" s="22" t="n">
         <v>29736.86918</v>
@@ -8593,20 +8930,25 @@
         <v>25009.70936</v>
       </c>
       <c r="K184" s="22" t="n">
-        <v>42706.86165000001</v>
+        <v>42706.86165</v>
       </c>
       <c r="L184" s="22" t="n">
-        <v>8213.920950000002</v>
+        <v>8213.92095</v>
       </c>
       <c r="M184" s="22" t="n">
-        <v>30301.22073</v>
-      </c>
-      <c r="N184" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="185" s="70" spans="1:14">
+        <v>150846.01318</v>
+      </c>
+      <c r="N184" s="22" t="n">
+        <v>113249.328</v>
+      </c>
+      <c r="O184" s="10" t="n"/>
+    </row>
+    <row r="185" ht="12.6" customHeight="1" s="70">
       <c r="A185" s="8" t="n"/>
-      <c r="B185" s="66" t="s">
-        <v>119</v>
+      <c r="B185" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Financial Leasing Payables</t>
+        </is>
       </c>
       <c r="C185" s="22" t="n">
         <v>536.44339</v>
@@ -8639,14 +8981,19 @@
         <v>20.52064</v>
       </c>
       <c r="M185" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N185" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="186" s="70" spans="1:14">
+        <v>5989.123280000001</v>
+      </c>
+      <c r="N185" s="22" t="n">
+        <v>8432.706</v>
+      </c>
+      <c r="O185" s="10" t="n"/>
+    </row>
+    <row r="186" ht="12" customHeight="1" s="70">
       <c r="A186" s="5" t="n"/>
-      <c r="B186" s="66" t="s">
-        <v>120</v>
+      <c r="B186" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
+        </is>
       </c>
       <c r="C186" s="22" t="n">
         <v>72.59072</v>
@@ -8679,14 +9026,19 @@
         <v>5.81544</v>
       </c>
       <c r="M186" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N186" s="10" t="n"/>
-    </row>
-    <row r="187" spans="1:14">
+        <v>793.01369</v>
+      </c>
+      <c r="N186" s="22" t="n">
+        <v>745.908</v>
+      </c>
+      <c r="O186" s="10" t="n"/>
+    </row>
+    <row r="187">
       <c r="A187" s="5" t="n"/>
-      <c r="B187" s="67" t="s">
-        <v>164</v>
+      <c r="B187" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Bonds Issued</t>
+        </is>
       </c>
       <c r="C187" s="22" t="n">
         <v>0</v>
@@ -8721,12 +9073,17 @@
       <c r="M187" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N187" s="10" t="n"/>
-    </row>
-    <row r="188" spans="1:14">
+      <c r="N187" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O187" s="10" t="n"/>
+    </row>
+    <row r="188">
       <c r="A188" s="8" t="n"/>
-      <c r="B188" s="67" t="s">
-        <v>165</v>
+      <c r="B188" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Securities Issued</t>
+        </is>
       </c>
       <c r="C188" s="22" t="n">
         <v>0</v>
@@ -8761,12 +9118,17 @@
       <c r="M188" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N188" s="10" t="n"/>
-    </row>
-    <row r="189" spans="1:14">
+      <c r="N188" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O188" s="10" t="n"/>
+    </row>
+    <row r="189">
       <c r="A189" s="5" t="n"/>
-      <c r="B189" s="66" t="s">
-        <v>166</v>
+      <c r="B189" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Adjust.for the Secur.Issued Under Par Value (-)</t>
+        </is>
       </c>
       <c r="C189" s="22" t="n">
         <v>0</v>
@@ -8801,12 +9163,17 @@
       <c r="M189" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N189" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="190" s="70" spans="1:14">
+      <c r="N189" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O189" s="10" t="n"/>
+    </row>
+    <row r="190" ht="12.6" customHeight="1" s="70">
       <c r="A190" s="5" t="n"/>
-      <c r="B190" s="67" t="s">
-        <v>167</v>
+      <c r="B190" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Financial Liabilities </t>
+        </is>
       </c>
       <c r="C190" s="22" t="n">
         <v>0</v>
@@ -8841,12 +9208,17 @@
       <c r="M190" s="22" t="n">
         <v>16.63823</v>
       </c>
-      <c r="N190" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="191" s="70" spans="1:14">
+      <c r="N190" s="22" t="n">
+        <v>203.527</v>
+      </c>
+      <c r="O190" s="1" t="n"/>
+    </row>
+    <row r="191" ht="12.6" customHeight="1" s="70">
       <c r="A191" s="5" t="n"/>
-      <c r="B191" s="68" t="s">
-        <v>127</v>
+      <c r="B191" s="68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Trade Debts</t>
+        </is>
       </c>
       <c r="C191" s="23" t="n">
         <v>731.23601</v>
@@ -8881,12 +9253,17 @@
       <c r="M191" s="23" t="n">
         <v>40931.61432</v>
       </c>
-      <c r="N191" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="192" s="70" spans="1:14">
+      <c r="N191" s="23" t="n">
+        <v>105086.445</v>
+      </c>
+      <c r="O191" s="11" t="n"/>
+    </row>
+    <row r="192" ht="12.6" customHeight="1" s="70">
       <c r="A192" s="8" t="n"/>
-      <c r="B192" s="66" t="s">
-        <v>128</v>
+      <c r="B192" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Creditors</t>
+        </is>
       </c>
       <c r="C192" s="22" t="n">
         <v>731.23601</v>
@@ -8921,12 +9298,17 @@
       <c r="M192" s="22" t="n">
         <v>40281.61432</v>
       </c>
-      <c r="N192" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="193" s="70" spans="1:14">
+      <c r="N192" s="22" t="n">
+        <v>104516.932</v>
+      </c>
+      <c r="O192" s="10" t="n"/>
+    </row>
+    <row r="193" ht="12.6" customHeight="1" s="70">
       <c r="A193" s="5" t="n"/>
-      <c r="B193" s="66" t="s">
-        <v>129</v>
+      <c r="B193" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Payable</t>
+        </is>
       </c>
       <c r="C193" s="22" t="n">
         <v>0</v>
@@ -8961,12 +9343,17 @@
       <c r="M193" s="22" t="n">
         <v>650</v>
       </c>
-      <c r="N193" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="194" s="70" spans="1:14">
+      <c r="N193" s="22" t="n">
+        <v>487.985</v>
+      </c>
+      <c r="O193" s="10" t="n"/>
+    </row>
+    <row r="194" ht="12.6" customHeight="1" s="70">
       <c r="A194" s="5" t="n"/>
-      <c r="B194" s="66" t="s">
-        <v>130</v>
+      <c r="B194" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C194" s="22" t="n">
         <v>0</v>
@@ -9001,12 +9388,17 @@
       <c r="M194" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N194" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="195" s="70" spans="1:14">
+      <c r="N194" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O194" s="10" t="n"/>
+    </row>
+    <row r="195" ht="12.6" customHeight="1" s="70">
       <c r="A195" s="5" t="n"/>
-      <c r="B195" s="66" t="s">
-        <v>131</v>
+      <c r="B195" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
+        </is>
       </c>
       <c r="C195" s="22" t="n">
         <v>0</v>
@@ -9041,12 +9433,17 @@
       <c r="M195" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N195" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="196" s="70" spans="1:14">
+      <c r="N195" s="22" t="n">
+        <v>31.528</v>
+      </c>
+      <c r="O195" s="10" t="n"/>
+    </row>
+    <row r="196" ht="12.6" customHeight="1" s="70">
       <c r="A196" s="5" t="n"/>
-      <c r="B196" s="59" t="s">
-        <v>132</v>
+      <c r="B196" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Trade Debts</t>
+        </is>
       </c>
       <c r="C196" s="22" t="n">
         <v>0</v>
@@ -9081,21 +9478,26 @@
       <c r="M196" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N196" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="197" s="70" spans="1:14">
+      <c r="N196" s="22" t="n">
+        <v>50</v>
+      </c>
+      <c r="O196" s="10" t="n"/>
+    </row>
+    <row r="197" ht="12.6" customHeight="1" s="70">
       <c r="A197" s="5" t="n"/>
-      <c r="B197" s="57" t="s">
-        <v>168</v>
+      <c r="B197" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Other Long-Term Debts</t>
+        </is>
       </c>
       <c r="C197" s="23" t="n">
-        <v>537585.6812999999</v>
+        <v>537585.6813000001</v>
       </c>
       <c r="D197" s="23" t="n">
         <v>496465.40498</v>
       </c>
       <c r="E197" s="23" t="n">
-        <v>361668.65453</v>
+        <v>361668.6545300001</v>
       </c>
       <c r="F197" s="33" t="n">
         <v>153996.20551</v>
@@ -9107,7 +9509,7 @@
         <v>3482408.9785</v>
       </c>
       <c r="I197" s="23" t="n">
-        <v>6035368.745499999</v>
+        <v>6035368.7455</v>
       </c>
       <c r="J197" s="33" t="n">
         <v>9124216.744829999</v>
@@ -9119,14 +9521,19 @@
         <v>15557547.66813</v>
       </c>
       <c r="M197" s="23" t="n">
-        <v>16100544.4452</v>
-      </c>
-      <c r="N197" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="198" s="70" spans="1:14">
+        <v>16119627.53918</v>
+      </c>
+      <c r="N197" s="23" t="n">
+        <v>22818771.75</v>
+      </c>
+      <c r="O197" s="11" t="n"/>
+    </row>
+    <row r="198" ht="12.6" customHeight="1" s="70">
       <c r="A198" s="8" t="n"/>
-      <c r="B198" s="59" t="s">
-        <v>134</v>
+      <c r="B198" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
+        </is>
       </c>
       <c r="C198" s="22" t="n">
         <v>464138.52488</v>
@@ -9141,13 +9548,13 @@
         <v>150541.01853</v>
       </c>
       <c r="G198" s="22" t="n">
-        <v>595649.3147099999</v>
+        <v>595649.3147100001</v>
       </c>
       <c r="H198" s="21" t="n">
         <v>3474589.75872</v>
       </c>
       <c r="I198" s="22" t="n">
-        <v>6028856.040349999</v>
+        <v>6028856.04035</v>
       </c>
       <c r="J198" s="21" t="n">
         <v>9105456.695290001</v>
@@ -9159,14 +9566,19 @@
         <v>15519209.76551</v>
       </c>
       <c r="M198" s="22" t="n">
-        <v>16062404.66321</v>
-      </c>
-      <c r="N198" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="199" s="70" spans="1:14">
+        <v>16081487.75719</v>
+      </c>
+      <c r="N198" s="22" t="n">
+        <v>22769722.832</v>
+      </c>
+      <c r="O198" s="10" t="n"/>
+    </row>
+    <row r="199" ht="12.6" customHeight="1" s="70">
       <c r="A199" s="5" t="n"/>
-      <c r="B199" s="59" t="s">
-        <v>135</v>
+      <c r="B199" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Amounts Owed to Participations</t>
+        </is>
       </c>
       <c r="C199" s="22" t="n">
         <v>0</v>
@@ -9201,12 +9613,17 @@
       <c r="M199" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N199" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="200" s="70" spans="1:14">
+      <c r="N199" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O199" s="10" t="n"/>
+    </row>
+    <row r="200" ht="12.6" customHeight="1" s="70">
       <c r="A200" s="8" t="n"/>
-      <c r="B200" s="59" t="s">
-        <v>136</v>
+      <c r="B200" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C200" s="22" t="n">
         <v>0</v>
@@ -9241,18 +9658,23 @@
       <c r="M200" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N200" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="201" s="70" spans="1:14">
+      <c r="N200" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O200" s="10" t="n"/>
+    </row>
+    <row r="201" ht="12.6" customHeight="1" s="70">
       <c r="A201" s="8" t="n"/>
-      <c r="B201" s="59" t="s">
-        <v>169</v>
+      <c r="B201" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other </t>
+        </is>
       </c>
       <c r="C201" s="22" t="n">
         <v>73447.15642</v>
       </c>
       <c r="D201" s="22" t="n">
-        <v>80175.75536999998</v>
+        <v>80175.75537</v>
       </c>
       <c r="E201" s="22" t="n">
         <v>76858.39436000001</v>
@@ -9279,14 +9701,19 @@
         <v>35623.02362</v>
       </c>
       <c r="M201" s="22" t="n">
-        <v>36651.96776000001</v>
-      </c>
-      <c r="N201" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="202" s="70" spans="1:14">
+        <v>36651.96776</v>
+      </c>
+      <c r="N201" s="22" t="n">
+        <v>39011.13</v>
+      </c>
+      <c r="O201" s="10" t="n"/>
+    </row>
+    <row r="202" ht="12.6" customHeight="1" s="70">
       <c r="A202" s="5" t="n"/>
-      <c r="B202" s="64" t="s">
-        <v>170</v>
+      <c r="B202" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Disc. on Oth.Short-term Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C202" s="22" t="n">
         <v>0</v>
@@ -9321,12 +9748,17 @@
       <c r="M202" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N202" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="203" s="70" spans="1:14">
+      <c r="N202" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O202" s="10" t="n"/>
+    </row>
+    <row r="203" ht="12.6" customHeight="1" s="70">
       <c r="A203" s="5" t="n"/>
-      <c r="B203" s="59" t="s">
-        <v>171</v>
+      <c r="B203" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Deferred &amp; Scheduled Paym.to Gov.</t>
+        </is>
       </c>
       <c r="C203" s="22" t="n">
         <v>0</v>
@@ -9361,12 +9793,17 @@
       <c r="M203" s="22" t="n">
         <v>1487.81423</v>
       </c>
-      <c r="N203" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="204" s="70" spans="1:14">
+      <c r="N203" s="22" t="n">
+        <v>10037.788</v>
+      </c>
+      <c r="O203" s="10" t="n"/>
+    </row>
+    <row r="204" ht="12.6" customHeight="1" s="70">
       <c r="A204" s="8" t="n"/>
-      <c r="B204" s="60" t="s">
-        <v>172</v>
+      <c r="B204" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D-Advances Received</t>
+        </is>
       </c>
       <c r="C204" s="23" t="n">
         <v>6410.011640000001</v>
@@ -9401,12 +9838,17 @@
       <c r="M204" s="23" t="n">
         <v>11603.75419</v>
       </c>
-      <c r="N204" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="205" s="70" spans="1:14">
+      <c r="N204" s="23" t="n">
+        <v>239756.453</v>
+      </c>
+      <c r="O204" s="11" t="n"/>
+    </row>
+    <row r="205" ht="12.6" customHeight="1" s="70">
       <c r="A205" s="8" t="n"/>
-      <c r="B205" s="59" t="s">
-        <v>140</v>
+      <c r="B205" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
+        </is>
       </c>
       <c r="C205" s="22" t="n">
         <v>2288.5124</v>
@@ -9441,12 +9883,17 @@
       <c r="M205" s="22" t="n">
         <v>11603.75419</v>
       </c>
-      <c r="N205" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="206" s="70" spans="1:14">
+      <c r="N205" s="22" t="n">
+        <v>161149.14</v>
+      </c>
+      <c r="O205" s="10" t="n"/>
+    </row>
+    <row r="206" ht="12.6" customHeight="1" s="70">
       <c r="A206" s="5" t="n"/>
-      <c r="B206" s="64" t="s">
-        <v>141</v>
+      <c r="B206" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Advances Received</t>
+        </is>
       </c>
       <c r="C206" s="22" t="n">
         <v>4121.49924</v>
@@ -9481,12 +9928,17 @@
       <c r="M206" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N206" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="207" s="70" spans="1:14">
+      <c r="N206" s="22" t="n">
+        <v>78607.31299999999</v>
+      </c>
+      <c r="O206" s="10" t="n"/>
+    </row>
+    <row r="207" ht="12.6" customHeight="1" s="70">
       <c r="A207" s="5" t="n"/>
-      <c r="B207" s="60" t="s">
-        <v>173</v>
+      <c r="B207" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C207" s="23" t="n">
         <v>1576.59798</v>
@@ -9521,12 +9973,17 @@
       <c r="M207" s="23" t="n">
         <v>27229.59566</v>
       </c>
-      <c r="N207" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="208" s="70" spans="1:14">
+      <c r="N207" s="23" t="n">
+        <v>56473.534</v>
+      </c>
+      <c r="O207" s="11" t="n"/>
+    </row>
+    <row r="208" ht="12.6" customHeight="1" s="70">
       <c r="A208" s="8" t="n"/>
-      <c r="B208" s="59" t="s">
-        <v>174</v>
+      <c r="B208" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Provisions for Severance Payments</t>
+        </is>
       </c>
       <c r="C208" s="22" t="n">
         <v>1569.33589</v>
@@ -9561,12 +10018,17 @@
       <c r="M208" s="22" t="n">
         <v>27227.59566</v>
       </c>
-      <c r="N208" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="209" s="70" spans="1:14">
+      <c r="N208" s="22" t="n">
+        <v>56470.272</v>
+      </c>
+      <c r="O208" s="10" t="n"/>
+    </row>
+    <row r="209" ht="12.6" customHeight="1" s="70">
       <c r="A209" s="5" t="n"/>
-      <c r="B209" s="59" t="s">
-        <v>175</v>
+      <c r="B209" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Provisions </t>
+        </is>
       </c>
       <c r="C209" s="22" t="n">
         <v>7.26209</v>
@@ -9601,12 +10063,17 @@
       <c r="M209" s="22" t="n">
         <v>2</v>
       </c>
-      <c r="N209" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="210" s="70" spans="1:14">
+      <c r="N209" s="22" t="n">
+        <v>3.262</v>
+      </c>
+      <c r="O209" s="10" t="n"/>
+    </row>
+    <row r="210" ht="12.6" customHeight="1" s="70">
       <c r="A210" s="8" t="n"/>
-      <c r="B210" s="57" t="s">
-        <v>176</v>
+      <c r="B210" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Defer.Inc.&amp; Accr.Exp.for the Next Yrs.</t>
+        </is>
       </c>
       <c r="C210" s="23" t="n">
         <v>3.825</v>
@@ -9641,12 +10108,17 @@
       <c r="M210" s="23" t="n">
         <v>1.09076</v>
       </c>
-      <c r="N210" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="211" s="70" spans="1:14">
+      <c r="N210" s="23" t="n">
+        <v>2910.119</v>
+      </c>
+      <c r="O210" s="11" t="n"/>
+    </row>
+    <row r="211" ht="12.6" customHeight="1" s="70">
       <c r="A211" s="8" t="n"/>
-      <c r="B211" s="64" t="s">
-        <v>177</v>
+      <c r="B211" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Deferred Income</t>
+        </is>
       </c>
       <c r="C211" s="22" t="n">
         <v>3.825</v>
@@ -9681,12 +10153,17 @@
       <c r="M211" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N211" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="212" s="70" spans="1:14">
+      <c r="N211" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O211" s="10" t="n"/>
+    </row>
+    <row r="212" ht="12.6" customHeight="1" s="70">
       <c r="A212" s="8" t="n"/>
-      <c r="B212" s="64" t="s">
-        <v>158</v>
+      <c r="B212" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Expenses</t>
+        </is>
       </c>
       <c r="C212" s="22" t="n">
         <v>0</v>
@@ -9721,12 +10198,17 @@
       <c r="M212" s="22" t="n">
         <v>1.09076</v>
       </c>
-      <c r="N212" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="213" s="70" spans="1:14">
+      <c r="N212" s="22" t="n">
+        <v>2910.119</v>
+      </c>
+      <c r="O212" s="1" t="n"/>
+    </row>
+    <row r="213" ht="12.6" customHeight="1" s="70">
       <c r="A213" s="15" t="n"/>
-      <c r="B213" s="57" t="s">
-        <v>178</v>
+      <c r="B213" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Other Long-Term Liabilities</t>
+        </is>
       </c>
       <c r="C213" s="23" t="n">
         <v>0</v>
@@ -9761,12 +10243,17 @@
       <c r="M213" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="N213" s="6" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="214" s="70" spans="1:14">
+      <c r="N213" s="23" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="O213" s="6" t="n"/>
+    </row>
+    <row r="214" ht="12.6" customHeight="1" s="70">
       <c r="A214" s="15" t="n"/>
-      <c r="B214" s="64" t="s">
-        <v>179</v>
+      <c r="B214" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Deferred to the Next Years</t>
+        </is>
       </c>
       <c r="C214" s="22" t="n">
         <v>0</v>
@@ -9801,12 +10288,17 @@
       <c r="M214" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N214" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="215" s="70" spans="1:14">
+      <c r="N214" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O214" s="1" t="n"/>
+    </row>
+    <row r="215" ht="12.6" customHeight="1" s="70">
       <c r="A215" s="16" t="n"/>
-      <c r="B215" s="64" t="s">
-        <v>180</v>
+      <c r="B215" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Shares in the Plant and Equipment</t>
+        </is>
       </c>
       <c r="C215" s="22" t="n">
         <v>0</v>
@@ -9841,12 +10333,17 @@
       <c r="M215" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N215" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="216" s="70" spans="1:14">
+      <c r="N215" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O215" s="1" t="n"/>
+    </row>
+    <row r="216" ht="12.6" customHeight="1" s="70">
       <c r="A216" s="16" t="n"/>
-      <c r="B216" s="65" t="s">
-        <v>181</v>
+      <c r="B216" s="65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other </t>
+        </is>
       </c>
       <c r="C216" s="35" t="n">
         <v>0</v>
@@ -9881,12 +10378,17 @@
       <c r="M216" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="N216" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="217" s="70" spans="1:14">
+      <c r="N216" s="35" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="O216" s="10" t="n"/>
+    </row>
+    <row r="217" ht="12.6" customHeight="1" s="70">
       <c r="A217" s="5" t="n"/>
-      <c r="B217" s="60" t="s">
-        <v>182</v>
+      <c r="B217" s="60" t="inlineStr">
+        <is>
+          <t>III- SHAREHOLDERS EQUITY</t>
+        </is>
       </c>
       <c r="C217" s="23" t="n">
         <v>294083.246</v>
@@ -9901,38 +10403,43 @@
         <v>1310522.10407</v>
       </c>
       <c r="G217" s="23" t="n">
-        <v>-625403.4345</v>
+        <v>-625403.4345000001</v>
       </c>
       <c r="H217" s="33" t="n">
-        <v>591175.8489099999</v>
+        <v>591090.4339500001</v>
       </c>
       <c r="I217" s="23" t="n">
-        <v>324601.7958300001</v>
+        <v>342685.8059500001</v>
       </c>
       <c r="J217" s="33" t="n">
-        <v>-2686448.02476</v>
+        <v>-2686391.26365</v>
       </c>
       <c r="K217" s="23" t="n">
-        <v>-4820317.66332</v>
+        <v>-4820317.663319999</v>
       </c>
       <c r="L217" s="23" t="n">
-        <v>-9253404.130270001</v>
+        <v>-9285036.107170001</v>
       </c>
       <c r="M217" s="23" t="n">
-        <v>-10134346.35764</v>
-      </c>
-      <c r="N217" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="218" s="70" spans="1:14">
+        <v>-9922254.651770001</v>
+      </c>
+      <c r="N217" s="23" t="n">
+        <v>-12535491.528</v>
+      </c>
+      <c r="O217" s="11" t="n"/>
+    </row>
+    <row r="218" ht="12.6" customHeight="1" s="70">
       <c r="A218" s="8" t="n"/>
-      <c r="B218" s="60" t="s">
-        <v>183</v>
+      <c r="B218" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Paid-in Capital</t>
+        </is>
       </c>
       <c r="C218" s="23" t="n">
         <v>261183.90693</v>
       </c>
       <c r="D218" s="23" t="n">
-        <v>420864.47897</v>
+        <v>420864.4789700001</v>
       </c>
       <c r="E218" s="23" t="n">
         <v>657957.26165</v>
@@ -9947,10 +10454,10 @@
         <v>1297888.88725</v>
       </c>
       <c r="I218" s="23" t="n">
-        <v>1950858.93631</v>
+        <v>2274207.9599</v>
       </c>
       <c r="J218" s="33" t="n">
-        <v>2289733.26041</v>
+        <v>2289808.26041</v>
       </c>
       <c r="K218" s="23" t="n">
         <v>2282618.14723</v>
@@ -9959,17 +10466,22 @@
         <v>2238682.15806</v>
       </c>
       <c r="M218" s="23" t="n">
-        <v>2328617.13753</v>
-      </c>
-      <c r="N218" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="219" s="70" spans="1:14">
+        <v>2331830.78096</v>
+      </c>
+      <c r="N218" s="23" t="n">
+        <v>3292035.305</v>
+      </c>
+      <c r="O218" s="11" t="n"/>
+    </row>
+    <row r="219" ht="12.6" customHeight="1" s="70">
       <c r="A219" s="8" t="n"/>
-      <c r="B219" s="64" t="s">
-        <v>184</v>
+      <c r="B219" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Subscribed Capital </t>
+        </is>
       </c>
       <c r="C219" s="22" t="n">
-        <v>272067.22083</v>
+        <v>272067.2208300001</v>
       </c>
       <c r="D219" s="22" t="n">
         <v>433606.81264</v>
@@ -9978,7 +10490,7 @@
         <v>675489.4802699999</v>
       </c>
       <c r="F219" s="21" t="n">
-        <v>678186.17518</v>
+        <v>678186.1751799999</v>
       </c>
       <c r="G219" s="22" t="n">
         <v>813550.57263</v>
@@ -9987,26 +10499,31 @@
         <v>2394506.40441</v>
       </c>
       <c r="I219" s="22" t="n">
-        <v>3044050.7453</v>
+        <v>3367399.76889</v>
       </c>
       <c r="J219" s="21" t="n">
-        <v>3384921.3688</v>
+        <v>3385071.3688</v>
       </c>
       <c r="K219" s="22" t="n">
         <v>3377384.91379</v>
       </c>
       <c r="L219" s="22" t="n">
-        <v>3332891.0306</v>
+        <v>3333712.0306</v>
       </c>
       <c r="M219" s="22" t="n">
-        <v>3423325.7668</v>
-      </c>
-      <c r="N219" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="220" s="70" spans="1:14">
+        <v>3427671.76708</v>
+      </c>
+      <c r="N219" s="22" t="n">
+        <v>4405563.009</v>
+      </c>
+      <c r="O219" s="10" t="n"/>
+    </row>
+    <row r="220" ht="12.6" customHeight="1" s="70">
       <c r="A220" s="5" t="n"/>
-      <c r="B220" s="59" t="s">
-        <v>185</v>
+      <c r="B220" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Subscribed Capital Uncalled (-)</t>
+        </is>
       </c>
       <c r="C220" s="22" t="n">
         <v>15339.13836</v>
@@ -10030,29 +10547,34 @@
         <v>1096976.35371</v>
       </c>
       <c r="J220" s="21" t="n">
-        <v>1098934.53138</v>
+        <v>1099009.53138</v>
       </c>
       <c r="K220" s="22" t="n">
         <v>1098513.18955</v>
       </c>
       <c r="L220" s="22" t="n">
-        <v>1097954.58955</v>
+        <v>1098775.58955</v>
       </c>
       <c r="M220" s="22" t="n">
-        <v>1098391.06588</v>
-      </c>
-      <c r="N220" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="221" s="70" spans="1:14">
+        <v>1099712.06588</v>
+      </c>
+      <c r="N220" s="22" t="n">
+        <v>1117385.378</v>
+      </c>
+      <c r="O220" s="10" t="n"/>
+    </row>
+    <row r="221" ht="12.6" customHeight="1" s="70">
       <c r="A221" s="5" t="n"/>
-      <c r="B221" s="59" t="s">
-        <v>186</v>
+      <c r="B221" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Revaluation Adjustment to Capital (+)</t>
+        </is>
       </c>
       <c r="C221" s="22" t="n">
         <v>4455.82446</v>
       </c>
       <c r="D221" s="22" t="n">
-        <v>4444.39311</v>
+        <v>4444.393109999999</v>
       </c>
       <c r="E221" s="22" t="n">
         <v>4149.37447</v>
@@ -10064,7 +10586,7 @@
         <v>4097.12158</v>
       </c>
       <c r="H221" s="21" t="n">
-        <v>3988.873480000001</v>
+        <v>3988.87348</v>
       </c>
       <c r="I221" s="22" t="n">
         <v>3784.54472</v>
@@ -10079,14 +10601,19 @@
         <v>3745.71701</v>
       </c>
       <c r="M221" s="22" t="n">
-        <v>3682.43661</v>
-      </c>
-      <c r="N221" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="222" s="70" spans="1:14">
+        <v>3871.07976</v>
+      </c>
+      <c r="N221" s="22" t="n">
+        <v>3857.674</v>
+      </c>
+      <c r="O221" s="11" t="n"/>
+    </row>
+    <row r="222" ht="12.6" customHeight="1" s="70">
       <c r="A222" s="8" t="n"/>
-      <c r="B222" s="59" t="s">
-        <v>187</v>
+      <c r="B222" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Revaluation Adjustment to Capital (-)</t>
+        </is>
       </c>
       <c r="C222" s="22" t="n">
         <v>0</v>
@@ -10121,12 +10648,17 @@
       <c r="M222" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N222" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="223" s="70" spans="1:14">
+      <c r="N222" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O222" s="10" t="n"/>
+    </row>
+    <row r="223" ht="12.6" customHeight="1" s="70">
       <c r="A223" s="5" t="n"/>
-      <c r="B223" s="60" t="s">
-        <v>188</v>
+      <c r="B223" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Capital Reserves</t>
+        </is>
       </c>
       <c r="C223" s="23" t="n">
         <v>5717.501</v>
@@ -10150,10 +10682,10 @@
         <v>3806.8122</v>
       </c>
       <c r="J223" s="33" t="n">
-        <v>4397.404449999999</v>
+        <v>4397.40445</v>
       </c>
       <c r="K223" s="23" t="n">
-        <v>4271.812199999999</v>
+        <v>4271.8122</v>
       </c>
       <c r="L223" s="23" t="n">
         <v>695230.16536</v>
@@ -10161,12 +10693,17 @@
       <c r="M223" s="23" t="n">
         <v>797876.5303000001</v>
       </c>
-      <c r="N223" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="224" s="70" spans="1:14">
+      <c r="N223" s="23" t="n">
+        <v>900750.748</v>
+      </c>
+      <c r="O223" s="10" t="n"/>
+    </row>
+    <row r="224" ht="12.6" customHeight="1" s="70">
       <c r="A224" s="5" t="n"/>
-      <c r="B224" s="59" t="s">
-        <v>189</v>
+      <c r="B224" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Share Premium Account</t>
+        </is>
       </c>
       <c r="C224" s="22" t="n">
         <v>0</v>
@@ -10201,12 +10738,17 @@
       <c r="M224" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N224" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="225" s="70" spans="1:14">
+      <c r="N224" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O224" s="10" t="n"/>
+    </row>
+    <row r="225" ht="12.6" customHeight="1" s="70">
       <c r="A225" s="5" t="n"/>
-      <c r="B225" s="64" t="s">
-        <v>190</v>
+      <c r="B225" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Gains From Reedemption of Shares</t>
+        </is>
       </c>
       <c r="C225" s="22" t="n">
         <v>0</v>
@@ -10241,12 +10783,17 @@
       <c r="M225" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N225" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="226" s="70" spans="1:14">
+      <c r="N225" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O225" s="10" t="n"/>
+    </row>
+    <row r="226" ht="12.6" customHeight="1" s="70">
       <c r="A226" s="5" t="n"/>
-      <c r="B226" s="64" t="s">
-        <v>191</v>
+      <c r="B226" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Revaluation of Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C226" s="22" t="n">
         <v>0</v>
@@ -10281,12 +10828,17 @@
       <c r="M226" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N226" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="227" s="70" spans="1:14">
+      <c r="N226" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O226" s="10" t="n"/>
+    </row>
+    <row r="227" ht="12.6" customHeight="1" s="70">
       <c r="A227" s="5" t="n"/>
-      <c r="B227" s="59" t="s">
-        <v>192</v>
+      <c r="B227" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Revaluation of Participations</t>
+        </is>
       </c>
       <c r="C227" s="22" t="n">
         <v>0</v>
@@ -10321,12 +10873,17 @@
       <c r="M227" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N227" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="228" s="70" spans="1:14">
+      <c r="N227" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O227" s="10" t="n"/>
+    </row>
+    <row r="228" ht="12.6" customHeight="1" s="70">
       <c r="A228" s="5" t="n"/>
-      <c r="B228" s="59" t="s">
-        <v>193</v>
+      <c r="B228" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provisions for Commodities Recorded   </t>
+        </is>
       </c>
       <c r="C228" s="22" t="n">
         <v>0</v>
@@ -10361,12 +10918,17 @@
       <c r="M228" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N228" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="229" s="70" spans="1:14">
+      <c r="N228" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O228" s="10" t="n"/>
+    </row>
+    <row r="229" ht="12.6" customHeight="1" s="70">
       <c r="A229" s="5" t="n"/>
-      <c r="B229" s="59" t="s">
-        <v>194</v>
+      <c r="B229" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Machinery and Equipment  </t>
+        </is>
       </c>
       <c r="C229" s="22" t="n">
         <v>0</v>
@@ -10401,12 +10963,17 @@
       <c r="M229" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N229" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="230" s="70" spans="1:14">
+      <c r="N229" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O229" s="10" t="n"/>
+    </row>
+    <row r="230" ht="12.6" customHeight="1" s="70">
       <c r="A230" s="5" t="n"/>
-      <c r="B230" s="59" t="s">
-        <v>195</v>
+      <c r="B230" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Capital Reserves</t>
+        </is>
       </c>
       <c r="C230" s="22" t="n">
         <v>5717.501</v>
@@ -10430,10 +10997,10 @@
         <v>3806.8122</v>
       </c>
       <c r="J230" s="21" t="n">
-        <v>4397.404449999999</v>
+        <v>4397.40445</v>
       </c>
       <c r="K230" s="22" t="n">
-        <v>4271.812199999999</v>
+        <v>4271.8122</v>
       </c>
       <c r="L230" s="22" t="n">
         <v>695230.16536</v>
@@ -10441,12 +11008,17 @@
       <c r="M230" s="22" t="n">
         <v>797876.5303000001</v>
       </c>
-      <c r="N230" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="231" s="70" spans="1:14">
+      <c r="N230" s="22" t="n">
+        <v>900750.748</v>
+      </c>
+      <c r="O230" s="11" t="n"/>
+    </row>
+    <row r="231" ht="12.6" customHeight="1" s="70">
       <c r="A231" s="8" t="n"/>
-      <c r="B231" s="60" t="s">
-        <v>196</v>
+      <c r="B231" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Reserves from Retained Earnings</t>
+        </is>
       </c>
       <c r="C231" s="23" t="n">
         <v>15751.66999</v>
@@ -10479,14 +11051,19 @@
         <v>264808.54751</v>
       </c>
       <c r="M231" s="23" t="n">
-        <v>263008.15913</v>
-      </c>
-      <c r="N231" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="232" s="70" spans="1:14">
+        <v>263052.61768</v>
+      </c>
+      <c r="N231" s="23" t="n">
+        <v>293566.361</v>
+      </c>
+      <c r="O231" s="10" t="n"/>
+    </row>
+    <row r="232" ht="12.6" customHeight="1" s="70">
       <c r="A232" s="5" t="n"/>
-      <c r="B232" s="64" t="s">
-        <v>197</v>
+      <c r="B232" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Legal Reserves</t>
+        </is>
       </c>
       <c r="C232" s="22" t="n">
         <v>714.18555</v>
@@ -10516,17 +11093,22 @@
         <v>2680.36736</v>
       </c>
       <c r="L232" s="22" t="n">
-        <v>2735.236850000001</v>
+        <v>2735.23685</v>
       </c>
       <c r="M232" s="22" t="n">
-        <v>3523.35001</v>
-      </c>
-      <c r="N232" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="233" s="70" spans="1:14">
+        <v>3528.35001</v>
+      </c>
+      <c r="N232" s="22" t="n">
+        <v>7901.923</v>
+      </c>
+      <c r="O232" s="10" t="n"/>
+    </row>
+    <row r="233" ht="12.6" customHeight="1" s="70">
       <c r="A233" s="5" t="n"/>
-      <c r="B233" s="64" t="s">
-        <v>198</v>
+      <c r="B233" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Reser.Provided for by the Artic.of the Assoc.</t>
+        </is>
       </c>
       <c r="C233" s="22" t="n">
         <v>0.08466</v>
@@ -10553,23 +11135,28 @@
         <v>4570.19592</v>
       </c>
       <c r="K233" s="22" t="n">
-        <v>4570.19592</v>
+        <v>4570.195919999999</v>
       </c>
       <c r="L233" s="22" t="n">
-        <v>4568.19592</v>
+        <v>4568.195919999999</v>
       </c>
       <c r="M233" s="22" t="n">
         <v>4568.19592</v>
       </c>
-      <c r="N233" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="234" s="70" spans="1:14">
+      <c r="N233" s="22" t="n">
+        <v>1.297</v>
+      </c>
+      <c r="O233" s="10" t="n"/>
+    </row>
+    <row r="234" ht="12.6" customHeight="1" s="70">
       <c r="A234" s="5" t="n"/>
-      <c r="B234" s="64" t="s">
-        <v>199</v>
+      <c r="B234" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Extraordinary Reserves</t>
+        </is>
       </c>
       <c r="C234" s="22" t="n">
-        <v>2972.73696</v>
+        <v>2972.736960000001</v>
       </c>
       <c r="D234" s="22" t="n">
         <v>12677.28915</v>
@@ -10601,12 +11188,17 @@
       <c r="M234" s="22" t="n">
         <v>276.36539</v>
       </c>
-      <c r="N234" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="235" s="70" spans="1:14">
+      <c r="N234" s="22" t="n">
+        <v>276.365</v>
+      </c>
+      <c r="O234" s="10" t="n"/>
+    </row>
+    <row r="235" ht="12.6" customHeight="1" s="70">
       <c r="A235" s="5" t="n"/>
-      <c r="B235" s="64" t="s">
-        <v>200</v>
+      <c r="B235" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Reserves</t>
+        </is>
       </c>
       <c r="C235" s="22" t="n">
         <v>0</v>
@@ -10641,12 +11233,17 @@
       <c r="M235" s="22" t="n">
         <v>2091.945</v>
       </c>
-      <c r="N235" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="236" s="70" spans="1:14">
+      <c r="N235" s="22" t="n">
+        <v>5050.362</v>
+      </c>
+      <c r="O235" s="10" t="n"/>
+    </row>
+    <row r="236" ht="12.6" customHeight="1" s="70">
       <c r="A236" s="5" t="n"/>
-      <c r="B236" s="64" t="s">
-        <v>201</v>
+      <c r="B236" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Special Funds</t>
+        </is>
       </c>
       <c r="C236" s="22" t="n">
         <v>12064.66282</v>
@@ -10679,14 +11276,19 @@
         <v>254513.58068</v>
       </c>
       <c r="M236" s="22" t="n">
-        <v>252548.30281</v>
-      </c>
-      <c r="N236" s="10" t="n"/>
-    </row>
-    <row r="237" spans="1:14">
+        <v>252587.76136</v>
+      </c>
+      <c r="N236" s="22" t="n">
+        <v>280336.414</v>
+      </c>
+      <c r="O236" s="10" t="n"/>
+    </row>
+    <row r="237">
       <c r="A237" s="5" t="n"/>
-      <c r="B237" s="60" t="s">
-        <v>202</v>
+      <c r="B237" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Profit Brought Forward</t>
+        </is>
       </c>
       <c r="C237" s="23" t="n">
         <v>29981.01926</v>
@@ -10698,16 +11300,16 @@
         <v>49280.3371</v>
       </c>
       <c r="F237" s="33" t="n">
-        <v>331774.5874499999</v>
+        <v>331774.58745</v>
       </c>
       <c r="G237" s="23" t="n">
         <v>385428.80179</v>
       </c>
       <c r="H237" s="33" t="n">
-        <v>690619.69323</v>
+        <v>690619.6932299999</v>
       </c>
       <c r="I237" s="23" t="n">
-        <v>927051.7589</v>
+        <v>940326.9998399999</v>
       </c>
       <c r="J237" s="33" t="n">
         <v>1050865.52406</v>
@@ -10716,20 +11318,25 @@
         <v>1070695.40107</v>
       </c>
       <c r="L237" s="23" t="n">
-        <v>1150018.89933</v>
+        <v>1152166.4658</v>
       </c>
       <c r="M237" s="23" t="n">
-        <v>1267751.25666</v>
-      </c>
-      <c r="N237" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="238" s="70" spans="1:14">
+        <v>1546128.16757</v>
+      </c>
+      <c r="N237" s="23" t="n">
+        <v>2210052.044</v>
+      </c>
+      <c r="O237" s="11" t="n"/>
+    </row>
+    <row r="238">
       <c r="A238" s="8" t="n"/>
-      <c r="B238" s="57" t="s">
-        <v>203</v>
+      <c r="B238" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Loss Brought Forward (-) </t>
+        </is>
       </c>
       <c r="C238" s="23" t="n">
-        <v>-54215.07357</v>
+        <v>-54215.07356999999</v>
       </c>
       <c r="D238" s="23" t="n">
         <v>-84494.39244</v>
@@ -10744,32 +11351,37 @@
         <v>-213080.6544</v>
       </c>
       <c r="H238" s="33" t="n">
-        <v>-1820904.26839</v>
+        <v>-1822199.32255</v>
       </c>
       <c r="I238" s="23" t="n">
-        <v>-1782907.6286</v>
+        <v>-2101165.51032</v>
       </c>
       <c r="J238" s="33" t="n">
-        <v>-3240515.0236</v>
+        <v>-3240537.335930001</v>
       </c>
       <c r="K238" s="23" t="n">
         <v>-6504926.14812</v>
       </c>
       <c r="L238" s="23" t="n">
-        <v>-8364208.28902</v>
+        <v>-8389002.632750001</v>
       </c>
       <c r="M238" s="23" t="n">
-        <v>-13714264.3859</v>
-      </c>
-      <c r="N238" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="239" s="70" spans="1:14">
+        <v>-13792367.14709</v>
+      </c>
+      <c r="N238" s="23" t="n">
+        <v>-15854476.512</v>
+      </c>
+      <c r="O238" s="11" t="n"/>
+    </row>
+    <row r="239">
       <c r="A239" s="8" t="n"/>
-      <c r="B239" s="60" t="s">
-        <v>204</v>
+      <c r="B239" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Net Profit or Loss for the Financial Year</t>
+        </is>
       </c>
       <c r="C239" s="23" t="n">
-        <v>35664.22239</v>
+        <v>35664.22239000001</v>
       </c>
       <c r="D239" s="23" t="n">
         <v>-83275.7469</v>
@@ -10784,29 +11396,34 @@
         <v>-1971914.73476</v>
       </c>
       <c r="H239" s="33" t="n">
-        <v>127549.66005</v>
+        <v>128759.29925</v>
       </c>
       <c r="I239" s="23" t="n">
-        <v>-1004856.54085</v>
+        <v>-1005138.91354</v>
       </c>
       <c r="J239" s="33" t="n">
-        <v>-3021926.98399</v>
+        <v>-3021922.91055</v>
       </c>
       <c r="K239" s="23" t="n">
         <v>-1904336.77015</v>
       </c>
       <c r="L239" s="23" t="n">
-        <v>-5237935.611509999</v>
+        <v>-5246920.811149999</v>
       </c>
       <c r="M239" s="23" t="n">
-        <v>-1077335.05536</v>
-      </c>
-      <c r="N239" s="11" t="n"/>
-    </row>
-    <row r="240" spans="1:14">
+        <v>-1068775.60119</v>
+      </c>
+      <c r="N239" s="23" t="n">
+        <v>-3377419.474</v>
+      </c>
+      <c r="O239" s="11" t="n"/>
+    </row>
+    <row r="240">
       <c r="A240" s="8" t="n"/>
-      <c r="B240" s="64" t="s">
-        <v>205</v>
+      <c r="B240" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Profit for the Financial Year</t>
+        </is>
       </c>
       <c r="C240" s="22" t="n">
         <v>79435.16098999999</v>
@@ -10830,29 +11447,34 @@
         <v>108876.55032</v>
       </c>
       <c r="J240" s="21" t="n">
-        <v>246019.73975</v>
+        <v>246024.57039</v>
       </c>
       <c r="K240" s="22" t="n">
-        <v>72049.3247</v>
+        <v>72049.32469999998</v>
       </c>
       <c r="L240" s="22" t="n">
-        <v>133405.69604</v>
+        <v>140498.06345</v>
       </c>
       <c r="M240" s="22" t="n">
-        <v>540586.03103</v>
-      </c>
-      <c r="N240" s="10" t="n"/>
-    </row>
-    <row r="241" spans="1:14">
+        <v>554355.72687</v>
+      </c>
+      <c r="N240" s="22" t="n">
+        <v>652255.236</v>
+      </c>
+      <c r="O240" s="10" t="n"/>
+    </row>
+    <row r="241">
       <c r="A241" s="5" t="n"/>
-      <c r="B241" s="64" t="s">
-        <v>206</v>
+      <c r="B241" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Loss for the Financial Year (-)</t>
+        </is>
       </c>
       <c r="C241" s="22" t="n">
-        <v>43770.93859999999</v>
+        <v>43770.9386</v>
       </c>
       <c r="D241" s="22" t="n">
-        <v>99939.56845000001</v>
+        <v>99939.56844999999</v>
       </c>
       <c r="E241" s="22" t="n">
         <v>72364.79577</v>
@@ -10861,32 +11483,37 @@
         <v>51422.36953</v>
       </c>
       <c r="G241" s="22" t="n">
-        <v>2318107.25348</v>
+        <v>2318107.253479999</v>
       </c>
       <c r="H241" s="21" t="n">
-        <v>267381.32982</v>
+        <v>266171.69062</v>
       </c>
       <c r="I241" s="22" t="n">
-        <v>1113733.09117</v>
+        <v>1114015.46386</v>
       </c>
       <c r="J241" s="21" t="n">
-        <v>3267946.72374</v>
+        <v>3267947.48094</v>
       </c>
       <c r="K241" s="22" t="n">
         <v>1976386.09485</v>
       </c>
       <c r="L241" s="22" t="n">
-        <v>5371341.30755</v>
+        <v>5387418.874600001</v>
       </c>
       <c r="M241" s="22" t="n">
-        <v>1617921.08639</v>
-      </c>
-      <c r="N241" s="10" t="n"/>
-    </row>
-    <row r="242" spans="1:14">
+        <v>1623131.32806</v>
+      </c>
+      <c r="N241" s="22" t="n">
+        <v>4029674.71</v>
+      </c>
+      <c r="O241" s="10" t="n"/>
+    </row>
+    <row r="242">
       <c r="A242" s="5" t="n"/>
-      <c r="B242" s="57" t="s">
-        <v>207</v>
+      <c r="B242" s="57" t="inlineStr">
+        <is>
+          <t>TOTAL LIABILITIES</t>
+        </is>
       </c>
       <c r="C242" s="47" t="n">
         <v>1322524.29662</v>
@@ -10898,32 +11525,35 @@
         <v>2909012.31134</v>
       </c>
       <c r="F242" s="48" t="n">
-        <v>3212068.453300001</v>
+        <v>3212068.4533</v>
       </c>
       <c r="G242" s="47" t="n">
-        <v>2802453.088659999</v>
+        <v>2802453.08866</v>
       </c>
       <c r="H242" s="48" t="n">
-        <v>6320246.749710001</v>
+        <v>6320190.686939999</v>
       </c>
       <c r="I242" s="47" t="n">
-        <v>8384783.333340002</v>
+        <v>8406905.467490001</v>
       </c>
       <c r="J242" s="48" t="n">
-        <v>8909584.310350001</v>
+        <v>8909648.24257</v>
       </c>
       <c r="K242" s="47" t="n">
-        <v>8493140.180449998</v>
+        <v>8493140.180450002</v>
       </c>
       <c r="L242" s="47" t="n">
-        <v>9104364.273499999</v>
+        <v>9201975.44788</v>
       </c>
       <c r="M242" s="47" t="n">
-        <v>9547482.62961</v>
-      </c>
-      <c r="N242" s="11" t="n"/>
-    </row>
-    <row r="243" spans="1:14">
+        <v>10194043.78692</v>
+      </c>
+      <c r="N242" s="47" t="n">
+        <v>15943772.148</v>
+      </c>
+      <c r="O242" s="11" t="n"/>
+    </row>
+    <row r="243">
       <c r="A243" s="8" t="n"/>
       <c r="B243" s="51" t="n"/>
       <c r="C243" s="50" t="n"/>
@@ -10937,12 +11567,15 @@
       <c r="K243" s="50" t="n"/>
       <c r="L243" s="50" t="n"/>
       <c r="M243" s="50" t="n"/>
-      <c r="N243" s="10" t="n"/>
-    </row>
-    <row r="244" spans="1:14">
+      <c r="N243" s="50" t="n"/>
+      <c r="O243" s="10" t="n"/>
+    </row>
+    <row r="244">
       <c r="A244" s="5" t="n"/>
-      <c r="B244" s="69" t="s">
-        <v>208</v>
+      <c r="B244" s="69" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C244" s="52" t="n">
         <v>69</v>
@@ -10963,23 +11596,26 @@
         <v>98</v>
       </c>
       <c r="I244" s="52" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J244" s="53" t="n">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="K244" s="52" t="n">
         <v>112</v>
       </c>
       <c r="L244" s="52" t="n">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="M244" s="52" t="n">
-        <v>110</v>
-      </c>
-      <c r="N244" s="12" t="n"/>
-    </row>
-    <row r="245" spans="1:14">
+        <v>124</v>
+      </c>
+      <c r="N244" s="52" t="n">
+        <v>127</v>
+      </c>
+      <c r="O244" s="12" t="n"/>
+    </row>
+    <row r="245">
       <c r="A245" s="12" t="n"/>
       <c r="B245" s="54" t="n"/>
       <c r="C245" s="54" t="n"/>
@@ -10993,288 +11629,289 @@
       <c r="K245" s="54" t="n"/>
       <c r="L245" s="54" t="n"/>
       <c r="M245" s="54" t="n"/>
-      <c r="N245" s="10" t="n"/>
-    </row>
-    <row hidden="1" r="246" s="70" spans="1:14"/>
-    <row hidden="1" r="247" s="70" spans="1:14"/>
-    <row hidden="1" r="248" s="70" spans="1:14"/>
-    <row hidden="1" r="249" s="70" spans="1:14"/>
-    <row hidden="1" r="250" s="70" spans="1:14"/>
-    <row hidden="1" r="251" s="70" spans="1:14"/>
-    <row hidden="1" r="252" s="70" spans="1:14"/>
-    <row hidden="1" r="253" s="70" spans="1:14"/>
-    <row hidden="1" r="254" s="70" spans="1:14"/>
-    <row hidden="1" r="255" s="70" spans="1:14"/>
-    <row hidden="1" r="256" s="70" spans="1:14"/>
-    <row hidden="1" r="257" s="70" spans="1:14"/>
-    <row hidden="1" r="258" s="70" spans="1:14"/>
-    <row hidden="1" r="259" s="70" spans="1:14"/>
-    <row hidden="1" r="260" s="70" spans="1:14"/>
-    <row hidden="1" r="261" s="70" spans="1:14"/>
-    <row hidden="1" r="262" s="70" spans="1:14"/>
-    <row hidden="1" r="263" s="70" spans="1:14"/>
-    <row hidden="1" r="264" s="70" spans="1:14"/>
-    <row hidden="1" r="265" s="70" spans="1:14"/>
-    <row hidden="1" r="266" s="70" spans="1:14"/>
-    <row hidden="1" r="267" s="70" spans="1:14"/>
-    <row hidden="1" r="268" s="70" spans="1:14"/>
-    <row hidden="1" r="269" s="70" spans="1:14"/>
-    <row hidden="1" r="270" s="70" spans="1:14"/>
-    <row hidden="1" r="271" s="70" spans="1:14"/>
-    <row hidden="1" r="272" s="70" spans="1:14"/>
-    <row hidden="1" r="273" s="70" spans="1:14"/>
-    <row hidden="1" r="274" s="70" spans="1:14"/>
-    <row hidden="1" r="275" s="70" spans="1:14"/>
-    <row hidden="1" r="276" s="70" spans="1:14"/>
-    <row hidden="1" r="277" s="70" spans="1:14"/>
-    <row hidden="1" r="278" s="70" spans="1:14"/>
-    <row hidden="1" r="279" s="70" spans="1:14"/>
-    <row hidden="1" r="280" s="70" spans="1:14"/>
-    <row hidden="1" r="281" s="70" spans="1:14"/>
-    <row hidden="1" r="282" s="70" spans="1:14"/>
-    <row hidden="1" r="283" s="70" spans="1:14"/>
-    <row hidden="1" r="284" s="70" spans="1:14"/>
-    <row hidden="1" r="285" s="70" spans="1:14"/>
-    <row hidden="1" r="286" s="70" spans="1:14"/>
-    <row hidden="1" r="287" s="70" spans="1:14"/>
-    <row hidden="1" r="288" s="70" spans="1:14"/>
-    <row hidden="1" r="289" s="70" spans="1:14"/>
-    <row hidden="1" r="290" s="70" spans="1:14"/>
-    <row hidden="1" r="291" s="70" spans="1:14"/>
-    <row hidden="1" r="292" s="70" spans="1:14"/>
-    <row hidden="1" r="293" s="70" spans="1:14"/>
-    <row hidden="1" r="294" s="70" spans="1:14"/>
-    <row hidden="1" r="295" s="70" spans="1:14"/>
-    <row hidden="1" r="296" s="70" spans="1:14"/>
-    <row hidden="1" r="297" s="70" spans="1:14"/>
-    <row hidden="1" r="298" s="70" spans="1:14"/>
-    <row hidden="1" r="299" s="70" spans="1:14"/>
-    <row hidden="1" r="300" s="70" spans="1:14"/>
-    <row hidden="1" r="301" s="70" spans="1:14"/>
-    <row hidden="1" r="302" s="70" spans="1:14"/>
-    <row hidden="1" r="303" s="70" spans="1:14"/>
-    <row hidden="1" r="304" s="70" spans="1:14"/>
-    <row hidden="1" r="305" s="70" spans="1:14"/>
-    <row hidden="1" r="306" s="70" spans="1:14"/>
-    <row hidden="1" r="307" s="70" spans="1:14"/>
-    <row hidden="1" r="308" s="70" spans="1:14"/>
-    <row hidden="1" r="309" s="70" spans="1:14"/>
-    <row hidden="1" r="310" s="70" spans="1:14"/>
-    <row hidden="1" r="311" s="70" spans="1:14"/>
-    <row hidden="1" r="312" s="70" spans="1:14"/>
-    <row hidden="1" r="313" s="70" spans="1:14"/>
-    <row hidden="1" r="314" s="70" spans="1:14"/>
-    <row hidden="1" r="315" s="70" spans="1:14"/>
-    <row hidden="1" r="316" s="70" spans="1:14"/>
-    <row hidden="1" r="317" s="70" spans="1:14"/>
-    <row hidden="1" r="318" s="70" spans="1:14"/>
-    <row hidden="1" r="319" s="70" spans="1:14"/>
-    <row hidden="1" r="320" s="70" spans="1:14"/>
-    <row hidden="1" r="321" s="70" spans="1:14"/>
-    <row hidden="1" r="322" s="70" spans="1:14"/>
-    <row hidden="1" r="323" s="70" spans="1:14"/>
-    <row hidden="1" r="324" s="70" spans="1:14"/>
-    <row hidden="1" r="325" s="70" spans="1:14"/>
-    <row hidden="1" r="326" s="70" spans="1:14"/>
-    <row hidden="1" r="327" s="70" spans="1:14"/>
-    <row hidden="1" r="328" s="70" spans="1:14"/>
-    <row hidden="1" r="329" s="70" spans="1:14"/>
-    <row hidden="1" r="330" s="70" spans="1:14"/>
-    <row hidden="1" r="331" s="70" spans="1:14"/>
-    <row hidden="1" r="332" s="70" spans="1:14"/>
-    <row hidden="1" r="333" s="70" spans="1:14"/>
-    <row hidden="1" r="334" s="70" spans="1:14"/>
-    <row hidden="1" r="335" s="70" spans="1:14"/>
-    <row hidden="1" r="336" s="70" spans="1:14"/>
-    <row hidden="1" r="337" s="70" spans="1:14"/>
-    <row hidden="1" r="338" s="70" spans="1:14"/>
-    <row hidden="1" r="339" s="70" spans="1:14"/>
-    <row hidden="1" r="340" s="70" spans="1:14"/>
-    <row hidden="1" r="341" s="70" spans="1:14"/>
-    <row hidden="1" r="342" s="70" spans="1:14"/>
-    <row hidden="1" r="343" s="70" spans="1:14"/>
-    <row hidden="1" r="344" s="70" spans="1:14"/>
-    <row hidden="1" r="345" s="70" spans="1:14"/>
-    <row hidden="1" r="346" s="70" spans="1:14"/>
-    <row hidden="1" r="347" s="70" spans="1:14"/>
-    <row hidden="1" r="348" s="70" spans="1:14"/>
-    <row hidden="1" r="349" s="70" spans="1:14"/>
-    <row hidden="1" r="350" s="70" spans="1:14"/>
-    <row hidden="1" r="351" s="70" spans="1:14"/>
-    <row hidden="1" r="352" s="70" spans="1:14"/>
-    <row hidden="1" r="353" s="70" spans="1:14"/>
-    <row hidden="1" r="354" s="70" spans="1:14"/>
-    <row hidden="1" r="355" s="70" spans="1:14"/>
-    <row hidden="1" r="356" s="70" spans="1:14"/>
-    <row hidden="1" r="357" s="70" spans="1:14"/>
-    <row hidden="1" r="358" s="70" spans="1:14"/>
-    <row hidden="1" r="359" s="70" spans="1:14"/>
-    <row hidden="1" r="360" s="70" spans="1:14"/>
-    <row hidden="1" r="361" s="70" spans="1:14"/>
-    <row hidden="1" r="362" s="70" spans="1:14"/>
-    <row hidden="1" r="363" s="70" spans="1:14"/>
-    <row hidden="1" r="364" s="70" spans="1:14"/>
-    <row hidden="1" r="365" s="70" spans="1:14"/>
-    <row hidden="1" r="366" s="70" spans="1:14"/>
-    <row hidden="1" r="367" s="70" spans="1:14"/>
-    <row hidden="1" r="368" s="70" spans="1:14"/>
-    <row hidden="1" r="369" s="70" spans="1:14"/>
-    <row hidden="1" r="370" s="70" spans="1:14"/>
-    <row hidden="1" r="371" s="70" spans="1:14"/>
-    <row hidden="1" r="372" s="70" spans="1:14"/>
-    <row hidden="1" r="373" s="70" spans="1:14"/>
-    <row hidden="1" r="374" s="70" spans="1:14"/>
-    <row hidden="1" r="375" s="70" spans="1:14"/>
-    <row hidden="1" r="376" s="70" spans="1:14"/>
-    <row hidden="1" r="377" s="70" spans="1:14"/>
-    <row hidden="1" r="378" s="70" spans="1:14"/>
-    <row hidden="1" r="379" s="70" spans="1:14"/>
-    <row hidden="1" r="380" s="70" spans="1:14"/>
-    <row hidden="1" r="381" s="70" spans="1:14"/>
-    <row hidden="1" r="382" s="70" spans="1:14"/>
-    <row hidden="1" r="383" s="70" spans="1:14"/>
-    <row hidden="1" r="384" s="70" spans="1:14"/>
-    <row hidden="1" r="385" s="70" spans="1:14"/>
-    <row hidden="1" r="386" s="70" spans="1:14"/>
-    <row hidden="1" r="387" s="70" spans="1:14"/>
-    <row hidden="1" r="388" s="70" spans="1:14"/>
-    <row hidden="1" r="389" s="70" spans="1:14"/>
-    <row hidden="1" r="390" s="70" spans="1:14"/>
-    <row hidden="1" r="391" s="70" spans="1:14"/>
-    <row hidden="1" r="392" s="70" spans="1:14"/>
-    <row hidden="1" r="393" s="70" spans="1:14"/>
-    <row hidden="1" r="394" s="70" spans="1:14"/>
-    <row hidden="1" r="395" s="70" spans="1:14"/>
-    <row hidden="1" r="396" s="70" spans="1:14"/>
-    <row hidden="1" r="397" s="70" spans="1:14"/>
-    <row hidden="1" r="398" s="70" spans="1:14"/>
-    <row hidden="1" r="399" s="70" spans="1:14"/>
-    <row hidden="1" r="400" s="70" spans="1:14"/>
-    <row hidden="1" r="401" s="70" spans="1:14"/>
-    <row hidden="1" r="402" s="70" spans="1:14"/>
-    <row hidden="1" r="403" s="70" spans="1:14"/>
-    <row hidden="1" r="404" s="70" spans="1:14"/>
-    <row hidden="1" r="405" s="70" spans="1:14"/>
-    <row hidden="1" r="406" s="70" spans="1:14"/>
-    <row hidden="1" r="407" s="70" spans="1:14"/>
-    <row hidden="1" r="408" s="70" spans="1:14"/>
-    <row hidden="1" r="409" s="70" spans="1:14"/>
-    <row hidden="1" r="410" s="70" spans="1:14"/>
-    <row hidden="1" r="411" s="70" spans="1:14"/>
-    <row hidden="1" r="412" s="70" spans="1:14"/>
-    <row hidden="1" r="413" s="70" spans="1:14"/>
-    <row hidden="1" r="414" s="70" spans="1:14"/>
-    <row hidden="1" r="415" s="70" spans="1:14"/>
-    <row hidden="1" r="416" s="70" spans="1:14"/>
-    <row hidden="1" r="417" s="70" spans="1:14"/>
-    <row hidden="1" r="418" s="70" spans="1:14"/>
-    <row hidden="1" r="419" s="70" spans="1:14"/>
-    <row hidden="1" r="420" s="70" spans="1:14"/>
-    <row hidden="1" r="421" s="70" spans="1:14"/>
-    <row hidden="1" r="422" s="70" spans="1:14"/>
-    <row hidden="1" r="423" s="70" spans="1:14"/>
-    <row hidden="1" r="424" s="70" spans="1:14"/>
-    <row hidden="1" r="425" s="70" spans="1:14"/>
-    <row hidden="1" r="426" s="70" spans="1:14"/>
-    <row hidden="1" r="427" s="70" spans="1:14"/>
-    <row hidden="1" r="428" s="70" spans="1:14"/>
-    <row hidden="1" r="429" s="70" spans="1:14"/>
-    <row hidden="1" r="430" s="70" spans="1:14"/>
-    <row hidden="1" r="431" s="70" spans="1:14"/>
-    <row hidden="1" r="432" s="70" spans="1:14"/>
-    <row hidden="1" r="433" s="70" spans="1:14"/>
-    <row hidden="1" r="434" s="70" spans="1:14"/>
-    <row hidden="1" r="435" s="70" spans="1:14"/>
-    <row hidden="1" r="436" s="70" spans="1:14"/>
-    <row hidden="1" r="437" s="70" spans="1:14"/>
-    <row hidden="1" r="438" s="70" spans="1:14"/>
-    <row hidden="1" r="439" s="70" spans="1:14"/>
-    <row hidden="1" r="440" s="70" spans="1:14"/>
-    <row hidden="1" r="441" s="70" spans="1:14"/>
-    <row hidden="1" r="442" s="70" spans="1:14"/>
-    <row hidden="1" r="443" s="70" spans="1:14"/>
-    <row hidden="1" r="444" s="70" spans="1:14"/>
-    <row hidden="1" r="445" s="70" spans="1:14"/>
-    <row hidden="1" r="446" s="70" spans="1:14"/>
-    <row hidden="1" r="447" s="70" spans="1:14"/>
-    <row hidden="1" r="448" s="70" spans="1:14"/>
-    <row hidden="1" r="449" s="70" spans="1:14"/>
-    <row hidden="1" r="450" s="70" spans="1:14"/>
-    <row hidden="1" r="451" s="70" spans="1:14"/>
-    <row hidden="1" r="452" s="70" spans="1:14"/>
-    <row hidden="1" r="453" s="70" spans="1:14"/>
-    <row hidden="1" r="454" s="70" spans="1:14"/>
-    <row hidden="1" r="455" s="70" spans="1:14"/>
-    <row hidden="1" r="456" s="70" spans="1:14"/>
-    <row hidden="1" r="457" s="70" spans="1:14"/>
-    <row hidden="1" r="458" s="70" spans="1:14"/>
-    <row hidden="1" r="459" s="70" spans="1:14"/>
-    <row hidden="1" r="460" s="70" spans="1:14"/>
-    <row hidden="1" r="461" s="70" spans="1:14"/>
-    <row hidden="1" r="462" s="70" spans="1:14"/>
-    <row hidden="1" r="463" s="70" spans="1:14"/>
-    <row hidden="1" r="464" s="70" spans="1:14"/>
-    <row hidden="1" r="465" s="70" spans="1:14"/>
-    <row hidden="1" r="466" s="70" spans="1:14"/>
-    <row hidden="1" r="467" s="70" spans="1:14"/>
-    <row hidden="1" r="468" s="70" spans="1:14"/>
-    <row hidden="1" r="469" s="70" spans="1:14"/>
-    <row hidden="1" r="470" s="70" spans="1:14"/>
-    <row hidden="1" r="471" s="70" spans="1:14"/>
-    <row hidden="1" r="472" s="70" spans="1:14"/>
-    <row hidden="1" r="473" s="70" spans="1:14"/>
-    <row hidden="1" r="474" s="70" spans="1:14"/>
-    <row hidden="1" r="475" s="70" spans="1:14"/>
-    <row hidden="1" r="476" s="70" spans="1:14"/>
-    <row hidden="1" r="477" s="70" spans="1:14"/>
-    <row hidden="1" r="478" s="70" spans="1:14"/>
-    <row hidden="1" r="479" s="70" spans="1:14"/>
-    <row hidden="1" r="480" s="70" spans="1:14"/>
-    <row hidden="1" r="481" s="70" spans="1:14"/>
-    <row hidden="1" r="482" s="70" spans="1:14"/>
-    <row hidden="1" r="483" s="70" spans="1:14"/>
-    <row hidden="1" r="484" s="70" spans="1:14"/>
-    <row hidden="1" r="485" s="70" spans="1:14"/>
-    <row hidden="1" r="486" s="70" spans="1:14"/>
-    <row hidden="1" r="487" s="70" spans="1:14"/>
-    <row hidden="1" r="488" s="70" spans="1:14"/>
-    <row hidden="1" r="489" s="70" spans="1:14"/>
-    <row hidden="1" r="490" s="70" spans="1:14"/>
-    <row hidden="1" r="491" s="70" spans="1:14"/>
-    <row hidden="1" r="492" s="70" spans="1:14"/>
-    <row hidden="1" r="493" s="70" spans="1:14"/>
-    <row hidden="1" r="494" s="70" spans="1:14"/>
-    <row hidden="1" r="495" s="70" spans="1:14"/>
-    <row hidden="1" r="496" s="70" spans="1:14"/>
-    <row hidden="1" r="497" s="70" spans="1:14"/>
-    <row hidden="1" r="498" s="70" spans="1:14"/>
-    <row hidden="1" r="499" s="70" spans="1:14"/>
-    <row hidden="1" r="500" s="70" spans="1:14"/>
-    <row hidden="1" r="501" s="70" spans="1:14"/>
-    <row hidden="1" r="502" s="70" spans="1:14"/>
-    <row hidden="1" r="503" s="70" spans="1:14"/>
-    <row hidden="1" r="504" s="70" spans="1:14"/>
-    <row hidden="1" r="505" s="70" spans="1:14"/>
-    <row hidden="1" r="506" s="70" spans="1:14"/>
-    <row hidden="1" r="507" s="70" spans="1:14"/>
-    <row hidden="1" r="508" s="70" spans="1:14"/>
-    <row hidden="1" r="509" s="70" spans="1:14"/>
-    <row hidden="1" r="510" s="70" spans="1:14"/>
-    <row hidden="1" r="511" s="70" spans="1:14"/>
-    <row hidden="1" r="512" s="70" spans="1:14"/>
-    <row hidden="1" r="513" s="70" spans="1:14"/>
-    <row hidden="1" r="514" s="70" spans="1:14"/>
-    <row hidden="1" r="515" s="70" spans="1:14"/>
-    <row hidden="1" r="516" s="70" spans="1:14"/>
-    <row hidden="1" r="517" s="70" spans="1:14"/>
-    <row hidden="1" r="518" s="70" spans="1:14"/>
-    <row hidden="1" r="519" s="70" spans="1:14"/>
-    <row hidden="1" r="520" s="70" spans="1:14"/>
-    <row hidden="1" r="521" s="70" spans="1:14"/>
-    <row hidden="1" r="522" s="70" spans="1:14"/>
+      <c r="N245" s="54" t="n"/>
+      <c r="O245" s="10" t="n"/>
+    </row>
+    <row r="246" hidden="1" s="70"/>
+    <row r="247" hidden="1" s="70"/>
+    <row r="248" hidden="1" s="70"/>
+    <row r="249" hidden="1" s="70"/>
+    <row r="250" hidden="1" s="70"/>
+    <row r="251" hidden="1" s="70"/>
+    <row r="252" hidden="1" s="70"/>
+    <row r="253" hidden="1" s="70"/>
+    <row r="254" hidden="1" s="70"/>
+    <row r="255" hidden="1" s="70"/>
+    <row r="256" hidden="1" s="70"/>
+    <row r="257" hidden="1" s="70"/>
+    <row r="258" hidden="1" s="70"/>
+    <row r="259" hidden="1" s="70"/>
+    <row r="260" hidden="1" s="70"/>
+    <row r="261" hidden="1" s="70"/>
+    <row r="262" hidden="1" s="70"/>
+    <row r="263" hidden="1" s="70"/>
+    <row r="264" hidden="1" s="70"/>
+    <row r="265" hidden="1" s="70"/>
+    <row r="266" hidden="1" s="70"/>
+    <row r="267" hidden="1" s="70"/>
+    <row r="268" hidden="1" s="70"/>
+    <row r="269" hidden="1" s="70"/>
+    <row r="270" hidden="1" s="70"/>
+    <row r="271" hidden="1" s="70"/>
+    <row r="272" hidden="1" s="70"/>
+    <row r="273" hidden="1" s="70"/>
+    <row r="274" hidden="1" s="70"/>
+    <row r="275" hidden="1" s="70"/>
+    <row r="276" hidden="1" s="70"/>
+    <row r="277" hidden="1" s="70"/>
+    <row r="278" hidden="1" s="70"/>
+    <row r="279" hidden="1" s="70"/>
+    <row r="280" hidden="1" s="70"/>
+    <row r="281" hidden="1" s="70"/>
+    <row r="282" hidden="1" s="70"/>
+    <row r="283" hidden="1" s="70"/>
+    <row r="284" hidden="1" s="70"/>
+    <row r="285" hidden="1" s="70"/>
+    <row r="286" hidden="1" s="70"/>
+    <row r="287" hidden="1" s="70"/>
+    <row r="288" hidden="1" s="70"/>
+    <row r="289" hidden="1" s="70"/>
+    <row r="290" hidden="1" s="70"/>
+    <row r="291" hidden="1" s="70"/>
+    <row r="292" hidden="1" s="70"/>
+    <row r="293" hidden="1" s="70"/>
+    <row r="294" hidden="1" s="70"/>
+    <row r="295" hidden="1" s="70"/>
+    <row r="296" hidden="1" s="70"/>
+    <row r="297" hidden="1" s="70"/>
+    <row r="298" hidden="1" s="70"/>
+    <row r="299" hidden="1" s="70"/>
+    <row r="300" hidden="1" s="70"/>
+    <row r="301" hidden="1" s="70"/>
+    <row r="302" hidden="1" s="70"/>
+    <row r="303" hidden="1" s="70"/>
+    <row r="304" hidden="1" s="70"/>
+    <row r="305" hidden="1" s="70"/>
+    <row r="306" hidden="1" s="70"/>
+    <row r="307" hidden="1" s="70"/>
+    <row r="308" hidden="1" s="70"/>
+    <row r="309" hidden="1" s="70"/>
+    <row r="310" hidden="1" s="70"/>
+    <row r="311" hidden="1" s="70"/>
+    <row r="312" hidden="1" s="70"/>
+    <row r="313" hidden="1" s="70"/>
+    <row r="314" hidden="1" s="70"/>
+    <row r="315" hidden="1" s="70"/>
+    <row r="316" hidden="1" s="70"/>
+    <row r="317" hidden="1" s="70"/>
+    <row r="318" hidden="1" s="70"/>
+    <row r="319" hidden="1" s="70"/>
+    <row r="320" hidden="1" s="70"/>
+    <row r="321" hidden="1" s="70"/>
+    <row r="322" hidden="1" s="70"/>
+    <row r="323" hidden="1" s="70"/>
+    <row r="324" hidden="1" s="70"/>
+    <row r="325" hidden="1" s="70"/>
+    <row r="326" hidden="1" s="70"/>
+    <row r="327" hidden="1" s="70"/>
+    <row r="328" hidden="1" s="70"/>
+    <row r="329" hidden="1" s="70"/>
+    <row r="330" hidden="1" s="70"/>
+    <row r="331" hidden="1" s="70"/>
+    <row r="332" hidden="1" s="70"/>
+    <row r="333" hidden="1" s="70"/>
+    <row r="334" hidden="1" s="70"/>
+    <row r="335" hidden="1" s="70"/>
+    <row r="336" hidden="1" s="70"/>
+    <row r="337" hidden="1" s="70"/>
+    <row r="338" hidden="1" s="70"/>
+    <row r="339" hidden="1" s="70"/>
+    <row r="340" hidden="1" s="70"/>
+    <row r="341" hidden="1" s="70"/>
+    <row r="342" hidden="1" s="70"/>
+    <row r="343" hidden="1" s="70"/>
+    <row r="344" hidden="1" s="70"/>
+    <row r="345" hidden="1" s="70"/>
+    <row r="346" hidden="1" s="70"/>
+    <row r="347" hidden="1" s="70"/>
+    <row r="348" hidden="1" s="70"/>
+    <row r="349" hidden="1" s="70"/>
+    <row r="350" hidden="1" s="70"/>
+    <row r="351" hidden="1" s="70"/>
+    <row r="352" hidden="1" s="70"/>
+    <row r="353" hidden="1" s="70"/>
+    <row r="354" hidden="1" s="70"/>
+    <row r="355" hidden="1" s="70"/>
+    <row r="356" hidden="1" s="70"/>
+    <row r="357" hidden="1" s="70"/>
+    <row r="358" hidden="1" s="70"/>
+    <row r="359" hidden="1" s="70"/>
+    <row r="360" hidden="1" s="70"/>
+    <row r="361" hidden="1" s="70"/>
+    <row r="362" hidden="1" s="70"/>
+    <row r="363" hidden="1" s="70"/>
+    <row r="364" hidden="1" s="70"/>
+    <row r="365" hidden="1" s="70"/>
+    <row r="366" hidden="1" s="70"/>
+    <row r="367" hidden="1" s="70"/>
+    <row r="368" hidden="1" s="70"/>
+    <row r="369" hidden="1" s="70"/>
+    <row r="370" hidden="1" s="70"/>
+    <row r="371" hidden="1" s="70"/>
+    <row r="372" hidden="1" s="70"/>
+    <row r="373" hidden="1" s="70"/>
+    <row r="374" hidden="1" s="70"/>
+    <row r="375" hidden="1" s="70"/>
+    <row r="376" hidden="1" s="70"/>
+    <row r="377" hidden="1" s="70"/>
+    <row r="378" hidden="1" s="70"/>
+    <row r="379" hidden="1" s="70"/>
+    <row r="380" hidden="1" s="70"/>
+    <row r="381" hidden="1" s="70"/>
+    <row r="382" hidden="1" s="70"/>
+    <row r="383" hidden="1" s="70"/>
+    <row r="384" hidden="1" s="70"/>
+    <row r="385" hidden="1" s="70"/>
+    <row r="386" hidden="1" s="70"/>
+    <row r="387" hidden="1" s="70"/>
+    <row r="388" hidden="1" s="70"/>
+    <row r="389" hidden="1" s="70"/>
+    <row r="390" hidden="1" s="70"/>
+    <row r="391" hidden="1" s="70"/>
+    <row r="392" hidden="1" s="70"/>
+    <row r="393" hidden="1" s="70"/>
+    <row r="394" hidden="1" s="70"/>
+    <row r="395" hidden="1" s="70"/>
+    <row r="396" hidden="1" s="70"/>
+    <row r="397" hidden="1" s="70"/>
+    <row r="398" hidden="1" s="70"/>
+    <row r="399" hidden="1" s="70"/>
+    <row r="400" hidden="1" s="70"/>
+    <row r="401" hidden="1" s="70"/>
+    <row r="402" hidden="1" s="70"/>
+    <row r="403" hidden="1" s="70"/>
+    <row r="404" hidden="1" s="70"/>
+    <row r="405" hidden="1" s="70"/>
+    <row r="406" hidden="1" s="70"/>
+    <row r="407" hidden="1" s="70"/>
+    <row r="408" hidden="1" s="70"/>
+    <row r="409" hidden="1" s="70"/>
+    <row r="410" hidden="1" s="70"/>
+    <row r="411" hidden="1" s="70"/>
+    <row r="412" hidden="1" s="70"/>
+    <row r="413" hidden="1" s="70"/>
+    <row r="414" hidden="1" s="70"/>
+    <row r="415" hidden="1" s="70"/>
+    <row r="416" hidden="1" s="70"/>
+    <row r="417" hidden="1" s="70"/>
+    <row r="418" hidden="1" s="70"/>
+    <row r="419" hidden="1" s="70"/>
+    <row r="420" hidden="1" s="70"/>
+    <row r="421" hidden="1" s="70"/>
+    <row r="422" hidden="1" s="70"/>
+    <row r="423" hidden="1" s="70"/>
+    <row r="424" hidden="1" s="70"/>
+    <row r="425" hidden="1" s="70"/>
+    <row r="426" hidden="1" s="70"/>
+    <row r="427" hidden="1" s="70"/>
+    <row r="428" hidden="1" s="70"/>
+    <row r="429" hidden="1" s="70"/>
+    <row r="430" hidden="1" s="70"/>
+    <row r="431" hidden="1" s="70"/>
+    <row r="432" hidden="1" s="70"/>
+    <row r="433" hidden="1" s="70"/>
+    <row r="434" hidden="1" s="70"/>
+    <row r="435" hidden="1" s="70"/>
+    <row r="436" hidden="1" s="70"/>
+    <row r="437" hidden="1" s="70"/>
+    <row r="438" hidden="1" s="70"/>
+    <row r="439" hidden="1" s="70"/>
+    <row r="440" hidden="1" s="70"/>
+    <row r="441" hidden="1" s="70"/>
+    <row r="442" hidden="1" s="70"/>
+    <row r="443" hidden="1" s="70"/>
+    <row r="444" hidden="1" s="70"/>
+    <row r="445" hidden="1" s="70"/>
+    <row r="446" hidden="1" s="70"/>
+    <row r="447" hidden="1" s="70"/>
+    <row r="448" hidden="1" s="70"/>
+    <row r="449" hidden="1" s="70"/>
+    <row r="450" hidden="1" s="70"/>
+    <row r="451" hidden="1" s="70"/>
+    <row r="452" hidden="1" s="70"/>
+    <row r="453" hidden="1" s="70"/>
+    <row r="454" hidden="1" s="70"/>
+    <row r="455" hidden="1" s="70"/>
+    <row r="456" hidden="1" s="70"/>
+    <row r="457" hidden="1" s="70"/>
+    <row r="458" hidden="1" s="70"/>
+    <row r="459" hidden="1" s="70"/>
+    <row r="460" hidden="1" s="70"/>
+    <row r="461" hidden="1" s="70"/>
+    <row r="462" hidden="1" s="70"/>
+    <row r="463" hidden="1" s="70"/>
+    <row r="464" hidden="1" s="70"/>
+    <row r="465" hidden="1" s="70"/>
+    <row r="466" hidden="1" s="70"/>
+    <row r="467" hidden="1" s="70"/>
+    <row r="468" hidden="1" s="70"/>
+    <row r="469" hidden="1" s="70"/>
+    <row r="470" hidden="1" s="70"/>
+    <row r="471" hidden="1" s="70"/>
+    <row r="472" hidden="1" s="70"/>
+    <row r="473" hidden="1" s="70"/>
+    <row r="474" hidden="1" s="70"/>
+    <row r="475" hidden="1" s="70"/>
+    <row r="476" hidden="1" s="70"/>
+    <row r="477" hidden="1" s="70"/>
+    <row r="478" hidden="1" s="70"/>
+    <row r="479" hidden="1" s="70"/>
+    <row r="480" hidden="1" s="70"/>
+    <row r="481" hidden="1" s="70"/>
+    <row r="482" hidden="1" s="70"/>
+    <row r="483" hidden="1" s="70"/>
+    <row r="484" hidden="1" s="70"/>
+    <row r="485" hidden="1" s="70"/>
+    <row r="486" hidden="1" s="70"/>
+    <row r="487" hidden="1" s="70"/>
+    <row r="488" hidden="1" s="70"/>
+    <row r="489" hidden="1" s="70"/>
+    <row r="490" hidden="1" s="70"/>
+    <row r="491" hidden="1" s="70"/>
+    <row r="492" hidden="1" s="70"/>
+    <row r="493" hidden="1" s="70"/>
+    <row r="494" hidden="1" s="70"/>
+    <row r="495" hidden="1" s="70"/>
+    <row r="496" hidden="1" s="70"/>
+    <row r="497" hidden="1" s="70"/>
+    <row r="498" hidden="1" s="70"/>
+    <row r="499" hidden="1" s="70"/>
+    <row r="500" hidden="1" s="70"/>
+    <row r="501" hidden="1" s="70"/>
+    <row r="502" hidden="1" s="70"/>
+    <row r="503" hidden="1" s="70"/>
+    <row r="504" hidden="1" s="70"/>
+    <row r="505" hidden="1" s="70"/>
+    <row r="506" hidden="1" s="70"/>
+    <row r="507" hidden="1" s="70"/>
+    <row r="508" hidden="1" s="70"/>
+    <row r="509" hidden="1" s="70"/>
+    <row r="510" hidden="1" s="70"/>
+    <row r="511" hidden="1" s="70"/>
+    <row r="512" hidden="1" s="70"/>
+    <row r="513" hidden="1" s="70"/>
+    <row r="514" hidden="1" s="70"/>
+    <row r="515" hidden="1" s="70"/>
+    <row r="516" hidden="1" s="70"/>
+    <row r="517" hidden="1" s="70"/>
+    <row r="518" hidden="1" s="70"/>
+    <row r="519" hidden="1" s="70"/>
+    <row r="520" hidden="1" s="70"/>
+    <row r="521" hidden="1" s="70"/>
+    <row r="522" hidden="1" s="70"/>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.6299212598425197" right="0.2755905511811024" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="29" verticalDpi="300"/>
+  <pageMargins left="0.6299212598425197" right="0.2755905511811024" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="29" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>